--- a/routes_optimized.xlsx
+++ b/routes_optimized.xlsx
@@ -8,34 +8,34 @@
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Team_1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Team_2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Team_3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Team_4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Team_5" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Team_6" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Team_7" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Team_8" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Team_9" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Team_10" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Team_11" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Team_12" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Team_13" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Team_14" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Team_15" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Team_16" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Team_17" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Team_18" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Team_19" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Team_20" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Team_21" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Team_22" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Team_23" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Team_24" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Team_25" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="Team_26" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="Team_27" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="Team_28" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="Bezirk_1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Bezirk_2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Bezirk_3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Bezirk_4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Bezirk_5" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Bezirk_6" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Bezirk_7" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Bezirk_8" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Bezirk_9" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Bezirk_10" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Bezirk_11" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Bezirk_12" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Bezirk_13" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Bezirk_14" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Bezirk_15" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Bezirk_16" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Bezirk_17" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Bezirk_18" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Bezirk_19" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Bezirk_20" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Bezirk_21" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Bezirk_22" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Bezirk_23" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Bezirk_24" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Bezirk_25" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Bezirk_26" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="Bezirk_27" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="Bezirk_28" sheetId="29" state="visible" r:id="rId29"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,37 +464,42 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Team</t>
+          <t>Kontrollbezirk</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Stops</t>
+          <t>Anzahl Wahllokale</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Rooms</t>
+          <t>Anzahl Stimmbezirke</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Service_min</t>
+          <t>Wegstrecke (km)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Travel_min</t>
+          <t>Fahrtzeit (min)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Total_h</t>
+          <t>Kontrollzeit (min)</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>GMaps</t>
+          <t>Gesamtzeit</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -503,25 +508,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>60</v>
+        <v>2.1</v>
       </c>
       <c r="E2" t="n">
-        <v>17.4</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1:17:00</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="F2" t="n">
+        <v>50</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/Dingb%C3%A4ngerweg+80%2C+48163+M%C3%BCnster/Kleibusch+10%2C+48163+M%C3%BCnster/Wiedaustra%C3%9Fe+114%2C+48163+M%C3%BCnster</t>
+          <t>0:54:00</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/dir/51.93262055,7.580143024353202/51.91972195,7.575926144323704</t>
         </is>
       </c>
     </row>
@@ -530,25 +538,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>60</v>
+        <v>7.1</v>
       </c>
       <c r="E3" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1:07:00</t>
-        </is>
+        <v>14</v>
+      </c>
+      <c r="F3" t="n">
+        <v>70</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/H%C3%B6ftestra%C3%9Fe+4%2C+48167+M%C3%BCnster/Zum+Erlenbusch+15%2C+48167+M%C3%BCnster/V%C3%B6rnste+Esch+19%2C+48167+M%C3%BCnster</t>
+          <t>1:24:00</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/dir/51.92762325,7.657646146522559/51.9213159,7.680753611632205/51.9323056,7.673866149953675/51.9246104,7.673691163250751</t>
         </is>
       </c>
     </row>
@@ -557,25 +568,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>110</v>
+        <v>2.1</v>
       </c>
       <c r="E4" t="n">
-        <v>14.7</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2:04:00</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>70</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/An+der+Meerwiese+7%2C+48157+M%C3%BCnster/Thomas-Morus-Weg+7%2C+48147+M%C3%BCnster/P%C3%B6tterhoek+45%2C+48145+M%C3%BCnster/Lahnstra%C3%9Fe+3%2C+48145+M%C3%BCnster/Wiener+Stra%C3%9Fe+53%2C+48145+M%C3%BCnster</t>
+          <t>1:14:00</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/dir/51.98915895,7.648910980987003/51.97468825,7.644125496047033</t>
         </is>
       </c>
     </row>
@@ -590,19 +604,22 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
         <v>40</v>
       </c>
-      <c r="E5" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0:42:00</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/Josef-Beckmann-Stra%C3%9Fe+33%2C+48159+M%C3%BCnster/Sprickmannplatz+1%2C+48159+M%C3%BCnster/Sprickmannplatz+7%2C+48159+M%C3%BCnster</t>
+          <t>0:41:00</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/dir/51.99691815,7.593705277551625/51.9987374,7.594974856015037/51.99899595,7.594411513785913</t>
         </is>
       </c>
     </row>
@@ -617,19 +634,22 @@
         <v>7</v>
       </c>
       <c r="D6" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="E6" t="n">
+        <v>7</v>
+      </c>
+      <c r="F6" t="n">
         <v>70</v>
       </c>
-      <c r="E6" t="n">
-        <v>11.4</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1:21:00</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/Bismarckallee+55%2C+48151+M%C3%BCnster/Prinz-Eugen-Stra%C3%9Fe+27%2C+48151+M%C3%BCnster/Sentmaringer+Weg+61%2C+48151+M%C3%BCnster/Metzer+Stra%C3%9Fe+41%2C+48151+M%C3%BCnster/Gut+Insel+36%2C+48151+M%C3%BCnster</t>
+          <t>1:17:00</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/dir/51.9394195,7.628834869047619/51.93860585,7.61298881209431/51.9400423,7.620743128124999/51.94719195,7.618812311468304/51.9442968,7.6154512</t>
         </is>
       </c>
     </row>
@@ -644,19 +664,22 @@
         <v>9</v>
       </c>
       <c r="D7" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="E7" t="n">
+        <v>17</v>
+      </c>
+      <c r="F7" t="n">
         <v>90</v>
       </c>
-      <c r="E7" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1:43:00</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/Hohe+Geist+8%2C+48163+M%C3%BCnster/Auf+dem+Dorn+14%2C+48161+M%C3%BCnster/Tilbecker+Stra%C3%9Fe+24-26%2C+48161+M%C3%BCnster</t>
+          <t>1:47:00</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/dir/51.955106400000005,7.530773881241168/51.9227202,7.528324261355753/51.9543838,7.5294497</t>
         </is>
       </c>
     </row>
@@ -665,25 +688,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>50</v>
+        <v>16.6</v>
       </c>
       <c r="E8" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0:54:00</t>
-        </is>
+        <v>33</v>
+      </c>
+      <c r="F8" t="n">
+        <v>60</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/Drostestra%C3%9Fe+7%2C+48157+M%C3%BCnster/Eichenaue+3%2C+48157+M%C3%BCnster/Immelmannstra%C3%9Fe+37%2C+48157+M%C3%BCnster</t>
+          <t>1:33:00</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/dir/51.9901032,7.703648538461694/51.995582600000006,7.712675513581021/52.0297395,7.675133013988717/51.99904765,7.715916456448493</t>
         </is>
       </c>
     </row>
@@ -692,25 +718,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>50</v>
+        <v>3.4</v>
       </c>
       <c r="E9" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0:52:00</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="F9" t="n">
+        <v>60</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/Am+Wigbold+11%2C+48167+M%C3%BCnster/Von-Holte-Stra%C3%9Fe+56%2C+48167+M%C3%BCnster</t>
+          <t>1:06:00</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/dir/51.9629282,7.631154381245056/51.9668954,7.638297652655629/51.96307795,7.633580846191878/51.9694873,7.635009555835926</t>
         </is>
       </c>
     </row>
@@ -719,25 +748,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>6</v>
       </c>
       <c r="D10" t="n">
+        <v>2</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="n">
         <v>60</v>
       </c>
-      <c r="E10" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1:07:00</t>
-        </is>
-      </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/Alter+Steinweg+11%2C+48143+M%C3%BCnster/Sonnenstra%C3%9Fe+18%2C+48143+M%C3%BCnster/Bohlweg+7%2C+48147+M%C3%BCnster/St%C3%BChmerweg+10%2C+48147+M%C3%BCnster</t>
+          <t>1:04:00</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/dir/51.96521775,7.566958722373362/51.96836905,7.566242756578949/51.9736935,7.560533384811269</t>
         </is>
       </c>
     </row>
@@ -746,25 +778,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>60</v>
+        <v>1.6</v>
       </c>
       <c r="E11" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1:06:00</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="F11" t="n">
+        <v>40</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/Dieckmannstra%C3%9Fe+131%2C+48161+M%C3%BCnster/Gronowskistra%C3%9Fe+70%2C+48161+M%C3%BCnster/S%C3%BCdlohnweg+1%2C+48161+M%C3%BCnster</t>
+          <t>0:43:00</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/dir/51.975366,7.615509499999999/51.9815871,7.614148399880134</t>
         </is>
       </c>
     </row>
@@ -773,25 +808,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D12" t="n">
-        <v>40</v>
+        <v>6.7</v>
       </c>
       <c r="E12" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0:44:00</t>
-        </is>
+        <v>13</v>
+      </c>
+      <c r="F12" t="n">
+        <v>110</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/Friesenring+25%2C+48147+M%C3%BCnster/Kinderhauser+Stra%C3%9Fe+112%2C+48147+M%C3%BCnster</t>
+          <t>2:03:00</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/dir/51.90366345,7.626606101187082/51.89424385,7.57817422018965/51.88487405,7.605494331904568</t>
         </is>
       </c>
     </row>
@@ -803,22 +841,25 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>100</v>
+        <v>1.5</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1:50:00</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="F13" t="n">
+        <v>40</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/An+der+Alten+Kirche+161%2C+48165+M%C3%BCnster/Zum+H%C3%A4pper+10%2C+48163+M%C3%BCnster</t>
+          <t>0:43:00</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/dir/51.94163015,7.605145209437712/51.9367046,7.592762937389198</t>
         </is>
       </c>
     </row>
@@ -827,25 +868,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D14" t="n">
-        <v>40</v>
+        <v>4.3</v>
       </c>
       <c r="E14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>0:44:00</t>
-        </is>
+        <v>8</v>
+      </c>
+      <c r="F14" t="n">
+        <v>70</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/Bonhoefferstra%C3%9Fe+50%2C+48151+M%C3%BCnster/Echelmeyerstra%C3%9Fe+19%2C+48163+M%C3%BCnster</t>
+          <t>1:18:00</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/dir/51.96324975,7.677774215483531/51.9504953,7.6715697/51.953803,7.670894359758268/51.9541194,7.670787181325013/51.958244,7.665472903003269</t>
         </is>
       </c>
     </row>
@@ -854,25 +898,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="n">
         <v>5</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="E15" t="n">
         <v>7</v>
       </c>
-      <c r="D15" t="n">
-        <v>70</v>
-      </c>
-      <c r="E15" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1:20:00</t>
-        </is>
+      <c r="F15" t="n">
+        <v>50</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/An+der+Konradkirche+7%2C+48155+M%C3%BCnster/Heinrich-Lersch-Weg+9%2C+48155+M%C3%BCnster/Laerer+Landweg+153%2C+48155+M%C3%BCnster/Hegerskamp+3%2C+48155+M%C3%BCnster/Merschkamp+23%2C+48155+M%C3%BCnster</t>
+          <t>0:57:00</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/dir/51.9970641,7.6477306/51.99323095,7.645804421953839/51.99176755,7.666422605438813</t>
         </is>
       </c>
     </row>
@@ -881,25 +928,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
         <v>6</v>
       </c>
       <c r="D16" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
         <v>60</v>
       </c>
-      <c r="E16" t="n">
-        <v>26.2</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1:26:00</t>
-        </is>
-      </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/Gelmerheide+3%2C+48157+M%C3%BCnster/Rudolf-Diesel-Stra%C3%9Fe+7%2C+48157+M%C3%BCnster/Dachsleite+32-36%2C+48157+M%C3%BCnster/K%C3%B6nigsberger+Stra%C3%9Fe+91%2C+48157+M%C3%BCnster</t>
+          <t>1:01:00</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/dir/51.95038475,7.63116767430181/51.9536301,7.631478285026144/51.95502795,7.627151777945296</t>
         </is>
       </c>
     </row>
@@ -908,25 +958,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D17" t="n">
-        <v>120</v>
+        <v>1.4</v>
       </c>
       <c r="E17" t="n">
-        <v>12.8</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2:12:00</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="F17" t="n">
+        <v>60</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/Gr%C3%BCne+Gasse+38-40%2C+48143+M%C3%BCnster/Von-Kluck-Stra%C3%9Fe+22%2C+48151+M%C3%BCnster/Antoniusstra%C3%9Fe+32%2C+48151+M%C3%BCnster/Ludgeriplatz+4%2C+48151+M%C3%BCnster/Hafenstra%C3%9Fe+34%2C+48153+M%C3%BCnster/Friedrich-Ebert-Stra%C3%9Fe+46%2C+48153+M%C3%BCnster/Dahlweg+118%2C+48153+M%C3%BCnster</t>
+          <t>1:02:00</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/dir/51.9737797,7.620670488251879/51.9766616,7.625917591294643</t>
         </is>
       </c>
     </row>
@@ -935,25 +988,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>60</v>
+        <v>7.8</v>
       </c>
       <c r="E18" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1:04:00</t>
-        </is>
+        <v>15</v>
+      </c>
+      <c r="F18" t="n">
+        <v>70</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/Finkenstra%C3%9Fe+76%2C+48147+M%C3%BCnster/Uppenkampstiege+17%2C+48147+M%C3%BCnster</t>
+          <t>1:25:00</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/dir/51.99614235,7.559480267994298/52.0229139,7.56608970890625/52.03693315,7.609531337994388</t>
         </is>
       </c>
     </row>
@@ -962,25 +1018,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>70</v>
+        <v>0.2</v>
       </c>
       <c r="E19" t="n">
-        <v>23.3</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>1:33:00</t>
-        </is>
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>50</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/Kirmstra%C3%9Fe+1%2C+48161+M%C3%BCnster/Plantstaken+55%2C+48161+M%C3%BCnster/Wei%C3%9Fdornweg+40%2C+48159+M%C3%BCnster</t>
+          <t>0:50:00</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/dir/51.96779325,7.581247009083935/51.9694248,7.581805346375804</t>
         </is>
       </c>
     </row>
@@ -989,25 +1048,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D20" t="n">
-        <v>50</v>
+        <v>7.8</v>
       </c>
       <c r="E20" t="n">
-        <v>17</v>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1:06:00</t>
-        </is>
+        <v>15</v>
+      </c>
+      <c r="F20" t="n">
+        <v>100</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/Heeremansweg+13%2C+48167+M%C3%BCnster/Loddenweg+12%2C+48165+M%C3%BCnster/Loddenweg+8a%2C+48165+M%C3%BCnster</t>
+          <t>1:55:00</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/dir/51.9331045,7.612316207538708/51.9246017,7.616106575165615/51.9351064,7.624068471386618/51.9207589,7.613674901731838</t>
         </is>
       </c>
     </row>
@@ -1016,25 +1078,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
+        <v>10</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="E21" t="n">
         <v>5</v>
       </c>
-      <c r="D21" t="n">
-        <v>50</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0:50:00</t>
-        </is>
+      <c r="F21" t="n">
+        <v>100</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/Appelbreistiege+40%2C+48149+M%C3%BCnster/Rudolf-Steiner-Weg+11%2C+48161+M%C3%BCnster</t>
+          <t>1:45:00</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/dir/51.907630350000005,7.665853244332855/51.90685355,7.667563705195853/51.9065353,7.646594849248558/51.9008006,7.641498432092007</t>
         </is>
       </c>
     </row>
@@ -1046,22 +1111,25 @@
         <v>4</v>
       </c>
       <c r="C22" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>100</v>
+        <v>1.3</v>
       </c>
       <c r="E22" t="n">
-        <v>16.2</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>1:56:00</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="F22" t="n">
+        <v>80</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/Hogenbergstra%C3%9Fe+160%2C+48153+M%C3%BCnster/Spichernstra%C3%9Fe+17%2C+48153+M%C3%BCnster/Glatzer+Weg+9%2C+48151+M%C3%BCnster/Vennheideweg+100%2C+48165+M%C3%BCnster</t>
+          <t>1:22:00</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/dir/51.96006265,7.645207713023179/51.958032,7.65573444762099/51.963234150000005,7.648959437512636/51.96376715,7.650289550752131</t>
         </is>
       </c>
     </row>
@@ -1070,25 +1138,28 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D23" t="n">
-        <v>60</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1:02:00</t>
-        </is>
+        <v>18</v>
+      </c>
+      <c r="F23" t="n">
+        <v>80</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/Unckelstra%C3%9Fe+19%2C+48165+M%C3%BCnster/Westfalenstra%C3%9Fe+203%2C+48165+M%C3%BCnster</t>
+          <t>1:38:00</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/dir/51.92308165,7.699121370363766/51.9153201,7.729627892884797/51.9147512,7.695004957462609/51.9146987,7.7202582</t>
         </is>
       </c>
     </row>
@@ -1100,22 +1171,25 @@
         <v>4</v>
       </c>
       <c r="C24" t="n">
+        <v>7</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="E24" t="n">
         <v>8</v>
       </c>
-      <c r="D24" t="n">
-        <v>80</v>
-      </c>
-      <c r="E24" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>1:23:00</t>
-        </is>
+      <c r="F24" t="n">
+        <v>70</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/Gutenbergstra%C3%9Fe+14%2C+48145+M%C3%BCnster/Manfred-von-Richthofen-Str.+46%2C+48145+M%C3%BCnster/Sankt-Mauritz-Freiheit+25%2C+48145+M%C3%BCnster/Stiftsstra%C3%9Fe+19%2C+48145+M%C3%BCnster</t>
+          <t>1:18:00</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/dir/51.9547017,7.645539912017435/51.95623855,7.644752314250903/51.9426636,7.641893159116444/51.9401638,7.64394955</t>
         </is>
       </c>
     </row>
@@ -1124,25 +1198,28 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D25" t="n">
-        <v>30</v>
+        <v>2.8</v>
       </c>
       <c r="E25" t="n">
-        <v>8.9</v>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0:38:00</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="F25" t="n">
+        <v>70</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/Alt+Angelmodde+15%2C+48167+M%C3%BCnster/Eichendorffstra%C3%9Fe+36%2C+48167+M%C3%BCnster</t>
+          <t>1:15:00</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/dir/51.99257595,7.6162983710793535/51.9893852,7.604524684580532/51.99835155,7.604638020118084</t>
         </is>
       </c>
     </row>
@@ -1151,25 +1228,28 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D26" t="n">
-        <v>70</v>
+        <v>2.5</v>
       </c>
       <c r="E26" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>1:22:00</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="F26" t="n">
+        <v>100</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/Margaretenstra%C3%9Fe+6%2C+48145+M%C3%BCnster/Hansaring+80%2C+48155+M%C3%BCnster/Nieberdingstra%C3%9Fe+30a%2C+48155+M%C3%BCnster/R%C3%B6snerstra%C3%9Fe+10%2C+48155+M%C3%BCnster</t>
+          <t>1:45:00</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/dir/51.9691151,7.6280025/51.96409405,7.619764501707207/51.969471850000005,7.623725470020581</t>
         </is>
       </c>
     </row>
@@ -1184,19 +1264,22 @@
         <v>7</v>
       </c>
       <c r="D27" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="E27" t="n">
+        <v>5</v>
+      </c>
+      <c r="F27" t="n">
         <v>70</v>
       </c>
-      <c r="E27" t="n">
-        <v>8</v>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1:18:00</t>
-        </is>
-      </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/Br%C3%B6derichweg+36%2C+48159+M%C3%BCnster/Von-Humboldt-Stra%C3%9Fe+14%2C+48159+M%C3%BCnster/Im+Moorhock+71%2C+48159+M%C3%BCnster</t>
+          <t>1:15:00</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/dir/51.9682696,7.595463298034186/51.95921025,7.604975700000001/51.9553255,7.594873290090079</t>
         </is>
       </c>
     </row>
@@ -1205,25 +1288,28 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>100</v>
+        <v>3.4</v>
       </c>
       <c r="E28" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1:44:00</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="F28" t="n">
+        <v>60</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/Coerdestra%C3%9Fe+8%2C+48147+M%C3%BCnster/Kampstra%C3%9Fe+15%2C+48147+M%C3%BCnster/J%C3%BCdefelderstra%C3%9Fe+10%2C+48143+M%C3%BCnster</t>
+          <t>1:06:00</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/dir/51.9529829,7.621452075627948/51.95197455,7.609399799788202/51.9581485,7.6237268/51.9545184,7.6234543</t>
         </is>
       </c>
     </row>
@@ -1235,22 +1321,25 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>70</v>
+        <v>1.8</v>
       </c>
       <c r="E29" t="n">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1:18:00</t>
-        </is>
+        <v>3</v>
+      </c>
+      <c r="F29" t="n">
+        <v>40</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/Corrensstra%C3%9Fe+25%2C+48149+M%C3%BCnster/Robert-Koch-Stra%C3%9Fe+40%2C+48149+M%C3%BCnster/Sentruper+H%C3%B6he+5%2C+48149+M%C3%BCnster</t>
+          <t>0:43:00</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/dir/51.9689185,7.657580547697081/51.9736133,7.653737016012916/51.96880045,7.650988831189711</t>
         </is>
       </c>
     </row>
@@ -1265,7 +1354,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1276,7 +1365,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Reihenfolge</t>
+          <t>Bezirk</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -1286,12 +1375,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>WahlraumIDs</t>
+          <t>Stimmbezirke</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Anzahl_Wahlräume</t>
+          <t>Anzahl Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -1301,16 +1395,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alter Steinweg 11, 48143 Münster</t>
+          <t>Dieckmannstraße 131, 48161 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['014 - Prinzipalmarkt']</t>
+          <t>314 - Dieckmannstraße 315 - Heinrich-Ebel-Straße</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.96521775%2C7.566958722373362</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -1319,16 +1418,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sonnenstraße 18, 48143 Münster</t>
+          <t>Gronowskistraße 70, 48161 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['013 - Sonnenstraße']</t>
+          <t>312 - Nünningweg 313 - Ramertsweg</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.96836905%2C7.566242756578949</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -1337,34 +1441,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bohlweg 7, 48147 Münster</t>
+          <t>Südlohnweg 1, 48161 Münster</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['044 - Landeshaus' '047 - Gartenstraße']</t>
+          <t>311 - Heekweg 333 - Doornbeckeweg</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Stühmerweg 10, 48147 Münster</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>['045 - Zeppelinstraße' '046 - Kolpingstraße']</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9736935%2C7.560533384811269</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1378,7 +1469,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1389,7 +1480,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Reihenfolge</t>
+          <t>Bezirk</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -1399,12 +1490,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>WahlraumIDs</t>
+          <t>Stimmbezirke</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Anzahl_Wahlräume</t>
+          <t>Anzahl Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -1414,16 +1510,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dieckmannstraße 131, 48161 Münster</t>
+          <t>Friesenring 25, 48147 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['314 - Dieckmannstraße' '315 - Heinrich-Ebel-Straße']</t>
+          <t>051 - Salzmannstraße 054 - Kinderhauser Straße 055 - Koburger Weg</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.975366%2C7.615509499999999</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -1432,34 +1533,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gronowskistraße 70, 48161 Münster</t>
+          <t>Kinderhauser Straße 112, 48147 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['312 - Nünningweg' '313 - Ramertsweg']</t>
+          <t>056 - Dreizehnerstraße</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Südlohnweg 1, 48161 Münster</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>['311 - Heekweg' '333 - Doornbeckeweg']</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9815871%2C7.614148399880134</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1473,7 +1561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1484,7 +1572,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Reihenfolge</t>
+          <t>Bezirk</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -1494,12 +1582,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>WahlraumIDs</t>
+          <t>Stimmbezirke</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Anzahl_Wahlräume</t>
+          <t>Anzahl Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -1509,16 +1602,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Friesenring 25, 48147 Münster</t>
+          <t>An der Alten Kirche 161, 48165 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['051 - Salzmannstraße' '054 - Kinderhauser Straße' '055 - Koburger Weg']</t>
+          <t>235 - Hünenburg 236 - Böttcherstraße 237 - Albertsheide
+ 238 - Wielandstraße 255 - Theodor-Storm-Straße 263 - Langestraße</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.90366345%2C7.626606101187082</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -1527,16 +1626,45 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kinderhauser Straße 112, 48147 Münster</t>
+          <t>Wiedaustraße 114, 48163 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['056 - Dreizehnerstraße']</t>
+          <t>261 - Loevelingloh</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.89424385%2C7.57817422018965</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Zum Häpper 10, 48163 Münster</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>264 - Auf der Woort 265 - Pater-Kolbe-Straße 266 - Zur Windmühle
+ 267 - Emmerweg</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.88487405%2C7.605494331904568</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1550,7 +1678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1561,7 +1689,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Reihenfolge</t>
+          <t>Bezirk</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -1571,12 +1699,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>WahlraumIDs</t>
+          <t>Stimmbezirke</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Anzahl_Wahlräume</t>
+          <t>Anzahl Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -1586,17 +1719,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>An der Alten Kirche 161, 48165 Münster</t>
+          <t>Bonhoefferstraße 50, 48151 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['235 - Hünenburg' '236 - Böttcherstraße' '237 - Albertsheide'
- '238 - Wielandstraße' '255 - Theodor-Storm-Straße' '263 - Langestraße']</t>
+          <t>123 - Goerdelerstraße 124 - Bonhoefferstraße 125 - Lange Ossenbeck</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>3</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.94163015%2C7.605145209437712</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -1605,17 +1742,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Zum Häpper 10, 48163 Münster</t>
+          <t>Echelmeyerstraße 19, 48163 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['264 - Auf der Woort' '265 - Pater-Kolbe-Straße' '266 - Zur Windmühle'
- '267 - Emmerweg']</t>
+          <t>282 - Ossenkampstiege</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9367046%2C7.592762937389198</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1629,7 +1770,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1640,7 +1781,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Reihenfolge</t>
+          <t>Bezirk</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -1650,12 +1791,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>WahlraumIDs</t>
+          <t>Stimmbezirke</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Anzahl_Wahlräume</t>
+          <t>Anzahl Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -1665,16 +1811,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bonhoefferstraße 50, 48151 Münster</t>
+          <t>An der Konradkirche 7, 48155 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['123 - Goerdelerstraße' '124 - Bonhoefferstraße' '125 - Lange Ossenbeck']</t>
+          <t>174 - An der Konradkirche</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.96324975%2C7.677774215483531</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -1683,16 +1834,90 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Echelmeyerstraße 19, 48163 Münster</t>
+          <t>Hegerskamp 3, 48155 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['282 - Ossenkampstiege']</t>
+          <t>193 - Stephanweg</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9504953%2C7.6715697</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Heinrich-Lersch-Weg 9, 48155 Münster</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>194 - Damaschkeweg</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.953803%2C7.670894359758268</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Laerer Landweg 153, 48155 Münster</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>191 - Haus-Kleve-Weg 192 - Hegerskamp 195 - Franz-Grillparzer-Weg</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9541194%2C7.670787181325013</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Merschkamp 23, 48155 Münster</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>173 - Maikottenweg</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.958244%2C7.665472903003269</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1706,7 +1931,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1717,7 +1942,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Reihenfolge</t>
+          <t>Bezirk</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -1727,12 +1952,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>WahlraumIDs</t>
+          <t>Stimmbezirke</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Anzahl_Wahlräume</t>
+          <t>Anzahl Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -1742,16 +1972,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>An der Konradkirche 7, 48155 Münster</t>
+          <t>Dachsleite 32-36, 48157 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['174 - An der Konradkirche']</t>
+          <t>161 - Dachsleite 166 - Marderweg</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9970641%2C7.6477306</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -1760,16 +1995,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Heinrich-Lersch-Weg 9, 48155 Münster</t>
+          <t>Königsberger Straße 91, 48157 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['194 - Damaschkeweg']</t>
+          <t>164 - Görlitzer Straße 165 - Breslauer Straße</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.99323095%2C7.645804421953839</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -1778,52 +2018,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Laerer Landweg 153, 48155 Münster</t>
+          <t>Rudolf-Diesel-Straße 7, 48157 Münster</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['191 - Haus-Kleve-Weg' '192 - Hegerskamp' '195 - Franz-Grillparzer-Weg']</t>
+          <t>172 - Dyckburgstraße</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Hegerskamp 3, 48155 Münster</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>['193 - Stephanweg']</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Merschkamp 23, 48155 Münster</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>['173 - Maikottenweg']</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.99176755%2C7.666422605438813</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1837,7 +2046,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1848,7 +2057,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Reihenfolge</t>
+          <t>Bezirk</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -1858,12 +2067,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>WahlraumIDs</t>
+          <t>Stimmbezirke</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Anzahl_Wahlräume</t>
+          <t>Anzahl Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -1873,16 +2087,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gelmerheide 3, 48157 Münster</t>
+          <t>Friedrich-Ebert-Straße 46, 48153 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['171 - Gelmer']</t>
+          <t>101 - Zumbroockstraße 106 - Kronprinzenstraße 107 - Herdingstraße</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.95038475%2C7.63116767430181</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -1891,16 +2110,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rudolf-Diesel-Straße 7, 48157 Münster</t>
+          <t>Hafenstraße 34, 48153 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['172 - Dyckburgstraße']</t>
+          <t>091 - Bahnhofstraße</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9536301%2C7.631478285026144</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -1909,34 +2133,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Dachsleite 32-36, 48157 Münster</t>
+          <t>Ludgeriplatz 4, 48151 Münster</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['161 - Dachsleite' '166 - Marderweg']</t>
+          <t>094 - Josef 096 - Engelenschanze</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Königsberger Straße 91, 48157 Münster</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>['164 - Görlitzer Straße' '165 - Breslauer Straße']</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.95502795%2C7.627151777945296</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1950,7 +2161,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1961,7 +2172,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Reihenfolge</t>
+          <t>Bezirk</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -1971,12 +2182,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>WahlraumIDs</t>
+          <t>Stimmbezirke</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Anzahl_Wahlräume</t>
+          <t>Anzahl Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -1986,16 +2202,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grüne Gasse 38-40, 48143 Münster</t>
+          <t>Finkenstraße 76, 48147 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['015 - Aegidii']</t>
+          <t>021 - Kapuzinerstraße 022 - Gasselstiege 023 - Marientalstraße
+ 031 - Finkenstraße</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9737797%2C7.620670488251879</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -2004,106 +2226,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Von-Kluck-Straße 22, 48151 Münster</t>
+          <t>Uppenkampstiege 17, 48147 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['095 - Antoniuskirche' '112 - Hornstraße']</t>
+          <t>052 - Nevinghoff/Flandernstraße 053 - Uppenkampstiege</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Antoniusstraße 32, 48151 Münster</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>['111 - Goebenstraße']</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ludgeriplatz 4, 48151 Münster</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>['094 - Josef' '096 - Engelenschanze']</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Hafenstraße 34, 48153 Münster</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>['091 - Bahnhofstraße']</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Friedrich-Ebert-Straße 46, 48153 Münster</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>['101 - Zumbroockstraße' '106 - Kronprinzenstraße' '107 - Herdingstraße']</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Dahlweg 118, 48153 Münster</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>['114 - Weißenburgstraße' '132 - Grevingstraße']</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>2</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9766616%2C7.625917591294643</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2117,7 +2254,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2128,7 +2265,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Reihenfolge</t>
+          <t>Bezirk</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -2138,12 +2275,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>WahlraumIDs</t>
+          <t>Stimmbezirke</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Anzahl_Wahlräume</t>
+          <t>Anzahl Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -2153,18 +2295,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Finkenstraße 76, 48147 Münster</t>
+          <t>Kirmstraße 1, 48161 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['021 - Kapuzinerstraße' '022 - Gasselstiege' '023 - Marientalstraße'
- '031 - Finkenstraße']</t>
+          <t>332 - Sebastianstraße 334 - Feldstiege 335 - Von-Schonebeck-Ring
+ 336 - Stefan-Zweig-Straße</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>4</v>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.99614235%2C7.559480267994298</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -2172,16 +2319,44 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Uppenkampstiege 17, 48147 Münster</t>
+          <t>Plantstaken 55, 48161 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['052 - Nevinghoff/Flandernstraße' '053 - Uppenkampstiege']</t>
+          <t>331 - Häger</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=52.0229139%2C7.56608970890625</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Weißdornweg 40, 48159 Münster</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>151 - Sprakel 152 - Sandruper Straße</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=52.03693315%2C7.609531337994388</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2195,7 +2370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2206,7 +2381,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Reihenfolge</t>
+          <t>Bezirk</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -2216,12 +2391,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>WahlraumIDs</t>
+          <t>Stimmbezirke</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Anzahl_Wahlräume</t>
+          <t>Anzahl Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -2231,17 +2411,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kirmstraße 1, 48161 Münster</t>
+          <t>Appelbreistiege 40, 48149 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['332 - Sebastianstraße' '334 - Feldstiege' '335 - Von-Schonebeck-Ring'
- '336 - Stefan-Zweig-Straße']</t>
+          <t>322 - Gievenbecker Weg 323 - Potstiege 324 - Twenteweg</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.96779325%2C7.581247009083935</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -2250,34 +2434,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Plantstaken 55, 48161 Münster</t>
+          <t>Rudolf-Steiner-Weg 11, 48161 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['331 - Häger']</t>
+          <t>321 - Legdenweg 325 - Gescherweg</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Weißdornweg 40, 48159 Münster</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>['151 - Sprakel' '152 - Sandruper Straße']</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9694248%2C7.581805346375804</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2291,7 +2462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2302,7 +2473,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Reihenfolge</t>
+          <t>Bezirk</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -2312,12 +2483,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>WahlraumIDs</t>
+          <t>Stimmbezirke</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Anzahl_Wahlräume</t>
+          <t>Anzahl Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -2332,13 +2508,18 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['281 - Hesselmann' '283 - Dingbängerweg' '284 - Am Dill'
- '285 - Rote Erde']</t>
+          <t>281 - Hesselmann 283 - Dingbängerweg 284 - Am Dill
+ 285 - Rote Erde</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>4</v>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.93262055%2C7.580143024353202</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -2351,29 +2532,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['272 - Heroldstraße']</t>
+          <t>272 - Heroldstraße</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Wiedaustraße 114, 48163 Münster</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>['261 - Loevelingloh']</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.91972195%2C7.575926144323704</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2387,7 +2555,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2398,7 +2566,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Reihenfolge</t>
+          <t>Bezirk</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -2408,12 +2576,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>WahlraumIDs</t>
+          <t>Stimmbezirke</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Anzahl_Wahlräume</t>
+          <t>Anzahl Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -2423,16 +2596,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Heeremansweg 13, 48167 Münster</t>
+          <t>Glatzer Weg 9, 48151 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['205 - Heeremansweg']</t>
+          <t>134 - Sternbusch 135 - Kriegerweg 136 - Clemenshospital</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9331045%2C7.612316207538708</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -2441,16 +2619,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Loddenweg 12, 48165 Münster</t>
+          <t>Hogenbergstraße 160, 48153 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['241 - Ringstraße' '244 - Hülsheide' '245 - Am Roggenkamp']</t>
+          <t>231 - Hogenbergstraße 232 - Am Berg Fidel 233 - Siemensstraße</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>3</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9246017%2C7.616106575165615</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -2459,16 +2642,44 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Loddenweg 8a, 48165 Münster</t>
+          <t>Spichernstraße 17, 48153 Münster</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['242 - Rubensstraße']</t>
+          <t>103 - Alfred-Krupp-Weg 105 - Dahlweg 133 - Spichernstraße</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9351064%2C7.624068471386618</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Vennheideweg 100, 48165 Münster</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>234 - Vennheideweg</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9207589%2C7.613674901731838</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2482,7 +2693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2493,7 +2704,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Reihenfolge</t>
+          <t>Bezirk</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -2503,12 +2714,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>WahlraumIDs</t>
+          <t>Stimmbezirke</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Anzahl_Wahlräume</t>
+          <t>Anzahl Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -2518,16 +2734,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Appelbreistiege 40, 48149 Münster</t>
+          <t>Loddenweg 12, 48165 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['322 - Gievenbecker Weg' '323 - Potstiege' '324 - Twenteweg']</t>
+          <t>241 - Ringstraße 244 - Hülsheide 245 - Am Roggenkamp</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>3</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.907630350000005%2C7.665853244332855</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -2536,16 +2757,67 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Rudolf-Steiner-Weg 11, 48161 Münster</t>
+          <t>Loddenweg 8a, 48165 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['321 - Legdenweg' '325 - Gescherweg']</t>
+          <t>242 - Rubensstraße</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.90685355%2C7.667563705195853</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Unckelstraße 19, 48165 Münster</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>251 - Geistkamp 252 - Hülsebrockstraße 253 - Marktallee</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9065353%2C7.646594849248558</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Westfalenstraße 203, 48165 Münster</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>243 - Am Klosterwald 254 - Friedhofstraße 262 - Hansestraße</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9008006%2C7.641498432092007</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2559,7 +2831,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2570,7 +2842,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Reihenfolge</t>
+          <t>Bezirk</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -2580,12 +2852,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>WahlraumIDs</t>
+          <t>Stimmbezirke</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Anzahl_Wahlräume</t>
+          <t>Anzahl Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -2595,16 +2872,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hogenbergstraße 160, 48153 Münster</t>
+          <t>Gutenbergstraße 14, 48145 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['231 - Hogenbergstraße' '232 - Am Berg Fidel' '233 - Siemensstraße']</t>
+          <t>074 - Oststraße 075 - Zumsandestraße</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.96006265%2C7.645207713023179</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -2613,16 +2895,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Spichernstraße 17, 48153 Münster</t>
+          <t>Manfred-von-Richthofen-Str. 46, 48145 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['103 - Alfred-Krupp-Weg' '105 - Dahlweg' '133 - Spichernstraße']</t>
+          <t>081 - Mauritz-Lindenweg 082 - Mindener Straße</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.958032%2C7.65573444762099</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -2631,16 +2918,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Glatzer Weg 9, 48151 Münster</t>
+          <t>Sankt-Mauritz-Freiheit 25, 48145 Münster</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['134 - Sternbusch' '135 - Kriegerweg' '136 - Clemenshospital']</t>
+          <t>042 - Staufenstraße</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.963234150000005%2C7.648959437512636</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -2649,16 +2941,21 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Vennheideweg 100, 48165 Münster</t>
+          <t>Stiftsstraße 19, 48145 Münster</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['234 - Vennheideweg']</t>
+          <t>043 - Overbergstraße 072 - Dechaneistraße 073 - Prozessionsweg</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.96376715%2C7.650289550752131</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2672,7 +2969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2683,7 +2980,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Reihenfolge</t>
+          <t>Bezirk</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -2693,12 +2990,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>WahlraumIDs</t>
+          <t>Stimmbezirke</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Anzahl_Wahlräume</t>
+          <t>Anzahl Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -2708,16 +3010,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Unckelstraße 19, 48165 Münster</t>
+          <t>Alt Angelmodde 15, 48167 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['251 - Geistkamp' '252 - Hülsebrockstraße' '253 - Marktallee']</t>
+          <t>221 - Angelstraße</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.92308165%2C7.699121370363766</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -2726,16 +3033,67 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Westfalenstraße 203, 48165 Münster</t>
+          <t>Am Wigbold 11, 48167 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['243 - Am Klosterwald' '254 - Friedhofstraße' '262 - Hansestraße']</t>
+          <t>211 - Kreuzbach 214 - Wolbeck Zentrum 215 - Hofkamp</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>3</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9153201%2C7.729627892884797</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Eichendorffstraße 36, 48167 Münster</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>222 - Theodor-Heuss-Straße 223 - Bachstraße</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9147512%2C7.695004957462609</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Von-Holte-Straße 56, 48167 Münster</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>212 - Zumbuschstraße 213 - Am Berler Kamp</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9146987%2C7.7202582</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2749,7 +3107,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2760,7 +3118,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Reihenfolge</t>
+          <t>Bezirk</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -2770,12 +3128,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>WahlraumIDs</t>
+          <t>Stimmbezirke</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Anzahl_Wahlräume</t>
+          <t>Anzahl Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -2785,16 +3148,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gutenbergstraße 14, 48145 Münster</t>
+          <t>Hansaring 80, 48155 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['074 - Oststraße' '075 - Zumsandestraße']</t>
+          <t>083 - Lambertistraße 084 - Hansaplatz</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>2</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9547017%2C7.645539912017435</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -2803,16 +3171,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Manfred-von-Richthofen-Str. 46, 48145 Münster</t>
+          <t>Margaretenstraße 6, 48145 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['081 - Mauritz-Lindenweg' '082 - Mindener Straße']</t>
+          <t>085 - Sophienstraße 092 - Bremer Platz</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>2</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.95623855%2C7.644752314250903</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -2821,16 +3194,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sankt-Mauritz-Freiheit 25, 48145 Münster</t>
+          <t>Nieberdingstraße 30a, 48155 Münster</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['042 - Staufenstraße']</t>
+          <t>093 - Bremer Straße 102 - Hafen</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9426636%2C7.641893159116444</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -2839,16 +3217,21 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Stiftsstraße 19, 48145 Münster</t>
+          <t>Rösnerstraße 10, 48155 Münster</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['043 - Overbergstraße' '072 - Dechaneistraße' '073 - Prozessionsweg']</t>
+          <t>201 - Lindberghweg</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9401638%2C7.64394955</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2862,7 +3245,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2873,7 +3256,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Reihenfolge</t>
+          <t>Bezirk</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -2883,12 +3266,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>WahlraumIDs</t>
+          <t>Stimmbezirke</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Anzahl_Wahlräume</t>
+          <t>Anzahl Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -2898,16 +3286,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alt Angelmodde 15, 48167 Münster</t>
+          <t>Bröderichweg 36, 48159 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['221 - Angelstraße']</t>
+          <t>153 - Bröderichweg 156 - Coermühle</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.99257595%2C7.6162983710793535</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -2916,16 +3309,45 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eichendorffstraße 36, 48167 Münster</t>
+          <t>Im Moorhock 71, 48159 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['222 - Theodor-Heuss-Straße' '223 - Bachstraße']</t>
+          <t>154 - Rektoratsweg</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9893852%2C7.604524684580532</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Von-Humboldt-Straße 14, 48159 Münster</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>141 - Feldstiegenkamp 142 - Kinderhaus Zentrum 143 - Neuer Heidkamp
+ 144 - Helmholtzweg</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.99835155%2C7.604638020118084</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -2939,7 +3361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2950,7 +3372,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Reihenfolge</t>
+          <t>Bezirk</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -2960,12 +3382,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>WahlraumIDs</t>
+          <t>Stimmbezirke</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Anzahl_Wahlräume</t>
+          <t>Anzahl Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -2975,16 +3402,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Margaretenstraße 6, 48145 Münster</t>
+          <t>Coerdestraße 8, 48147 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['085 - Sophienstraße' '092 - Bremer Platz']</t>
+          <t>033 - Siverdesstraße 034 - Coerdestraße</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>2</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9691151%2C7.6280025</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -2993,16 +3425,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hansaring 80, 48155 Münster</t>
+          <t>Jüdefelderstraße 10, 48143 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['083 - Lambertistraße' '084 - Hansaplatz']</t>
+          <t>011 - Jüdefelderstraße 012 - Spiekerhof 016 - Überwasser
+ 026 - Wilhelmstraße</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.96409405%2C7.619764501707207</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -3011,34 +3449,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nieberdingstraße 30a, 48155 Münster</t>
+          <t>Kampstraße 15, 48147 Münster</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['093 - Bremer Straße' '102 - Hafen']</t>
+          <t>024 - Schulstraße 032 - Tannenbergstraße 035 - Hoyastraße
+ 036 - Gertrudenstraße</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Rösnerstraße 10, 48155 Münster</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>['201 - Lindberghweg']</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.969471850000005%2C7.623725470020581</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -3052,7 +3478,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3063,7 +3489,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Reihenfolge</t>
+          <t>Bezirk</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -3073,12 +3499,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>WahlraumIDs</t>
+          <t>Stimmbezirke</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Anzahl_Wahlräume</t>
+          <t>Anzahl Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -3088,16 +3519,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bröderichweg 36, 48159 Münster</t>
+          <t>Corrensstraße 25, 48149 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['153 - Bröderichweg' '156 - Coermühle']</t>
+          <t>301 - Bentelerstraße 302 - Wasserweg 303 - Philippistraße
+ 305 - Von-Esmarch-Straße</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9682696%2C7.595463298034186</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -3106,17 +3543,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Von-Humboldt-Straße 14, 48159 Münster</t>
+          <t>Robert-Koch-Straße 40, 48149 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['141 - Feldstiegenkamp' '142 - Kinderhaus Zentrum' '143 - Neuer Heidkamp'
- '144 - Helmholtzweg']</t>
+          <t>025 - Schloss</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.95921025%2C7.604975700000001</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -3125,16 +3566,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Im Moorhock 71, 48159 Münster</t>
+          <t>Sentruper Höhe 5, 48149 Münster</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['154 - Rektoratsweg']</t>
+          <t>304 - Sentruper Höhe 306 - Redigerstraße</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9553255%2C7.594873290090079</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -3148,7 +3594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3159,7 +3605,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Reihenfolge</t>
+          <t>Bezirk</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -3169,12 +3615,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>WahlraumIDs</t>
+          <t>Stimmbezirke</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Anzahl_Wahlräume</t>
+          <t>Anzahl Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -3184,16 +3635,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coerdestraße 8, 48147 Münster</t>
+          <t>Antoniusstraße 32, 48151 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['033 - Siverdesstraße' '034 - Coerdestraße']</t>
+          <t>111 - Goebenstraße</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9529829%2C7.621452075627948</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -3202,17 +3658,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kampstraße 15, 48147 Münster</t>
+          <t>Bismarckallee 55, 48151 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['024 - Schulstraße' '032 - Tannenbergstraße' '035 - Hoyastraße'
- '036 - Gertrudenstraße']</t>
+          <t>121 - Scharnhorststraße 122 - Pluggendorf</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.95197455%2C7.609399799788202</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -3221,17 +3681,44 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jüdefelderstraße 10, 48143 Münster</t>
+          <t>Grüne Gasse 38-40, 48143 Münster</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['011 - Jüdefelderstraße' '012 - Spiekerhof' '016 - Überwasser'
- '026 - Wilhelmstraße']</t>
+          <t>015 - Aegidii</t>
         </is>
       </c>
       <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9581485%2C7.6237268</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Von-Kluck-Straße 22, 48151 Münster</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>095 - Antoniuskirche 112 - Hornstraße</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9545184%2C7.6234543</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -3245,7 +3732,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3256,7 +3743,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Reihenfolge</t>
+          <t>Bezirk</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -3266,12 +3753,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>WahlraumIDs</t>
+          <t>Stimmbezirke</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Anzahl_Wahlräume</t>
+          <t>Anzahl Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -3281,17 +3773,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Corrensstraße 25, 48149 Münster</t>
+          <t>Lahnstraße 3, 48145 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['301 - Bentelerstraße' '302 - Wasserweg' '303 - Philippistraße'
- '305 - Von-Esmarch-Straße']</t>
+          <t>175 - Saarstraße</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9689185%2C7.657580547697081</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -3300,16 +3796,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Robert-Koch-Straße 40, 48149 Münster</t>
+          <t>Pötterhoek 45, 48145 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['025 - Schloss']</t>
+          <t>062 - Pötterhoek</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9736133%2C7.653737016012916</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -3318,16 +3819,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sentruper Höhe 5, 48149 Münster</t>
+          <t>Wiener Straße 53, 48145 Münster</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['304 - Sentruper Höhe' '306 - Redigerstraße']</t>
+          <t>063 - Ostmarkstraße 071 - Kirchstraße</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.96880045%2C7.650988831189711</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -3341,7 +3847,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3352,7 +3858,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Reihenfolge</t>
+          <t>Bezirk</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -3362,12 +3868,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>WahlraumIDs</t>
+          <t>Stimmbezirke</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Anzahl_Wahlräume</t>
+          <t>Anzahl Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -3377,16 +3888,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Höftestraße 4, 48167 Münster</t>
+          <t>Heeremansweg 13, 48167 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['224 - Albersloher Weg' '226 - Heidestraße']</t>
+          <t>205 - Heeremansweg</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.92762325%2C7.657646146522559</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -3395,16 +3911,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Zum Erlenbusch 15, 48167 Münster</t>
+          <t>Höftestraße 4, 48167 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['225 - Angelsachsenweg']</t>
+          <t>224 - Albersloher Weg 226 - Heidestraße</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9213159%2C7.680753611632205</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -3418,11 +3939,39 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['202 - Delstrup' '203 - Kranichweg' '204 - Anton-Knubel-Weg']</t>
+          <t>202 - Delstrup 203 - Kranichweg 204 - Anton-Knubel-Weg</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>3</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9323056%2C7.673866149953675</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Zum Erlenbusch 15, 48167 Münster</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>225 - Angelsachsenweg</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9246104%2C7.673691163250751</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -3436,7 +3985,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3447,7 +3996,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Reihenfolge</t>
+          <t>Bezirk</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -3457,12 +4006,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>WahlraumIDs</t>
+          <t>Stimmbezirke</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Anzahl_Wahlräume</t>
+          <t>Anzahl Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -3477,11 +4031,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['162 - Königsberger Straße' '163 - An der Meerwiese']</t>
+          <t>162 - Königsberger Straße 163 - An der Meerwiese</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>2</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.98915895%2C7.648910980987003</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -3495,66 +4054,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['041 - Holsteiner Straße' '061 - Hoppengarten'
- '064 - Mecklenburger Straße' '065 - Kösliner Straße' '066 - Rumphorstweg']</t>
+          <t>041 - Holsteiner Straße 061 - Hoppengarten
+ 064 - Mecklenburger Straße 065 - Kösliner Straße 066 - Rumphorstweg</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Pötterhoek 45, 48145 Münster</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>['062 - Pötterhoek']</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Lahnstraße 3, 48145 Münster</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>['175 - Saarstraße']</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Wiener Straße 53, 48145 Münster</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>['063 - Ostmarkstraße' '071 - Kirchstraße']</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>2</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.97468825%2C7.644125496047033</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -3568,7 +4078,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3579,7 +4089,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Reihenfolge</t>
+          <t>Bezirk</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -3589,12 +4099,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>WahlraumIDs</t>
+          <t>Stimmbezirke</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Anzahl_Wahlräume</t>
+          <t>Anzahl Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -3609,11 +4124,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['145 - Fernholzstraße' '146 - Brüningheide']</t>
+          <t>145 - Fernholzstraße 146 - Brüningheide</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>2</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.99691815%2C7.593705277551625</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -3627,11 +4147,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['155 - Heidköttersweg']</t>
+          <t>155 - Heidköttersweg</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9987374%2C7.594974856015037</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -3645,11 +4170,16 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['147 - Killingstraße']</t>
+          <t>147 - Killingstraße</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.99899595%2C7.594411513785913</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -3663,7 +4193,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3674,7 +4204,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Reihenfolge</t>
+          <t>Bezirk</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -3684,12 +4214,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>WahlraumIDs</t>
+          <t>Stimmbezirke</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Anzahl_Wahlräume</t>
+          <t>Anzahl Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -3699,16 +4234,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bismarckallee 55, 48151 Münster</t>
+          <t>Dahlweg 118, 48153 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['121 - Scharnhorststraße' '122 - Pluggendorf']</t>
+          <t>114 - Weißenburgstraße 132 - Grevingstraße</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>2</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9394195%2C7.628834869047619</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -3717,16 +4257,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prinz-Eugen-Straße 27, 48151 Münster</t>
+          <t>Gut Insel 36, 48151 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['104 - Scheibenstraße' '113 - Turmstraße']</t>
+          <t>116 - Oberschlesier Straße</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.93860585%2C7.61298881209431</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -3735,16 +4280,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sentmaringer Weg 61, 48151 Münster</t>
+          <t>Metzer Straße 41, 48151 Münster</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['115 - Grüner Grund']</t>
+          <t>131 - Elsässer Straße</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9400423%2C7.620743128124999</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -3753,16 +4303,21 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Metzer Straße 41, 48151 Münster</t>
+          <t>Prinz-Eugen-Straße 27, 48151 Münster</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['131 - Elsässer Straße']</t>
+          <t>104 - Scheibenstraße 113 - Turmstraße</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.94719195%2C7.618812311468304</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -3771,16 +4326,21 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Gut Insel 36, 48151 Münster</t>
+          <t>Sentmaringer Weg 61, 48151 Münster</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['116 - Oberschlesier Straße']</t>
+          <t>115 - Grüner Grund</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9442968%2C7.6154512</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -3794,7 +4354,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3805,7 +4365,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Reihenfolge</t>
+          <t>Bezirk</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -3815,12 +4375,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>WahlraumIDs</t>
+          <t>Stimmbezirke</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Anzahl_Wahlräume</t>
+          <t>Anzahl Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -3830,16 +4395,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hohe Geist 8, 48163 Münster</t>
+          <t>Auf dem Dorn 14, 48161 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['271 - Oberort' '273 - Albachtener Str./Steinkuhle' '274 - In der Weede']</t>
+          <t>293 - Altenroxeler Straße</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.955106400000005%2C7.530773881241168</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -3848,16 +4418,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Auf dem Dorn 14, 48161 Münster</t>
+          <t>Hohe Geist 8, 48163 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['293 - Altenroxeler Straße']</t>
+          <t>271 - Oberort 273 - Albachtener Str./Steinkuhle 274 - In der Weede</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9227202%2C7.528324261355753</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -3871,13 +4446,18 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['291 - Annette-von-Droste-Hülshoff-Straße' '292 - Havixbecker Straße'
- '294 - Stellmacherweg' '295 - Paul-Gerhardt-Straße'
- '296 - Schelmenstiege']</t>
+          <t>291 - Annette-von-Droste-Hülshoff-Straße 292 - Havixbecker Straße
+ 294 - Stellmacherweg 295 - Paul-Gerhardt-Straße
+ 296 - Schelmenstiege</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>5</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9543838%2C7.5294497</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -3891,7 +4471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3902,7 +4482,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Reihenfolge</t>
+          <t>Bezirk</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -3912,12 +4492,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>WahlraumIDs</t>
+          <t>Stimmbezirke</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Anzahl_Wahlräume</t>
+          <t>Anzahl Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -3932,11 +4517,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['182 - Handorfer Straße' '183 - Heriburgstraße' '184 - Ziegelhof']</t>
+          <t>182 - Handorfer Straße 183 - Heriburgstraße 184 - Ziegelhof</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>3</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9901032%2C7.703648538461694</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -3950,11 +4540,16 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['181 - Hornheide']</t>
+          <t>181 - Hornheide</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.995582600000006%2C7.712675513581021</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -3963,16 +4558,44 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Gelmerheide 3, 48157 Münster</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>171 - Gelmer</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=52.0297395%2C7.675133013988717</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>Immelmannstraße 37, 48157 Münster</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>['185 - Dorbaum']</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>185 - Dorbaum</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.99904765%2C7.715916456448493</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -3986,7 +4609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3997,7 +4620,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Reihenfolge</t>
+          <t>Bezirk</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -4007,12 +4630,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>WahlraumIDs</t>
+          <t>Stimmbezirke</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Anzahl_Wahlräume</t>
+          <t>Anzahl Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -4022,16 +4650,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Am Wigbold 11, 48167 Münster</t>
+          <t>Alter Steinweg 11, 48143 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>['211 - Kreuzbach' '214 - Wolbeck Zentrum' '215 - Hofkamp']</t>
+          <t>014 - Prinzipalmarkt</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9629282%2C7.631154381245056</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -4040,16 +4673,67 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Von-Holte-Straße 56, 48167 Münster</t>
+          <t>Bohlweg 7, 48147 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['212 - Zumbuschstraße' '213 - Am Berler Kamp']</t>
+          <t>044 - Landeshaus 047 - Gartenstraße</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>2</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9668954%2C7.638297652655629</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sonnenstraße 18, 48143 Münster</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>013 - Sonnenstraße</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.96307795%2C7.633580846191878</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Stühmerweg 10, 48147 Münster</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>045 - Zeppelinstraße 046 - Kolpingstraße</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9694873%2C7.635009555835926</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/routes_optimized.xlsx
+++ b/routes_optimized.xlsx
@@ -36,6 +36,8 @@
     <sheet name="Bezirk_26" sheetId="27" state="visible" r:id="rId27"/>
     <sheet name="Bezirk_27" sheetId="28" state="visible" r:id="rId28"/>
     <sheet name="Bezirk_28" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="Bezirk_29" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="Bezirk_30" sheetId="31" state="visible" r:id="rId31"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -453,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -718,28 +720,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E9" t="n">
         <v>4</v>
       </c>
-      <c r="C9" t="n">
-        <v>6</v>
-      </c>
-      <c r="D9" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="E9" t="n">
-        <v>6</v>
-      </c>
       <c r="F9" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1:06:00</t>
+          <t>0:54:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/51.9629282,7.631154381245056/51.9668954,7.638297652655629/51.96307795,7.633580846191878/51.9694873,7.635009555835926</t>
+          <t>https://www.google.com/maps/dir/51.9668954,7.638297652655629/51.96307795,7.633580846191878/51.9694873,7.635009555835926</t>
         </is>
       </c>
     </row>
@@ -808,28 +810,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
-        <v>6.7</v>
+        <v>2.3</v>
       </c>
       <c r="E12" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2:03:00</t>
+          <t>0:54:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/51.90366345,7.626606101187082/51.89424385,7.57817422018965/51.88487405,7.605494331904568</t>
+          <t>https://www.google.com/maps/dir/51.89424385,7.57817422018965/51.88487405,7.605494331904568</t>
         </is>
       </c>
     </row>
@@ -868,28 +870,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E14" t="n">
         <v>5</v>
       </c>
-      <c r="C14" t="n">
-        <v>7</v>
-      </c>
-      <c r="D14" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="E14" t="n">
-        <v>8</v>
-      </c>
       <c r="F14" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1:18:00</t>
+          <t>1:05:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/51.96324975,7.677774215483531/51.9504953,7.6715697/51.953803,7.670894359758268/51.9541194,7.670787181325013/51.958244,7.665472903003269</t>
+          <t>https://www.google.com/maps/dir/51.96324975,7.677774215483531/51.9504953,7.6715697/51.953803,7.670894359758268/51.9541194,7.670787181325013</t>
         </is>
       </c>
     </row>
@@ -1018,28 +1020,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D19" t="n">
-        <v>0.2</v>
+        <v>4.1</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F19" t="n">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0:50:00</t>
+          <t>1:38:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/51.96779325,7.581247009083935/51.9694248,7.581805346375804</t>
+          <t>https://www.google.com/maps/dir/51.96779325,7.581247009083935/51.9682696,7.595463298034186/51.9694248,7.581805346375804</t>
         </is>
       </c>
     </row>
@@ -1078,28 +1080,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="E21" t="n">
         <v>5</v>
       </c>
       <c r="F21" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1:45:00</t>
+          <t>1:05:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/51.907630350000005,7.665853244332855/51.90685355,7.667563705195853/51.9065353,7.646594849248558/51.9008006,7.641498432092007</t>
+          <t>https://www.google.com/maps/dir/51.9147512,7.695004957462609/51.907630350000005,7.665853244332855/51.90685355,7.667563705195853</t>
         </is>
       </c>
     </row>
@@ -1108,28 +1110,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>1.3</v>
+        <v>3.5</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F22" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1:22:00</t>
+          <t>1:36:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/51.96006265,7.645207713023179/51.958032,7.65573444762099/51.963234150000005,7.648959437512636/51.96376715,7.650289550752131</t>
+          <t>https://www.google.com/maps/dir/51.96006265,7.645207713023179/51.958032,7.65573444762099/51.958244,7.665472903003269/51.963234150000005,7.648959437512636/51.96376715,7.650289550752131</t>
         </is>
       </c>
     </row>
@@ -1138,28 +1140,28 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D23" t="n">
-        <v>9.199999999999999</v>
+        <v>3.7</v>
       </c>
       <c r="E23" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="F23" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1:38:00</t>
+          <t>1:07:00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/51.92308165,7.699121370363766/51.9153201,7.729627892884797/51.9147512,7.695004957462609/51.9146987,7.7202582</t>
+          <t>https://www.google.com/maps/dir/51.92308165,7.699121370363766/51.9153201,7.729627892884797/51.9146987,7.7202582</t>
         </is>
       </c>
     </row>
@@ -1228,28 +1230,28 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D26" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="E26" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1:45:00</t>
+          <t>1:01:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/51.9691151,7.6280025/51.96409405,7.619764501707207/51.969471850000005,7.623725470020581</t>
+          <t>https://www.google.com/maps/dir/51.9691151,7.6280025/51.969471850000005,7.623725470020581</t>
         </is>
       </c>
     </row>
@@ -1258,28 +1260,28 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>2.9</v>
+        <v>0.9</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>1:15:00</t>
+          <t>0:31:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/51.9682696,7.595463298034186/51.95921025,7.604975700000001/51.9553255,7.594873290090079</t>
+          <t>https://www.google.com/maps/dir/51.95921025,7.604975700000001/51.9553255,7.594873290090079</t>
         </is>
       </c>
     </row>
@@ -1288,28 +1290,28 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" t="n">
+        <v>5</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E28" t="n">
         <v>4</v>
       </c>
-      <c r="C28" t="n">
-        <v>6</v>
-      </c>
-      <c r="D28" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="E28" t="n">
-        <v>6</v>
-      </c>
       <c r="F28" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1:06:00</t>
+          <t>0:54:00</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/51.9529829,7.621452075627948/51.95197455,7.609399799788202/51.9581485,7.6237268/51.9545184,7.6234543</t>
+          <t>https://www.google.com/maps/dir/51.9529829,7.621452075627948/51.95197455,7.609399799788202/51.9545184,7.6234543</t>
         </is>
       </c>
     </row>
@@ -1340,6 +1342,66 @@
       <c r="H29" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/dir/51.9689185,7.657580547697081/51.9736133,7.653737016012916/51.96880045,7.650988831189711</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" t="n">
+        <v>12</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4</v>
+      </c>
+      <c r="F30" t="n">
+        <v>120</v>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>2:04:00</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/dir/51.90366345,7.626606101187082/51.9065353,7.646594849248558/51.9008006,7.641498432092007</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" t="n">
+        <v>6</v>
+      </c>
+      <c r="D31" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E31" t="n">
+        <v>4</v>
+      </c>
+      <c r="F31" t="n">
+        <v>60</v>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1:04:00</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/dir/51.9581485,7.6237268/51.9629282,7.631154381245056/51.96409405,7.619764501707207</t>
         </is>
       </c>
     </row>
@@ -1561,7 +1623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1602,21 +1664,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>An der Alten Kirche 161, 48165 Münster</t>
+          <t>Wiedaustraße 114, 48163 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>235 - Hünenburg 236 - Böttcherstraße 237 - Albertsheide
- 238 - Wielandstraße 255 - Theodor-Storm-Straße 263 - Langestraße</t>
+          <t>261 - Loevelingloh</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.90366345%2C7.626606101187082</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.89424385%2C7.57817422018965</t>
         </is>
       </c>
     </row>
@@ -1626,42 +1687,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Wiedaustraße 114, 48163 Münster</t>
+          <t>Zum Häpper 10, 48163 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
-        <is>
-          <t>261 - Loevelingloh</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.89424385%2C7.57817422018965</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Zum Häpper 10, 48163 Münster</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
         <is>
           <t>264 - Auf der Woort 265 - Pater-Kolbe-Straße 266 - Zur Windmühle
  267 - Emmerweg</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D3" t="n">
         <v>4</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/?api=1&amp;query=51.88487405%2C7.605494331904568</t>
         </is>
@@ -1770,7 +1808,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1894,29 +1932,6 @@
       <c r="E5" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/?api=1&amp;query=51.9541194%2C7.670787181325013</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Merschkamp 23, 48155 Münster</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>173 - Maikottenweg</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.958244%2C7.665472903003269</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2385,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2434,18 +2449,42 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Corrensstraße 25, 48149 Münster</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>301 - Bentelerstraße 302 - Wasserweg 303 - Philippistraße
+ 305 - Von-Esmarch-Straße</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9682696%2C7.595463298034186</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>Rudolf-Steiner-Weg 11, 48161 Münster</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>321 - Legdenweg 325 - Gescherweg</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/?api=1&amp;query=51.9694248%2C7.581805346375804</t>
         </is>
@@ -2693,7 +2732,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2734,20 +2773,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Loddenweg 12, 48165 Münster</t>
+          <t>Eichendorffstraße 36, 48167 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>241 - Ringstraße 244 - Hülsheide 245 - Am Roggenkamp</t>
+          <t>222 - Theodor-Heuss-Straße 223 - Bachstraße</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.907630350000005%2C7.665853244332855</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9147512%2C7.695004957462609</t>
         </is>
       </c>
     </row>
@@ -2757,20 +2796,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Loddenweg 8a, 48165 Münster</t>
+          <t>Loddenweg 12, 48165 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>242 - Rubensstraße</t>
+          <t>241 - Ringstraße 244 - Hülsheide 245 - Am Roggenkamp</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.90685355%2C7.667563705195853</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.907630350000005%2C7.665853244332855</t>
         </is>
       </c>
     </row>
@@ -2780,43 +2819,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Unckelstraße 19, 48165 Münster</t>
+          <t>Loddenweg 8a, 48165 Münster</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>251 - Geistkamp 252 - Hülsebrockstraße 253 - Marktallee</t>
+          <t>242 - Rubensstraße</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9065353%2C7.646594849248558</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Westfalenstraße 203, 48165 Münster</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>243 - Am Klosterwald 254 - Friedhofstraße 262 - Hansestraße</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9008006%2C7.641498432092007</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.90685355%2C7.667563705195853</t>
         </is>
       </c>
     </row>
@@ -2831,7 +2847,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2918,12 +2934,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sankt-Mauritz-Freiheit 25, 48145 Münster</t>
+          <t>Merschkamp 23, 48155 Münster</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>042 - Staufenstraße</t>
+          <t>173 - Maikottenweg</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -2931,7 +2947,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.963234150000005%2C7.648959437512636</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.958244%2C7.665472903003269</t>
         </is>
       </c>
     </row>
@@ -2941,18 +2957,41 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Sankt-Mauritz-Freiheit 25, 48145 Münster</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>042 - Staufenstraße</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.963234150000005%2C7.648959437512636</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>Stiftsstraße 19, 48145 Münster</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>043 - Overbergstraße 072 - Dechaneistraße 073 - Prozessionsweg</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/?api=1&amp;query=51.96376715%2C7.650289550752131</t>
         </is>
@@ -2969,7 +3008,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3056,41 +3095,18 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eichendorffstraße 36, 48167 Münster</t>
+          <t>Von-Holte-Straße 56, 48167 Münster</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>222 - Theodor-Heuss-Straße 223 - Bachstraße</t>
+          <t>212 - Zumbuschstraße 213 - Am Berler Kamp</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>2</v>
       </c>
       <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9147512%2C7.695004957462609</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Von-Holte-Straße 56, 48167 Münster</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>212 - Zumbuschstraße 213 - Am Berler Kamp</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/?api=1&amp;query=51.9146987%2C7.7202582</t>
         </is>
@@ -3361,7 +3377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3425,43 +3441,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jüdefelderstraße 10, 48143 Münster</t>
+          <t>Kampstraße 15, 48147 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>011 - Jüdefelderstraße 012 - Spiekerhof 016 - Überwasser
- 026 - Wilhelmstraße</t>
+          <t>024 - Schulstraße 032 - Tannenbergstraße 035 - Hoyastraße
+ 036 - Gertrudenstraße</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>4</v>
       </c>
       <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.96409405%2C7.619764501707207</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Kampstraße 15, 48147 Münster</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>024 - Schulstraße 032 - Tannenbergstraße 035 - Hoyastraße
- 036 - Gertrudenstraße</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>4</v>
-      </c>
-      <c r="E4" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/?api=1&amp;query=51.969471850000005%2C7.623725470020581</t>
         </is>
@@ -3473,6 +3465,98 @@
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Bezirk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Anzahl Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Google-Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Robert-Koch-Straße 40, 48149 Münster</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>025 - Schloss</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.95921025%2C7.604975700000001</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Sentruper Höhe 5, 48149 Münster</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>304 - Sentruper Höhe 306 - Redigerstraße</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9553255%2C7.594873290090079</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3519,21 +3603,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Corrensstraße 25, 48149 Münster</t>
+          <t>Antoniusstraße 32, 48151 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>301 - Bentelerstraße 302 - Wasserweg 303 - Philippistraße
- 305 - Von-Esmarch-Straße</t>
+          <t>111 - Goebenstraße</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9682696%2C7.595463298034186</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9529829%2C7.621452075627948</t>
         </is>
       </c>
     </row>
@@ -3543,20 +3626,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Robert-Koch-Straße 40, 48149 Münster</t>
+          <t>Bismarckallee 55, 48151 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>025 - Schloss</t>
+          <t>121 - Scharnhorststraße 122 - Pluggendorf</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.95921025%2C7.604975700000001</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.95197455%2C7.609399799788202</t>
         </is>
       </c>
     </row>
@@ -3566,156 +3649,18 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sentruper Höhe 5, 48149 Münster</t>
+          <t>Von-Kluck-Straße 22, 48151 Münster</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>304 - Sentruper Höhe 306 - Redigerstraße</t>
+          <t>095 - Antoniuskirche 112 - Hornstraße</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>2</v>
       </c>
       <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9553255%2C7.594873290090079</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Bezirk</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Adresse</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Anzahl Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Google-Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Antoniusstraße 32, 48151 Münster</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>111 - Goebenstraße</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9529829%2C7.621452075627948</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Bismarckallee 55, 48151 Münster</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>121 - Scharnhorststraße 122 - Pluggendorf</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.95197455%2C7.609399799788202</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Grüne Gasse 38-40, 48143 Münster</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>015 - Aegidii</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9581485%2C7.6237268</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Von-Kluck-Straße 22, 48151 Münster</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>095 - Antoniuskirche 112 - Hornstraße</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/?api=1&amp;query=51.9545184%2C7.6234543</t>
         </is>
@@ -3979,6 +3924,238 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Bezirk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Anzahl Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Google-Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>An der Alten Kirche 161, 48165 Münster</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>235 - Hünenburg 236 - Böttcherstraße 237 - Albertsheide
+ 238 - Wielandstraße 255 - Theodor-Storm-Straße 263 - Langestraße</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.90366345%2C7.626606101187082</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Unckelstraße 19, 48165 Münster</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>251 - Geistkamp 252 - Hülsebrockstraße 253 - Marktallee</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9065353%2C7.646594849248558</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Westfalenstraße 203, 48165 Münster</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>243 - Am Klosterwald 254 - Friedhofstraße 262 - Hansestraße</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9008006%2C7.641498432092007</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Bezirk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Anzahl Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Google-Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Grüne Gasse 38-40, 48143 Münster</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>015 - Aegidii</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9581485%2C7.6237268</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Alter Steinweg 11, 48143 Münster</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>014 - Prinzipalmarkt</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9629282%2C7.631154381245056</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Jüdefelderstraße 10, 48143 Münster</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>011 - Jüdefelderstraße 012 - Spiekerhof 016 - Überwasser
+ 026 - Wilhelmstraße</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.96409405%2C7.619764501707207</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -4609,7 +4786,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4650,20 +4827,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alter Steinweg 11, 48143 Münster</t>
+          <t>Bohlweg 7, 48147 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>014 - Prinzipalmarkt</t>
+          <t>044 - Landeshaus 047 - Gartenstraße</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9629282%2C7.631154381245056</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9668954%2C7.638297652655629</t>
         </is>
       </c>
     </row>
@@ -4673,20 +4850,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bohlweg 7, 48147 Münster</t>
+          <t>Sonnenstraße 18, 48143 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>044 - Landeshaus 047 - Gartenstraße</t>
+          <t>013 - Sonnenstraße</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9668954%2C7.638297652655629</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.96307795%2C7.633580846191878</t>
         </is>
       </c>
     </row>
@@ -4696,41 +4873,18 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sonnenstraße 18, 48143 Münster</t>
+          <t>Stühmerweg 10, 48147 Münster</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>013 - Sonnenstraße</t>
+          <t>045 - Zeppelinstraße 046 - Kolpingstraße</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.96307795%2C7.633580846191878</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Stühmerweg 10, 48147 Münster</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>045 - Zeppelinstraße 046 - Kolpingstraße</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/search/?api=1&amp;query=51.9694873%2C7.635009555835926</t>
         </is>

--- a/routes_optimized.xlsx
+++ b/routes_optimized.xlsx
@@ -462,6 +462,16 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="16" customWidth="1" min="1" max="1"/>
+    <col width="19" customWidth="1" min="2" max="2"/>
+    <col width="21" customWidth="1" min="3" max="3"/>
+    <col width="17" customWidth="1" min="4" max="4"/>
+    <col width="17" customWidth="1" min="5" max="5"/>
+    <col width="20" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="185" customWidth="1" min="8" max="8"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -510,28 +520,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>2.1</v>
+        <v>7.8</v>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F2" t="n">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0:54:00</t>
+          <t>1:25:00</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/51.93262055,7.580143024353202/51.91972195,7.575926144323704</t>
+          <t>https://www.google.com/maps/dir/51.99614235,7.559480267994298/52.0229139,7.56608970890625/52.03693315,7.609531337994388</t>
         </is>
       </c>
     </row>
@@ -543,25 +553,25 @@
         <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>7.1</v>
+        <v>16.6</v>
       </c>
       <c r="E3" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F3" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1:24:00</t>
+          <t>1:33:00</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/51.92762325,7.657646146522559/51.9213159,7.680753611632205/51.9323056,7.673866149953675/51.9246104,7.673691163250751</t>
+          <t>https://www.google.com/maps/dir/51.9901032,7.703648538461694/51.995582600000006,7.712675513581021/52.0297395,7.675133013988717/51.99904765,7.715916456448493</t>
         </is>
       </c>
     </row>
@@ -570,28 +580,28 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>2.1</v>
+        <v>0.9</v>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1:14:00</t>
+          <t>0:41:00</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/51.98915895,7.648910980987003/51.97468825,7.644125496047033</t>
+          <t>https://www.google.com/maps/dir/51.99691815,7.593705277551625/51.9987374,7.594974856015037/51.99899595,7.594411513785913</t>
         </is>
       </c>
     </row>
@@ -603,25 +613,25 @@
         <v>3</v>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9</v>
+        <v>3.7</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0:41:00</t>
+          <t>0:57:00</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/51.99691815,7.593705277551625/51.9987374,7.594974856015037/51.99899595,7.594411513785913</t>
+          <t>https://www.google.com/maps/dir/51.9970641,7.6477306/51.99323095,7.645804421953839/51.99176755,7.666422605438813</t>
         </is>
       </c>
     </row>
@@ -630,28 +640,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>3.8</v>
+        <v>2.8</v>
       </c>
       <c r="E6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F6" t="n">
         <v>70</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1:17:00</t>
+          <t>1:15:00</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/51.9394195,7.628834869047619/51.93860585,7.61298881209431/51.9400423,7.620743128124999/51.94719195,7.618812311468304/51.9442968,7.6154512</t>
+          <t>https://www.google.com/maps/dir/51.99257595,7.6162983710793535/51.9893852,7.604524684580532/51.99835155,7.604638020118084</t>
         </is>
       </c>
     </row>
@@ -660,28 +670,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>8.800000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="E7" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>1:47:00</t>
+          <t>1:14:00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/51.955106400000005,7.530773881241168/51.9227202,7.528324261355753/51.9543838,7.5294497</t>
+          <t>https://www.google.com/maps/dir/51.98915895,7.648910980987003/51.97468825,7.644125496047033</t>
         </is>
       </c>
     </row>
@@ -690,28 +700,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="C8" t="n">
-        <v>6</v>
-      </c>
       <c r="D8" t="n">
-        <v>16.6</v>
+        <v>1.6</v>
       </c>
       <c r="E8" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1:33:00</t>
+          <t>0:43:00</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/51.9901032,7.703648538461694/51.995582600000006,7.712675513581021/52.0297395,7.675133013988717/51.99904765,7.715916456448493</t>
+          <t>https://www.google.com/maps/dir/51.975366,7.615509499999999/51.9815871,7.614148399880134</t>
         </is>
       </c>
     </row>
@@ -720,28 +730,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0:54:00</t>
+          <t>1:02:00</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/51.9668954,7.638297652655629/51.96307795,7.633580846191878/51.9694873,7.635009555835926</t>
+          <t>https://www.google.com/maps/dir/51.9737797,7.620670488251879/51.9766616,7.625917591294643</t>
         </is>
       </c>
     </row>
@@ -753,25 +763,25 @@
         <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>1:04:00</t>
+          <t>0:43:00</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/51.96521775,7.566958722373362/51.96836905,7.566242756578949/51.9736935,7.560533384811269</t>
+          <t>https://www.google.com/maps/dir/51.9689185,7.657580547697081/51.9736133,7.653737016012916/51.96880045,7.650988831189711</t>
         </is>
       </c>
     </row>
@@ -783,25 +793,25 @@
         <v>2</v>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D11" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0:43:00</t>
+          <t>1:01:00</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/51.975366,7.615509499999999/51.9815871,7.614148399880134</t>
+          <t>https://www.google.com/maps/dir/51.9691151,7.6280025/51.969471850000005,7.623725470020581</t>
         </is>
       </c>
     </row>
@@ -810,28 +820,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D12" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
         <v>4</v>
       </c>
       <c r="F12" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0:54:00</t>
+          <t>1:04:00</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/51.89424385,7.57817422018965/51.88487405,7.605494331904568</t>
+          <t>https://www.google.com/maps/dir/51.96521775,7.566958722373362/51.96836905,7.566242756578949/51.9736935,7.560533384811269</t>
         </is>
       </c>
     </row>
@@ -840,28 +850,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
-        <v>1.5</v>
+        <v>4.1</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F13" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0:43:00</t>
+          <t>1:38:00</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/51.94163015,7.605145209437712/51.9367046,7.592762937389198</t>
+          <t>https://www.google.com/maps/dir/51.96779325,7.581247009083935/51.9682696,7.595463298034186/51.9694248,7.581805346375804</t>
         </is>
       </c>
     </row>
@@ -870,28 +880,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E14" t="n">
         <v>4</v>
       </c>
-      <c r="C14" t="n">
-        <v>6</v>
-      </c>
-      <c r="D14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E14" t="n">
-        <v>5</v>
-      </c>
       <c r="F14" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1:05:00</t>
+          <t>0:54:00</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/51.96324975,7.677774215483531/51.9504953,7.6715697/51.953803,7.670894359758268/51.9541194,7.670787181325013</t>
+          <t>https://www.google.com/maps/dir/51.9668954,7.638297652655629/51.96307795,7.633580846191878/51.9694873,7.635009555835926</t>
         </is>
       </c>
     </row>
@@ -903,25 +913,25 @@
         <v>3</v>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>3.7</v>
+        <v>2.3</v>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0:57:00</t>
+          <t>1:04:00</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/51.9970641,7.6477306/51.99323095,7.645804421953839/51.99176755,7.666422605438813</t>
+          <t>https://www.google.com/maps/dir/51.9629282,7.631154381245056/51.9581485,7.6237268/51.96409405,7.619764501707207</t>
         </is>
       </c>
     </row>
@@ -930,28 +940,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C16" t="n">
+        <v>9</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="E16" t="n">
         <v>6</v>
       </c>
-      <c r="D16" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="E16" t="n">
-        <v>1</v>
-      </c>
       <c r="F16" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>1:01:00</t>
+          <t>1:36:00</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/51.95038475,7.63116767430181/51.9536301,7.631478285026144/51.95502795,7.627151777945296</t>
+          <t>https://www.google.com/maps/dir/51.96006265,7.645207713023179/51.958032,7.65573444762099/51.958244,7.665472903003269/51.963234150000005,7.648959437512636/51.96376715,7.650289550752131</t>
         </is>
       </c>
     </row>
@@ -963,25 +973,25 @@
         <v>2</v>
       </c>
       <c r="C17" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1:02:00</t>
+          <t>0:31:00</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/51.9737797,7.620670488251879/51.9766616,7.625917591294643</t>
+          <t>https://www.google.com/maps/dir/51.95921025,7.604975700000001/51.9553255,7.594873290090079</t>
         </is>
       </c>
     </row>
@@ -990,28 +1000,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D18" t="n">
-        <v>7.8</v>
+        <v>2.5</v>
       </c>
       <c r="E18" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1:25:00</t>
+          <t>1:05:00</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/51.99614235,7.559480267994298/52.0229139,7.56608970890625/52.03693315,7.609531337994388</t>
+          <t>https://www.google.com/maps/dir/51.96324975,7.677774215483531/51.9504953,7.6715697/51.953803,7.670894359758268/51.9541194,7.670787181325013</t>
         </is>
       </c>
     </row>
@@ -1023,25 +1033,25 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F19" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1:38:00</t>
+          <t>0:54:00</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/51.96779325,7.581247009083935/51.9682696,7.595463298034186/51.9694248,7.581805346375804</t>
+          <t>https://www.google.com/maps/dir/51.9529829,7.621452075627948/51.95197455,7.609399799788202/51.9545184,7.6234543</t>
         </is>
       </c>
     </row>
@@ -1050,28 +1060,28 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>7.8</v>
+        <v>0.7</v>
       </c>
       <c r="E20" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>1:55:00</t>
+          <t>1:01:00</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/51.9331045,7.612316207538708/51.9246017,7.616106575165615/51.9351064,7.624068471386618/51.9207589,7.613674901731838</t>
+          <t>https://www.google.com/maps/dir/51.95038475,7.63116767430181/51.9536301,7.631478285026144/51.95502795,7.627151777945296</t>
         </is>
       </c>
     </row>
@@ -1080,28 +1090,28 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21" t="n">
-        <v>2.7</v>
+        <v>4.3</v>
       </c>
       <c r="E21" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F21" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1:05:00</t>
+          <t>1:18:00</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/51.9147512,7.695004957462609/51.907630350000005,7.665853244332855/51.90685355,7.667563705195853</t>
+          <t>https://www.google.com/maps/dir/51.9547017,7.645539912017435/51.95623855,7.644752314250903/51.9426636,7.641893159116444/51.9401638,7.64394955</t>
         </is>
       </c>
     </row>
@@ -1110,28 +1120,28 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C22" t="n">
         <v>9</v>
       </c>
       <c r="D22" t="n">
-        <v>3.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F22" t="n">
         <v>90</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>1:36:00</t>
+          <t>1:47:00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/51.96006265,7.645207713023179/51.958032,7.65573444762099/51.958244,7.665472903003269/51.963234150000005,7.648959437512636/51.96376715,7.650289550752131</t>
+          <t>https://www.google.com/maps/dir/51.955106400000005,7.530773881241168/51.9227202,7.528324261355753/51.9543838,7.5294497</t>
         </is>
       </c>
     </row>
@@ -1140,28 +1150,28 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D23" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="E23" t="n">
         <v>7</v>
       </c>
       <c r="F23" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>1:07:00</t>
+          <t>1:17:00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/51.92308165,7.699121370363766/51.9153201,7.729627892884797/51.9146987,7.7202582</t>
+          <t>https://www.google.com/maps/dir/51.9394195,7.628834869047619/51.93860585,7.61298881209431/51.9400423,7.620743128124999/51.94719195,7.618812311468304/51.9442968,7.6154512</t>
         </is>
       </c>
     </row>
@@ -1170,28 +1180,28 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" t="n">
         <v>4</v>
       </c>
-      <c r="C24" t="n">
-        <v>7</v>
-      </c>
       <c r="D24" t="n">
-        <v>4.3</v>
+        <v>1.5</v>
       </c>
       <c r="E24" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F24" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>1:18:00</t>
+          <t>0:43:00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/51.9547017,7.645539912017435/51.95623855,7.644752314250903/51.9426636,7.641893159116444/51.9401638,7.64394955</t>
+          <t>https://www.google.com/maps/dir/51.94163015,7.605145209437712/51.9367046,7.592762937389198</t>
         </is>
       </c>
     </row>
@@ -1200,28 +1210,28 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D25" t="n">
-        <v>2.8</v>
+        <v>7.8</v>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="F25" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>1:15:00</t>
+          <t>1:55:00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/51.99257595,7.6162983710793535/51.9893852,7.604524684580532/51.99835155,7.604638020118084</t>
+          <t>https://www.google.com/maps/dir/51.9331045,7.612316207538708/51.9246017,7.616106575165615/51.9351064,7.624068471386618/51.9207589,7.613674901731838</t>
         </is>
       </c>
     </row>
@@ -1230,28 +1240,28 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6</v>
+        <v>7.1</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F26" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>1:01:00</t>
+          <t>1:24:00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/51.9691151,7.6280025/51.969471850000005,7.623725470020581</t>
+          <t>https://www.google.com/maps/dir/51.92762325,7.657646146522559/51.9213159,7.680753611632205/51.9323056,7.673866149953675/51.9246104,7.673691163250751</t>
         </is>
       </c>
     </row>
@@ -1263,25 +1273,25 @@
         <v>2</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9</v>
+        <v>2.1</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F27" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0:31:00</t>
+          <t>0:54:00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/51.95921025,7.604975700000001/51.9553255,7.594873290090079</t>
+          <t>https://www.google.com/maps/dir/51.93262055,7.580143024353202/51.91972195,7.575926144323704</t>
         </is>
       </c>
     </row>
@@ -1293,25 +1303,25 @@
         <v>3</v>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D28" t="n">
-        <v>2.3</v>
+        <v>3.7</v>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0:54:00</t>
+          <t>1:07:00</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/51.9529829,7.621452075627948/51.95197455,7.609399799788202/51.9545184,7.6234543</t>
+          <t>https://www.google.com/maps/dir/51.92308165,7.699121370363766/51.9153201,7.729627892884797/51.9146987,7.7202582</t>
         </is>
       </c>
     </row>
@@ -1323,25 +1333,25 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D29" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F29" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0:43:00</t>
+          <t>1:05:00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/51.9689185,7.657580547697081/51.9736133,7.653737016012916/51.96880045,7.650988831189711</t>
+          <t>https://www.google.com/maps/dir/51.9147512,7.695004957462609/51.907630350000005,7.665853244332855/51.90685355,7.667563705195853</t>
         </is>
       </c>
     </row>
@@ -1380,10 +1390,10 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>2.3</v>
@@ -1392,16 +1402,16 @@
         <v>4</v>
       </c>
       <c r="F31" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>1:04:00</t>
+          <t>0:54:00</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/51.9581485,7.6237268/51.9629282,7.631154381245056/51.96409405,7.619764501707207</t>
+          <t>https://www.google.com/maps/dir/51.89424385,7.57817422018965/51.88487405,7.605494331904568</t>
         </is>
       </c>
     </row>
@@ -1423,6 +1433,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="33" customWidth="1" min="2" max="2"/>
+    <col width="39" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="81" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1457,20 +1474,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dieckmannstraße 131, 48161 Münster</t>
+          <t>Lahnstraße 3, 48145 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>314 - Dieckmannstraße 315 - Heinrich-Ebel-Straße</t>
+          <t>175 - Saarstraße</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.96521775%2C7.566958722373362</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9689185%2C7.657580547697081</t>
         </is>
       </c>
     </row>
@@ -1480,20 +1497,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gronowskistraße 70, 48161 Münster</t>
+          <t>Pötterhoek 45, 48145 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>312 - Nünningweg 313 - Ramertsweg</t>
+          <t>062 - Pötterhoek</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.96836905%2C7.566242756578949</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9736133%2C7.653737016012916</t>
         </is>
       </c>
     </row>
@@ -1503,12 +1520,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Südlohnweg 1, 48161 Münster</t>
+          <t>Wiener Straße 53, 48145 Münster</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>311 - Heekweg 333 - Doornbeckeweg</t>
+          <t>063 - Ostmarkstraße 071 - Kirchstraße</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -1516,7 +1533,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9736935%2C7.560533384811269</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.96880045%2C7.650988831189711</t>
         </is>
       </c>
     </row>
@@ -1538,6 +1555,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="31" customWidth="1" min="2" max="2"/>
+    <col width="82" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="88" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1572,20 +1596,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Friesenring 25, 48147 Münster</t>
+          <t>Coerdestraße 8, 48147 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>051 - Salzmannstraße 054 - Kinderhauser Straße 055 - Koburger Weg</t>
+          <t>033 - Siverdesstraße 034 - Coerdestraße</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.975366%2C7.615509499999999</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9691151%2C7.6280025</t>
         </is>
       </c>
     </row>
@@ -1595,20 +1619,21 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kinderhauser Straße 112, 48147 Münster</t>
+          <t>Kampstraße 15, 48147 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>056 - Dreizehnerstraße</t>
+          <t>024 - Schulstraße 032 - Tannenbergstraße 035 - Hoyastraße
+ 036 - Gertrudenstraße</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9815871%2C7.614148399880134</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.969471850000005%2C7.623725470020581</t>
         </is>
       </c>
     </row>
@@ -1623,13 +1648,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="36" customWidth="1" min="2" max="2"/>
+    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="81" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1664,20 +1696,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Wiedaustraße 114, 48163 Münster</t>
+          <t>Dieckmannstraße 131, 48161 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>261 - Loevelingloh</t>
+          <t>314 - Dieckmannstraße 315 - Heinrich-Ebel-Straße</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.89424385%2C7.57817422018965</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.96521775%2C7.566958722373362</t>
         </is>
       </c>
     </row>
@@ -1687,21 +1719,43 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Zum Häpper 10, 48163 Münster</t>
+          <t>Gronowskistraße 70, 48161 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>264 - Auf der Woort 265 - Pater-Kolbe-Straße 266 - Zur Windmühle
- 267 - Emmerweg</t>
+          <t>312 - Nünningweg 313 - Ramertsweg</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.88487405%2C7.605494331904568</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.96836905%2C7.566242756578949</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Südlohnweg 1, 48161 Münster</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>311 - Heekweg 333 - Doornbeckeweg</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9736935%2C7.560533384811269</t>
         </is>
       </c>
     </row>
@@ -1716,13 +1770,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="38" customWidth="1" min="2" max="2"/>
+    <col width="85" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="81" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1757,12 +1818,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bonhoefferstraße 50, 48151 Münster</t>
+          <t>Appelbreistiege 40, 48149 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>123 - Goerdelerstraße 124 - Bonhoefferstraße 125 - Lange Ossenbeck</t>
+          <t>322 - Gievenbecker Weg 323 - Potstiege 324 - Twenteweg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -1770,7 +1831,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.94163015%2C7.605145209437712</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.96779325%2C7.581247009083935</t>
         </is>
       </c>
     </row>
@@ -1780,20 +1841,44 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Echelmeyerstraße 19, 48163 Münster</t>
+          <t>Corrensstraße 25, 48149 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>282 - Ossenkampstiege</t>
+          <t>301 - Bentelerstraße 302 - Wasserweg 303 - Philippistraße
+ 305 - Von-Esmarch-Straße</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9367046%2C7.592762937389198</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9682696%2C7.595463298034186</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Rudolf-Steiner-Weg 11, 48161 Münster</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>321 - Legdenweg 325 - Gescherweg</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9694248%2C7.581805346375804</t>
         </is>
       </c>
     </row>
@@ -1808,13 +1893,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="32" customWidth="1" min="2" max="2"/>
+    <col width="42" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="81" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1849,20 +1941,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>An der Konradkirche 7, 48155 Münster</t>
+          <t>Bohlweg 7, 48147 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>174 - An der Konradkirche</t>
+          <t>044 - Landeshaus 047 - Gartenstraße</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.96324975%2C7.677774215483531</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9668954%2C7.638297652655629</t>
         </is>
       </c>
     </row>
@@ -1872,12 +1964,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hegerskamp 3, 48155 Münster</t>
+          <t>Sonnenstraße 18, 48143 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>193 - Stephanweg</t>
+          <t>013 - Sonnenstraße</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -1885,7 +1977,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9504953%2C7.6715697</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.96307795%2C7.633580846191878</t>
         </is>
       </c>
     </row>
@@ -1895,43 +1987,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Heinrich-Lersch-Weg 9, 48155 Münster</t>
+          <t>Stühmerweg 10, 48147 Münster</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>194 - Damaschkeweg</t>
+          <t>045 - Zeppelinstraße 046 - Kolpingstraße</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.953803%2C7.670894359758268</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Laerer Landweg 153, 48155 Münster</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>191 - Haus-Kleve-Weg 192 - Hegerskamp 195 - Franz-Grillparzer-Weg</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9541194%2C7.670787181325013</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9694873%2C7.635009555835926</t>
         </is>
       </c>
     </row>
@@ -1953,6 +2022,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="36" customWidth="1" min="2" max="2"/>
+    <col width="79" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="81" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -1987,20 +2063,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dachsleite 32-36, 48157 Münster</t>
+          <t>Alter Steinweg 11, 48143 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>161 - Dachsleite 166 - Marderweg</t>
+          <t>014 - Prinzipalmarkt</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9970641%2C7.6477306</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9629282%2C7.631154381245056</t>
         </is>
       </c>
     </row>
@@ -2010,20 +2086,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Königsberger Straße 91, 48157 Münster</t>
+          <t>Grüne Gasse 38-40, 48143 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>164 - Görlitzer Straße 165 - Breslauer Straße</t>
+          <t>015 - Aegidii</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.99323095%2C7.645804421953839</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9581485%2C7.6237268</t>
         </is>
       </c>
     </row>
@@ -2033,20 +2109,21 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rudolf-Diesel-Straße 7, 48157 Münster</t>
+          <t>Jüdefelderstraße 10, 48143 Münster</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>172 - Dyckburgstraße</t>
+          <t>011 - Jüdefelderstraße 012 - Spiekerhof 016 - Überwasser
+ 026 - Wilhelmstraße</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.99176755%2C7.666422605438813</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.96409405%2C7.619764501707207</t>
         </is>
       </c>
     </row>
@@ -2061,13 +2138,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="47" customWidth="1" min="2" max="2"/>
+    <col width="64" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="88" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -2102,20 +2186,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Friedrich-Ebert-Straße 46, 48153 Münster</t>
+          <t>Gutenbergstraße 14, 48145 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>101 - Zumbroockstraße 106 - Kronprinzenstraße 107 - Herdingstraße</t>
+          <t>074 - Oststraße 075 - Zumsandestraße</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.95038475%2C7.63116767430181</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.96006265%2C7.645207713023179</t>
         </is>
       </c>
     </row>
@@ -2125,20 +2209,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hafenstraße 34, 48153 Münster</t>
+          <t>Manfred-von-Richthofen-Str. 46, 48145 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>091 - Bahnhofstraße</t>
+          <t>081 - Mauritz-Lindenweg 082 - Mindener Straße</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9536301%2C7.631478285026144</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.958032%2C7.65573444762099</t>
         </is>
       </c>
     </row>
@@ -2148,20 +2232,66 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ludgeriplatz 4, 48151 Münster</t>
+          <t>Merschkamp 23, 48155 Münster</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>094 - Josef 096 - Engelenschanze</t>
+          <t>173 - Maikottenweg</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.95502795%2C7.627151777945296</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.958244%2C7.665472903003269</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sankt-Mauritz-Freiheit 25, 48145 Münster</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>042 - Staufenstraße</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.963234150000005%2C7.648959437512636</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Stiftsstraße 19, 48145 Münster</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>043 - Overbergstraße 072 - Dechaneistraße 073 - Prozessionsweg</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.96376715%2C7.650289550752131</t>
         </is>
       </c>
     </row>
@@ -2183,6 +2313,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="38" customWidth="1" min="2" max="2"/>
+    <col width="42" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="81" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -2217,21 +2354,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Finkenstraße 76, 48147 Münster</t>
+          <t>Robert-Koch-Straße 40, 48149 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>021 - Kapuzinerstraße 022 - Gasselstiege 023 - Marientalstraße
- 031 - Finkenstraße</t>
+          <t>025 - Schloss</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9737797%2C7.620670488251879</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.95921025%2C7.604975700000001</t>
         </is>
       </c>
     </row>
@@ -2241,12 +2377,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Uppenkampstiege 17, 48147 Münster</t>
+          <t>Sentruper Höhe 5, 48149 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>052 - Nevinghoff/Flandernstraße 053 - Uppenkampstiege</t>
+          <t>304 - Sentruper Höhe 306 - Redigerstraße</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -2254,7 +2390,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9766616%2C7.625917591294643</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9553255%2C7.594873290090079</t>
         </is>
       </c>
     </row>
@@ -2269,13 +2405,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="38" customWidth="1" min="2" max="2"/>
+    <col width="67" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="81" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -2310,21 +2453,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kirmstraße 1, 48161 Münster</t>
+          <t>An der Konradkirche 7, 48155 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>332 - Sebastianstraße 334 - Feldstiege 335 - Von-Schonebeck-Ring
- 336 - Stefan-Zweig-Straße</t>
+          <t>174 - An der Konradkirche</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.99614235%2C7.559480267994298</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.96324975%2C7.677774215483531</t>
         </is>
       </c>
     </row>
@@ -2334,12 +2476,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Plantstaken 55, 48161 Münster</t>
+          <t>Hegerskamp 3, 48155 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>331 - Häger</t>
+          <t>193 - Stephanweg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -2347,7 +2489,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=52.0229139%2C7.56608970890625</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9504953%2C7.6715697</t>
         </is>
       </c>
     </row>
@@ -2357,20 +2499,43 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Weißdornweg 40, 48159 Münster</t>
+          <t>Heinrich-Lersch-Weg 9, 48155 Münster</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>151 - Sprakel 152 - Sandruper Straße</t>
+          <t>194 - Damaschkeweg</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=52.03693315%2C7.609531337994388</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.953803%2C7.670894359758268</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Laerer Landweg 153, 48155 Münster</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>191 - Haus-Kleve-Weg 192 - Hegerskamp 195 - Franz-Grillparzer-Weg</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9541194%2C7.670787181325013</t>
         </is>
       </c>
     </row>
@@ -2392,6 +2557,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="36" customWidth="1" min="2" max="2"/>
+    <col width="43" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="81" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -2426,20 +2598,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Appelbreistiege 40, 48149 Münster</t>
+          <t>Antoniusstraße 32, 48151 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>322 - Gievenbecker Weg 323 - Potstiege 324 - Twenteweg</t>
+          <t>111 - Goebenstraße</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.96779325%2C7.581247009083935</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9529829%2C7.621452075627948</t>
         </is>
       </c>
     </row>
@@ -2449,21 +2621,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Corrensstraße 25, 48149 Münster</t>
+          <t>Bismarckallee 55, 48151 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>301 - Bentelerstraße 302 - Wasserweg 303 - Philippistraße
- 305 - Von-Esmarch-Straße</t>
+          <t>121 - Scharnhorststraße 122 - Pluggendorf</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9682696%2C7.595463298034186</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.95197455%2C7.609399799788202</t>
         </is>
       </c>
     </row>
@@ -2473,12 +2644,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rudolf-Steiner-Weg 11, 48161 Münster</t>
+          <t>Von-Kluck-Straße 22, 48151 Münster</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>321 - Legdenweg 325 - Gescherweg</t>
+          <t>095 - Antoniuskirche 112 - Hornstraße</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -2486,7 +2657,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9694248%2C7.581805346375804</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9545184%2C7.6234543</t>
         </is>
       </c>
     </row>
@@ -2496,6 +2667,688 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="31" customWidth="1" min="2" max="2"/>
+    <col width="93" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="81" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Bezirk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Anzahl Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Google-Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Kirmstraße 1, 48161 Münster</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>332 - Sebastianstraße 334 - Feldstiege 335 - Von-Schonebeck-Ring
+ 336 - Stefan-Zweig-Straße</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.99614235%2C7.559480267994298</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Plantstaken 55, 48161 Münster</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>331 - Häger</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=52.0229139%2C7.56608970890625</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Weißdornweg 40, 48159 Münster</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>151 - Sprakel 152 - Sandruper Straße</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=52.03693315%2C7.609531337994388</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="42" customWidth="1" min="2" max="2"/>
+    <col width="67" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="81" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Bezirk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Anzahl Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Google-Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Friedrich-Ebert-Straße 46, 48153 Münster</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>101 - Zumbroockstraße 106 - Kronprinzenstraße 107 - Herdingstraße</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.95038475%2C7.63116767430181</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Hafenstraße 34, 48153 Münster</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>091 - Bahnhofstraße</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9536301%2C7.631478285026144</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ludgeriplatz 4, 48151 Münster</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>094 - Josef 096 - Engelenschanze</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.95502795%2C7.627151777945296</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="37" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="81" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Bezirk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Anzahl Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Google-Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Hansaring 80, 48155 Münster</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>083 - Lambertistraße 084 - Hansaplatz</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9547017%2C7.645539912017435</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Margaretenstraße 6, 48145 Münster</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>085 - Sophienstraße 092 - Bremer Platz</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.95623855%2C7.644752314250903</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nieberdingstraße 30a, 48155 Münster</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>093 - Bremer Straße 102 - Hafen</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9426636%2C7.641893159116444</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rösnerstraße 10, 48155 Münster</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>201 - Lindberghweg</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9401638%2C7.64394955</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="39" customWidth="1" min="2" max="2"/>
+    <col width="138" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="88" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Bezirk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Anzahl Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Google-Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Auf dem Dorn 14, 48161 Münster</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>293 - Altenroxeler Straße</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.955106400000005%2C7.530773881241168</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Hohe Geist 8, 48163 Münster</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>271 - Oberort 273 - Albachtener Str./Steinkuhle 274 - In der Weede</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9227202%2C7.528324261355753</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Tilbecker Straße 24-26, 48161 Münster</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>291 - Annette-von-Droste-Hülshoff-Straße 292 - Havixbecker Straße
+ 294 - Stellmacherweg 295 - Paul-Gerhardt-Straße
+ 296 - Schelmenstiege</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>5</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9543838%2C7.5294497</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="38" customWidth="1" min="2" max="2"/>
+    <col width="44" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="81" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Bezirk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Anzahl Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Google-Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Dahlweg 118, 48153 Münster</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>114 - Weißenburgstraße 132 - Grevingstraße</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9394195%2C7.628834869047619</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Gut Insel 36, 48151 Münster</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>116 - Oberschlesier Straße</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.93860585%2C7.61298881209431</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Metzer Straße 41, 48151 Münster</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>131 - Elsässer Straße</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9400423%2C7.620743128124999</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Prinz-Eugen-Straße 27, 48151 Münster</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>104 - Scheibenstraße 113 - Turmstraße</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>2</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.94719195%2C7.618812311468304</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sentmaringer Weg 61, 48151 Münster</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>115 - Grüner Grund</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9442968%2C7.6154512</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2508,6 +3361,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="36" customWidth="1" min="2" max="2"/>
+    <col width="68" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="81" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -2542,21 +3402,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dingbängerweg 80, 48163 Münster</t>
+          <t>Bonhoefferstraße 50, 48151 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>281 - Hesselmann 283 - Dingbängerweg 284 - Am Dill
- 285 - Rote Erde</t>
+          <t>123 - Goerdelerstraße 124 - Bonhoefferstraße 125 - Lange Ossenbeck</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.93262055%2C7.580143024353202</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.94163015%2C7.605145209437712</t>
         </is>
       </c>
     </row>
@@ -2566,12 +3425,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kleibusch 10, 48163 Münster</t>
+          <t>Echelmeyerstraße 19, 48163 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>272 - Heroldstraße</t>
+          <t>282 - Ossenkampstiege</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -2579,7 +3438,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.91972195%2C7.575926144323704</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9367046%2C7.592762937389198</t>
         </is>
       </c>
     </row>
@@ -2588,7 +3447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2601,6 +3460,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="36" customWidth="1" min="2" max="2"/>
+    <col width="63" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="80" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -2726,398 +3592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Bezirk</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Adresse</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Anzahl Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Google-Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Eichendorffstraße 36, 48167 Münster</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>222 - Theodor-Heuss-Straße 223 - Bachstraße</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9147512%2C7.695004957462609</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Loddenweg 12, 48165 Münster</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>241 - Ringstraße 244 - Hülsheide 245 - Am Roggenkamp</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.907630350000005%2C7.665853244332855</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Loddenweg 8a, 48165 Münster</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>242 - Rubensstraße</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.90685355%2C7.667563705195853</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Bezirk</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Adresse</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Anzahl Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Google-Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Gutenbergstraße 14, 48145 Münster</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>074 - Oststraße 075 - Zumsandestraße</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.96006265%2C7.645207713023179</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Manfred-von-Richthofen-Str. 46, 48145 Münster</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>081 - Mauritz-Lindenweg 082 - Mindener Straße</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.958032%2C7.65573444762099</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Merschkamp 23, 48155 Münster</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>173 - Maikottenweg</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.958244%2C7.665472903003269</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Sankt-Mauritz-Freiheit 25, 48145 Münster</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>042 - Staufenstraße</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.963234150000005%2C7.648959437512636</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Stiftsstraße 19, 48145 Münster</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>043 - Overbergstraße 072 - Dechaneistraße 073 - Prozessionsweg</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.96376715%2C7.650289550752131</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Bezirk</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Adresse</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Anzahl Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Google-Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Alt Angelmodde 15, 48167 Münster</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>221 - Angelstraße</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.92308165%2C7.699121370363766</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Am Wigbold 11, 48167 Münster</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>211 - Kreuzbach 214 - Wolbeck Zentrum 215 - Hofkamp</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9153201%2C7.729627892884797</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Von-Holte-Straße 56, 48167 Münster</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>212 - Zumbuschstraße 213 - Am Berler Kamp</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9146987%2C7.7202582</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3130,6 +3605,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="34" customWidth="1" min="2" max="2"/>
+    <col width="56" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="81" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -3164,20 +3646,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hansaring 80, 48155 Münster</t>
+          <t>Heeremansweg 13, 48167 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>083 - Lambertistraße 084 - Hansaplatz</t>
+          <t>205 - Heeremansweg</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9547017%2C7.645539912017435</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.92762325%2C7.657646146522559</t>
         </is>
       </c>
     </row>
@@ -3187,12 +3669,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Margaretenstraße 6, 48145 Münster</t>
+          <t>Höftestraße 4, 48167 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>085 - Sophienstraße 092 - Bremer Platz</t>
+          <t>224 - Albersloher Weg 226 - Heidestraße</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -3200,7 +3682,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.95623855%2C7.644752314250903</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9213159%2C7.680753611632205</t>
         </is>
       </c>
     </row>
@@ -3210,20 +3692,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nieberdingstraße 30a, 48155 Münster</t>
+          <t>Vörnste Esch 19, 48167 Münster</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>093 - Bremer Straße 102 - Hafen</t>
+          <t>202 - Delstrup 203 - Kranichweg 204 - Anton-Knubel-Weg</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9426636%2C7.641893159116444</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9323056%2C7.673866149953675</t>
         </is>
       </c>
     </row>
@@ -3233,12 +3715,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Rösnerstraße 10, 48155 Münster</t>
+          <t>Zum Erlenbusch 15, 48167 Münster</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>201 - Lindberghweg</t>
+          <t>225 - Angelsachsenweg</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -3246,216 +3728,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9401638%2C7.64394955</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Bezirk</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Adresse</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Anzahl Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Google-Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Bröderichweg 36, 48159 Münster</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>153 - Bröderichweg 156 - Coermühle</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.99257595%2C7.6162983710793535</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Im Moorhock 71, 48159 Münster</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>154 - Rektoratsweg</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9893852%2C7.604524684580532</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Von-Humboldt-Straße 14, 48159 Münster</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>141 - Feldstiegenkamp 142 - Kinderhaus Zentrum 143 - Neuer Heidkamp
- 144 - Helmholtzweg</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>4</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.99835155%2C7.604638020118084</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Bezirk</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Adresse</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Anzahl Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Google-Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Coerdestraße 8, 48147 Münster</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>033 - Siverdesstraße 034 - Coerdestraße</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9691151%2C7.6280025</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Kampstraße 15, 48147 Münster</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>024 - Schulstraße 032 - Tannenbergstraße 035 - Hoyastraße
- 036 - Gertrudenstraße</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.969471850000005%2C7.623725470020581</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9246104%2C7.673691163250751</t>
         </is>
       </c>
     </row>
@@ -3477,6 +3750,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="33" customWidth="1" min="2" max="2"/>
+    <col width="69" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="81" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -3511,20 +3791,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Robert-Koch-Straße 40, 48149 Münster</t>
+          <t>Dingbängerweg 80, 48163 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>025 - Schloss</t>
+          <t>281 - Hesselmann 283 - Dingbängerweg 284 - Am Dill
+ 285 - Rote Erde</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.95921025%2C7.604975700000001</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.93262055%2C7.580143024353202</t>
         </is>
       </c>
     </row>
@@ -3534,20 +3815,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sentruper Höhe 5, 48149 Münster</t>
+          <t>Kleibusch 10, 48163 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>304 - Sentruper Höhe 306 - Redigerstraße</t>
+          <t>272 - Heroldstraße</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9553255%2C7.594873290090079</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.91972195%2C7.575926144323704</t>
         </is>
       </c>
     </row>
@@ -3569,6 +3850,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="36" customWidth="1" min="2" max="2"/>
+    <col width="53" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="81" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -3603,12 +3891,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Antoniusstraße 32, 48151 Münster</t>
+          <t>Alt Angelmodde 15, 48167 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>111 - Goebenstraße</t>
+          <t>221 - Angelstraße</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -3616,7 +3904,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9529829%2C7.621452075627948</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.92308165%2C7.699121370363766</t>
         </is>
       </c>
     </row>
@@ -3626,20 +3914,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bismarckallee 55, 48151 Münster</t>
+          <t>Am Wigbold 11, 48167 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>121 - Scharnhorststraße 122 - Pluggendorf</t>
+          <t>211 - Kreuzbach 214 - Wolbeck Zentrum 215 - Hofkamp</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.95197455%2C7.609399799788202</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9153201%2C7.729627892884797</t>
         </is>
       </c>
     </row>
@@ -3649,12 +3937,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Von-Kluck-Straße 22, 48151 Münster</t>
+          <t>Von-Holte-Straße 56, 48167 Münster</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>095 - Antoniuskirche 112 - Hornstraße</t>
+          <t>212 - Zumbuschstraße 213 - Am Berler Kamp</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -3662,7 +3950,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9545184%2C7.6234543</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9146987%2C7.7202582</t>
         </is>
       </c>
     </row>
@@ -3684,6 +3972,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="37" customWidth="1" min="2" max="2"/>
+    <col width="54" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="88" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -3718,20 +4013,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lahnstraße 3, 48145 Münster</t>
+          <t>Eichendorffstraße 36, 48167 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>175 - Saarstraße</t>
+          <t>222 - Theodor-Heuss-Straße 223 - Bachstraße</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9689185%2C7.657580547697081</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9147512%2C7.695004957462609</t>
         </is>
       </c>
     </row>
@@ -3741,20 +4036,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pötterhoek 45, 48145 Münster</t>
+          <t>Loddenweg 12, 48165 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>062 - Pötterhoek</t>
+          <t>241 - Ringstraße 244 - Hülsheide 245 - Am Roggenkamp</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9736133%2C7.653737016012916</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.907630350000005%2C7.665853244332855</t>
         </is>
       </c>
     </row>
@@ -3764,20 +4059,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Wiener Straße 53, 48145 Münster</t>
+          <t>Loddenweg 8a, 48165 Münster</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>063 - Ostmarkstraße 071 - Kirchstraße</t>
+          <t>242 - Rubensstraße</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.96880045%2C7.650988831189711</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.90685355%2C7.667563705195853</t>
         </is>
       </c>
     </row>
@@ -3799,6 +4094,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="35" customWidth="1" min="2" max="2"/>
+    <col width="61" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="88" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -3833,20 +4135,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Heeremansweg 13, 48167 Münster</t>
+          <t>Drostestraße 7, 48157 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>205 - Heeremansweg</t>
+          <t>182 - Handorfer Straße 183 - Heriburgstraße 184 - Ziegelhof</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.92762325%2C7.657646146522559</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9901032%2C7.703648538461694</t>
         </is>
       </c>
     </row>
@@ -3856,20 +4158,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Höftestraße 4, 48167 Münster</t>
+          <t>Eichenaue 3, 48157 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>224 - Albersloher Weg 226 - Heidestraße</t>
+          <t>181 - Hornheide</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9213159%2C7.680753611632205</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.995582600000006%2C7.712675513581021</t>
         </is>
       </c>
     </row>
@@ -3879,20 +4181,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vörnste Esch 19, 48167 Münster</t>
+          <t>Gelmerheide 3, 48157 Münster</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>202 - Delstrup 203 - Kranichweg 204 - Anton-Knubel-Weg</t>
+          <t>171 - Gelmer</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9323056%2C7.673866149953675</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=52.0297395%2C7.675133013988717</t>
         </is>
       </c>
     </row>
@@ -3902,12 +4204,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Zum Erlenbusch 15, 48167 Münster</t>
+          <t>Immelmannstraße 37, 48157 Münster</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>225 - Angelsachsenweg</t>
+          <t>185 - Dorbaum</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -3915,7 +4217,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9246104%2C7.673691163250751</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.99904765%2C7.715916456448493</t>
         </is>
       </c>
     </row>
@@ -3937,6 +4239,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="40" customWidth="1" min="2" max="2"/>
+    <col width="123" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="81" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -4041,6 +4350,106 @@
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="33" customWidth="1" min="2" max="2"/>
+    <col width="82" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="81" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Bezirk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Anzahl Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Google-Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Wiedaustraße 114, 48163 Münster</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>261 - Loevelingloh</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.89424385%2C7.57817422018965</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Zum Häpper 10, 48163 Münster</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>264 - Auf der Woort 265 - Pater-Kolbe-Straße 266 - Zur Windmühle
+ 267 - Emmerweg</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>4</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.88487405%2C7.605494331904568</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4053,6 +4462,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="41" customWidth="1" min="2" max="2"/>
+    <col width="41" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="81" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -4087,20 +4503,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grüne Gasse 38-40, 48143 Münster</t>
+          <t>Josef-Beckmann-Straße 33, 48159 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>015 - Aegidii</t>
+          <t>145 - Fernholzstraße 146 - Brüningheide</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9581485%2C7.6237268</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.99691815%2C7.593705277551625</t>
         </is>
       </c>
     </row>
@@ -4110,12 +4526,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alter Steinweg 11, 48143 Münster</t>
+          <t>Sprickmannplatz 1, 48159 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>014 - Prinzipalmarkt</t>
+          <t>155 - Heidköttersweg</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -4123,7 +4539,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9629282%2C7.631154381245056</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9987374%2C7.594974856015037</t>
         </is>
       </c>
     </row>
@@ -4133,114 +4549,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jüdefelderstraße 10, 48143 Münster</t>
+          <t>Sprickmannplatz 7, 48159 Münster</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>011 - Jüdefelderstraße 012 - Spiekerhof 016 - Überwasser
- 026 - Wilhelmstraße</t>
+          <t>147 - Killingstraße</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.96409405%2C7.619764501707207</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Bezirk</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Adresse</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Anzahl Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Google-Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>An der Meerwiese 7, 48157 Münster</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>162 - Königsberger Straße 163 - An der Meerwiese</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.98915895%2C7.648910980987003</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Thomas-Morus-Weg 7, 48147 Münster</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>041 - Holsteiner Straße 061 - Hoppengarten
- 064 - Mecklenburger Straße 065 - Kösliner Straße 066 - Rumphorstweg</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.97468825%2C7.644125496047033</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.99899595%2C7.594411513785913</t>
         </is>
       </c>
     </row>
@@ -4262,6 +4584,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="39" customWidth="1" min="2" max="2"/>
+    <col width="47" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="81" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -4296,12 +4625,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Josef-Beckmann-Straße 33, 48159 Münster</t>
+          <t>Dachsleite 32-36, 48157 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>145 - Fernholzstraße 146 - Brüningheide</t>
+          <t>161 - Dachsleite 166 - Marderweg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -4309,7 +4638,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.99691815%2C7.593705277551625</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9970641%2C7.6477306</t>
         </is>
       </c>
     </row>
@@ -4319,20 +4648,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sprickmannplatz 1, 48159 Münster</t>
+          <t>Königsberger Straße 91, 48157 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>155 - Heidköttersweg</t>
+          <t>164 - Görlitzer Straße 165 - Breslauer Straße</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9987374%2C7.594974856015037</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.99323095%2C7.645804421953839</t>
         </is>
       </c>
     </row>
@@ -4342,12 +4671,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sprickmannplatz 7, 48159 Münster</t>
+          <t>Rudolf-Diesel-Straße 7, 48157 Münster</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>147 - Killingstraße</t>
+          <t>172 - Dyckburgstraße</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -4355,7 +4684,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.99899595%2C7.594411513785913</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.99176755%2C7.666422605438813</t>
         </is>
       </c>
     </row>
@@ -4365,167 +4694,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Bezirk</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Adresse</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Anzahl Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Google-Link</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Dahlweg 118, 48153 Münster</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>114 - Weißenburgstraße 132 - Grevingstraße</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9394195%2C7.628834869047619</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Gut Insel 36, 48151 Münster</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>116 - Oberschlesier Straße</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.93860585%2C7.61298881209431</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Metzer Straße 41, 48151 Münster</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>131 - Elsässer Straße</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9400423%2C7.620743128124999</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Prinz-Eugen-Straße 27, 48151 Münster</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>104 - Scheibenstraße 113 - Turmstraße</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.94719195%2C7.618812311468304</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Sentmaringer Weg 61, 48151 Münster</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>115 - Grüner Grund</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9442968%2C7.6154512</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4538,6 +4706,13 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="39" customWidth="1" min="2" max="2"/>
+    <col width="89" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="82" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -4572,20 +4747,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Auf dem Dorn 14, 48161 Münster</t>
+          <t>Bröderichweg 36, 48159 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>293 - Altenroxeler Straße</t>
+          <t>153 - Bröderichweg 156 - Coermühle</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.955106400000005%2C7.530773881241168</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.99257595%2C7.6162983710793535</t>
         </is>
       </c>
     </row>
@@ -4595,20 +4770,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hohe Geist 8, 48163 Münster</t>
+          <t>Im Moorhock 71, 48159 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>271 - Oberort 273 - Albachtener Str./Steinkuhle 274 - In der Weede</t>
+          <t>154 - Rektoratsweg</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9227202%2C7.528324261355753</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9893852%2C7.604524684580532</t>
         </is>
       </c>
     </row>
@@ -4618,22 +4793,121 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tilbecker Straße 24-26, 48161 Münster</t>
+          <t>Von-Humboldt-Straße 14, 48159 Münster</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>291 - Annette-von-Droste-Hülshoff-Straße 292 - Havixbecker Straße
- 294 - Stellmacherweg 295 - Paul-Gerhardt-Straße
- 296 - Schelmenstiege</t>
+          <t>141 - Feldstiegenkamp 142 - Kinderhaus Zentrum 143 - Neuer Heidkamp
+ 144 - Helmholtzweg</t>
         </is>
       </c>
       <c r="D4" t="n">
+        <v>4</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.99835155%2C7.604638020118084</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="35" customWidth="1" min="2" max="2"/>
+    <col width="113" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="81" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Bezirk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Anzahl Stimmbezirke</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Google-Link</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>An der Meerwiese 7, 48157 Münster</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>162 - Königsberger Straße 163 - An der Meerwiese</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.98915895%2C7.648910980987003</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Thomas-Morus-Weg 7, 48147 Münster</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>041 - Holsteiner Straße 061 - Hoppengarten
+ 064 - Mecklenburger Straße 065 - Kösliner Straße 066 - Rumphorstweg</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>5</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9543838%2C7.5294497</t>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.97468825%2C7.644125496047033</t>
         </is>
       </c>
     </row>
@@ -4648,13 +4922,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="40" customWidth="1" min="2" max="2"/>
+    <col width="67" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="80" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -4689,12 +4970,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Drostestraße 7, 48157 Münster</t>
+          <t>Friesenring 25, 48147 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>182 - Handorfer Straße 183 - Heriburgstraße 184 - Ziegelhof</t>
+          <t>051 - Salzmannstraße 054 - Kinderhauser Straße 055 - Koburger Weg</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -4702,7 +4983,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9901032%2C7.703648538461694</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.975366%2C7.615509499999999</t>
         </is>
       </c>
     </row>
@@ -4712,12 +4993,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eichenaue 3, 48157 Münster</t>
+          <t>Kinderhauser Straße 112, 48147 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>181 - Hornheide</t>
+          <t>056 - Dreizehnerstraße</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -4725,53 +5006,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.995582600000006%2C7.712675513581021</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Gelmerheide 3, 48157 Münster</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>171 - Gelmer</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=52.0297395%2C7.675133013988717</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Immelmannstraße 37, 48157 Münster</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>185 - Dorbaum</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.99904765%2C7.715916456448493</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9815871%2C7.614148399880134</t>
         </is>
       </c>
     </row>
@@ -4786,13 +5021,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="35" customWidth="1" min="2" max="2"/>
+    <col width="84" customWidth="1" min="3" max="3"/>
+    <col width="21" customWidth="1" min="4" max="4"/>
+    <col width="80" customWidth="1" min="5" max="5"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -4827,20 +5069,21 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bohlweg 7, 48147 Münster</t>
+          <t>Finkenstraße 76, 48147 Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>044 - Landeshaus 047 - Gartenstraße</t>
+          <t>021 - Kapuzinerstraße 022 - Gasselstiege 023 - Marientalstraße
+ 031 - Finkenstraße</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9668954%2C7.638297652655629</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9737797%2C7.620670488251879</t>
         </is>
       </c>
     </row>
@@ -4850,43 +5093,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sonnenstraße 18, 48143 Münster</t>
+          <t>Uppenkampstiege 17, 48147 Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>013 - Sonnenstraße</t>
+          <t>052 - Nevinghoff/Flandernstraße 053 - Uppenkampstiege</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.96307795%2C7.633580846191878</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Stühmerweg 10, 48147 Münster</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>045 - Zeppelinstraße 046 - Kolpingstraße</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9694873%2C7.635009555835926</t>
+          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9766616%2C7.625917591294643</t>
         </is>
       </c>
     </row>

--- a/routes_optimized.xlsx
+++ b/routes_optimized.xlsx
@@ -8,36 +8,37 @@
   </bookViews>
   <sheets>
     <sheet name="Übersicht" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Bezirk_1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Bezirk_2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Bezirk_3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Bezirk_4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="Bezirk_5" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Bezirk_6" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Bezirk_7" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Bezirk_8" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="Bezirk_9" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="Bezirk_10" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="Bezirk_11" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="Bezirk_12" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="Bezirk_13" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="Bezirk_14" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="Bezirk_15" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="Bezirk_16" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="Bezirk_17" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="Bezirk_18" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="Bezirk_19" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="Bezirk_20" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="Bezirk_21" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="Bezirk_22" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="Bezirk_23" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="Bezirk_24" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="Bezirk_25" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="Bezirk_26" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="Bezirk_27" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="Bezirk_28" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="Bezirk_29" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="Bezirk_30" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="Gesamtübersicht" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Bezirk_1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Bezirk_2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Bezirk_3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Bezirk_4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Bezirk_5" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Bezirk_6" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Bezirk_7" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Bezirk_8" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Bezirk_9" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Bezirk_10" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Bezirk_11" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Bezirk_12" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Bezirk_13" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Bezirk_14" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Bezirk_15" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Bezirk_16" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Bezirk_17" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Bezirk_18" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Bezirk_19" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Bezirk_20" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Bezirk_21" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Bezirk_22" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Bezirk_23" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Bezirk_24" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Bezirk_25" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="Bezirk_26" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="Bezirk_27" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="Bezirk_28" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="Bezirk_29" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="Bezirk_30" sheetId="32" state="visible" r:id="rId32"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -47,7 +48,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -58,16 +59,29 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00F2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -81,15 +95,66 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <left style="thick"/>
+      <right style="thin"/>
+      <top style="thick"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thick"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thick"/>
+      <top style="thick"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thick"/>
+    </border>
+    <border>
+      <left style="thick"/>
+      <right style="thin"/>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <bottom style="thick"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thick"/>
+      <bottom style="thick"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -691,7 +756,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/51.98915895,7.648910980987003/51.97468825,7.644125496047033</t>
+          <t>https://www.google.com/maps/dir/51.97468825,7.644125496047033/51.98915895,7.648910980987003</t>
         </is>
       </c>
     </row>
@@ -1300,28 +1365,28 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C28" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D28" t="n">
-        <v>3.7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="E28" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="F28" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>1:07:00</t>
+          <t>1:38:00</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/51.92308165,7.699121370363766/51.9153201,7.729627892884797/51.9146987,7.7202582</t>
+          <t>https://www.google.com/maps/dir/51.92308165,7.699121370363766/51.9153201,7.729627892884797/51.9147512,7.695004957462609/51.9146987,7.7202582</t>
         </is>
       </c>
     </row>
@@ -1333,25 +1398,25 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D29" t="n">
-        <v>2.7</v>
+        <v>1.9</v>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>1:05:00</t>
+          <t>1:13:00</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/51.9147512,7.695004957462609/51.907630350000005,7.665853244332855/51.90685355,7.667563705195853</t>
+          <t>https://www.google.com/maps/dir/51.907630350000005,7.665853244332855/51.90685355,7.667563705195853/51.9065353,7.646594849248558</t>
         </is>
       </c>
     </row>
@@ -1360,28 +1425,28 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
+        <v>2</v>
+      </c>
+      <c r="C30" t="n">
+        <v>9</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E30" t="n">
         <v>3</v>
       </c>
-      <c r="C30" t="n">
-        <v>12</v>
-      </c>
-      <c r="D30" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="E30" t="n">
-        <v>4</v>
-      </c>
       <c r="F30" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>2:04:00</t>
+          <t>1:33:00</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>https://www.google.com/maps/dir/51.90366345,7.626606101187082/51.9065353,7.646594849248558/51.9008006,7.641498432092007</t>
+          <t>https://www.google.com/maps/dir/51.90366345,7.626606101187082/51.9008006,7.641498432092007</t>
         </is>
       </c>
     </row>
@@ -1426,7 +1491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1434,37 +1499,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="33" customWidth="1" min="2" max="2"/>
-    <col width="39" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="81" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="28" customWidth="1" min="2" max="2"/>
+    <col width="35" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Bezirk</t>
+          <t>Nr.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Adresse</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Anzahl Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -1474,20 +1533,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lahnstraße 3, 48145 Münster</t>
+          <t>Realschule im Kreuzviertel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>175 - Saarstraße</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9689185%2C7.657580547697081</t>
+          <t>Finkenstraße 76, 48147 Münster</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>021, 022, 023, 031</t>
         </is>
       </c>
     </row>
@@ -1497,43 +1553,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pötterhoek 45, 48145 Münster</t>
+          <t>Pascal-Gymnasium Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>062 - Pötterhoek</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9736133%2C7.653737016012916</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Wiener Straße 53, 48145 Münster</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>063 - Ostmarkstraße 071 - Kirchstraße</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.96880045%2C7.650988831189711</t>
+          <t>Uppenkampstiege 17, 48147 Münster</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>052, 053</t>
         </is>
       </c>
     </row>
@@ -1548,7 +1578,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1556,37 +1586,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="31" customWidth="1" min="2" max="2"/>
-    <col width="82" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="88" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="33" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Bezirk</t>
+          <t>Nr.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Adresse</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Anzahl Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -1596,20 +1620,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coerdestraße 8, 48147 Münster</t>
+          <t>Pfarrheim St. Pius</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>033 - Siverdesstraße 034 - Coerdestraße</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9691151%2C7.6280025</t>
+          <t>Lahnstraße 3, 48145 Münster</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>175</t>
         </is>
       </c>
     </row>
@@ -1619,21 +1640,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kampstraße 15, 48147 Münster</t>
+          <t>Erich-Kästner-Schule</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>024 - Schulstraße 032 - Tannenbergstraße 035 - Hoyastraße
- 036 - Gertrudenstraße</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.969471850000005%2C7.623725470020581</t>
+          <t>Pötterhoek 45, 48145 Münster</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>062</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>GenoKolleg</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Wiener Straße 53, 48145 Münster</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>063, 071</t>
         </is>
       </c>
     </row>
@@ -1648,7 +1685,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1656,37 +1693,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="36" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="81" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="31" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Bezirk</t>
+          <t>Nr.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Adresse</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Anzahl Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -1696,20 +1727,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dieckmannstraße 131, 48161 Münster</t>
+          <t>Martin-Luther-Schule</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>314 - Dieckmannstraße 315 - Heinrich-Ebel-Straße</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.96521775%2C7.566958722373362</t>
+          <t>Coerdestraße 8, 48147 Münster</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>033, 034</t>
         </is>
       </c>
     </row>
@@ -1719,43 +1747,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gronowskistraße 70, 48161 Münster</t>
+          <t>Kreuzschule Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>312 - Nünningweg 313 - Ramertsweg</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.96836905%2C7.566242756578949</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Südlohnweg 1, 48161 Münster</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>311 - Heekweg 333 - Doornbeckeweg</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9736935%2C7.560533384811269</t>
+          <t>Kampstraße 15, 48147 Münster</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>024, 032, 035, 036</t>
         </is>
       </c>
     </row>
@@ -1770,7 +1772,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1778,37 +1780,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="38" customWidth="1" min="2" max="2"/>
-    <col width="85" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="81" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="36" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Bezirk</t>
+          <t>Nr.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Adresse</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Anzahl Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -1818,20 +1814,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Appelbreistiege 40, 48149 Münster</t>
+          <t>Mosaik-Schule Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>322 - Gievenbecker Weg 323 - Potstiege 324 - Twenteweg</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.96779325%2C7.581247009083935</t>
+          <t>Dieckmannstraße 131, 48161 Münster</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>314, 315</t>
         </is>
       </c>
     </row>
@@ -1841,21 +1834,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Corrensstraße 25, 48149 Münster</t>
+          <t>St. Michael Kindergarten III</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>301 - Bentelerstraße 302 - Wasserweg 303 - Philippistraße
- 305 - Von-Esmarch-Straße</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9682696%2C7.595463298034186</t>
+          <t>Gronowskistraße 70, 48161 Münster</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>312, 313</t>
         </is>
       </c>
     </row>
@@ -1865,20 +1854,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rudolf-Steiner-Weg 11, 48161 Münster</t>
+          <t>Altenheim St. Elisabeth</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>321 - Legdenweg 325 - Gescherweg</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9694248%2C7.581805346375804</t>
+          <t>Südlohnweg 1, 48161 Münster</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>311, 333</t>
         </is>
       </c>
     </row>
@@ -1893,7 +1879,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1901,37 +1887,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="32" customWidth="1" min="2" max="2"/>
-    <col width="42" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="81" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="38" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Bezirk</t>
+          <t>Nr.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Adresse</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Anzahl Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -1941,20 +1921,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bohlweg 7, 48147 Münster</t>
+          <t>Michaelschule</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>044 - Landeshaus 047 - Gartenstraße</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9668954%2C7.638297652655629</t>
+          <t>Appelbreistiege 40, 48149 Münster</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>322, 323, 324</t>
         </is>
       </c>
     </row>
@@ -1964,20 +1941,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sonnenstraße 18, 48143 Münster</t>
+          <t>Fachhochschulzentrum Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>013 - Sonnenstraße</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.96307795%2C7.633580846191878</t>
+          <t>Corrensstraße 25, 48149 Münster</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>301, 302, 303, 305</t>
         </is>
       </c>
     </row>
@@ -1987,20 +1961,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Stühmerweg 10, 48147 Münster</t>
+          <t>Freie Waldorfschule</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>045 - Zeppelinstraße 046 - Kolpingstraße</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9694873%2C7.635009555835926</t>
+          <t>Rudolf-Steiner-Weg 11, 48161 Münster</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>321, 325</t>
         </is>
       </c>
     </row>
@@ -2015,7 +1986,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2023,37 +1994,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="36" customWidth="1" min="2" max="2"/>
-    <col width="79" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="81" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="42" customWidth="1" min="2" max="2"/>
+    <col width="32" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Bezirk</t>
+          <t>Nr.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Adresse</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Anzahl Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -2063,20 +2028,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alter Steinweg 11, 48143 Münster</t>
+          <t>Ratsgymnasium Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>014 - Prinzipalmarkt</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9629282%2C7.631154381245056</t>
+          <t>Bohlweg 7, 48147 Münster</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>044, 047</t>
         </is>
       </c>
     </row>
@@ -2086,20 +2048,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grüne Gasse 38-40, 48143 Münster</t>
+          <t>Johann-Conrad-Schlaun-Gymnasium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>015 - Aegidii</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9581485%2C7.6237268</t>
+          <t>Sonnenstraße 18, 48143 Münster</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>013</t>
         </is>
       </c>
     </row>
@@ -2109,21 +2068,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jüdefelderstraße 10, 48143 Münster</t>
+          <t>Studieninstitut für kommunale Verwaltung</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>011 - Jüdefelderstraße 012 - Spiekerhof 016 - Überwasser
- 026 - Wilhelmstraße</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>4</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.96409405%2C7.619764501707207</t>
+          <t>Stühmerweg 10, 48147 Münster</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>045, 046</t>
         </is>
       </c>
     </row>
@@ -2138,7 +2093,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2146,37 +2101,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="47" customWidth="1" min="2" max="2"/>
-    <col width="64" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="88" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="39" customWidth="1" min="2" max="2"/>
+    <col width="36" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Bezirk</t>
+          <t>Nr.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Adresse</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Anzahl Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -2186,20 +2135,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gutenbergstraße 14, 48145 Münster</t>
+          <t>Stadtbücherei Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>074 - Oststraße 075 - Zumsandestraße</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.96006265%2C7.645207713023179</t>
+          <t>Alter Steinweg 11, 48143 Münster</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>014</t>
         </is>
       </c>
     </row>
@@ -2209,20 +2155,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Manfred-von-Richthofen-Str. 46, 48145 Münster</t>
+          <t>Annette von Droste Hülshoff Gymnasium</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>081 - Mauritz-Lindenweg 082 - Mindener Straße</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.958032%2C7.65573444762099</t>
+          <t>Grüne Gasse 38-40, 48143 Münster</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>015</t>
         </is>
       </c>
     </row>
@@ -2232,66 +2175,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Merschkamp 23, 48155 Münster</t>
+          <t>Gesamtschule Münster-Mitte</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>173 - Maikottenweg</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.958244%2C7.665472903003269</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Sankt-Mauritz-Freiheit 25, 48145 Münster</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>042 - Staufenstraße</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.963234150000005%2C7.648959437512636</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Stiftsstraße 19, 48145 Münster</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>043 - Overbergstraße 072 - Dechaneistraße 073 - Prozessionsweg</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>3</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.96376715%2C7.650289550752131</t>
+          <t>Jüdefelderstraße 10, 48143 Münster</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>011, 012, 016, 026</t>
         </is>
       </c>
     </row>
@@ -2306,7 +2200,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2314,37 +2208,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="38" customWidth="1" min="2" max="2"/>
-    <col width="42" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="81" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="47" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Bezirk</t>
+          <t>Nr.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Adresse</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Anzahl Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -2354,20 +2242,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Robert-Koch-Straße 40, 48149 Münster</t>
+          <t>Bodelschwinghschule Münster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>025 - Schloss</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.95921025%2C7.604975700000001</t>
+          <t>Gutenbergstraße 14, 48145 Münster</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>074, 075</t>
         </is>
       </c>
     </row>
@@ -2377,20 +2262,77 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sentruper Höhe 5, 48149 Münster</t>
+          <t>Mathilde Anneke Gesamtschule</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>304 - Sentruper Höhe 306 - Redigerstraße</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9553255%2C7.594873290090079</t>
+          <t>Manfred-von-Richthofen-Str. 46, 48145 Münster</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>081, 082</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CVJM Johannes-Busch-Haus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Merschkamp 23, 48155 Münster</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Pfarrheim St. Mauritz</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Sankt-Mauritz-Freiheit 25, 48145 Münster</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>042</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Mauritzschule Münster</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Stiftsstraße 19, 48145 Münster</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>043, 072, 073</t>
         </is>
       </c>
     </row>
@@ -2405,7 +2347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2413,37 +2355,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="38" customWidth="1" min="2" max="2"/>
-    <col width="67" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="81" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="2" max="2"/>
+    <col width="38" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Bezirk</t>
+          <t>Nr.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Adresse</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Anzahl Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -2453,20 +2389,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>An der Konradkirche 7, 48155 Münster</t>
+          <t>Servicebüro Familie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>174 - An der Konradkirche</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.96324975%2C7.677774215483531</t>
+          <t>Robert-Koch-Straße 40, 48149 Münster</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>025</t>
         </is>
       </c>
     </row>
@@ -2476,66 +2409,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hegerskamp 3, 48155 Münster</t>
+          <t>Theresienschule</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>193 - Stephanweg</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9504953%2C7.6715697</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Heinrich-Lersch-Weg 9, 48155 Münster</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>194 - Damaschkeweg</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.953803%2C7.670894359758268</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Laerer Landweg 153, 48155 Münster</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>191 - Haus-Kleve-Weg 192 - Hegerskamp 195 - Franz-Grillparzer-Weg</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>3</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9541194%2C7.670787181325013</t>
+          <t>Sentruper Höhe 5, 48149 Münster</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>304, 306</t>
         </is>
       </c>
     </row>
@@ -2550,7 +2434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2558,37 +2442,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="36" customWidth="1" min="2" max="2"/>
-    <col width="43" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="81" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="35" customWidth="1" min="2" max="2"/>
+    <col width="38" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Bezirk</t>
+          <t>Nr.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Adresse</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Anzahl Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -2598,20 +2476,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Antoniusstraße 32, 48151 Münster</t>
+          <t>Pleisterschule</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>111 - Goebenstraße</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9529829%2C7.621452075627948</t>
+          <t>An der Konradkirche 7, 48155 Münster</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>174</t>
         </is>
       </c>
     </row>
@@ -2621,20 +2496,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bismarckallee 55, 48151 Münster</t>
+          <t>Pfarrheim an der Margaretakirche</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>121 - Scharnhorststraße 122 - Pluggendorf</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.95197455%2C7.609399799788202</t>
+          <t>Hegerskamp 3, 48155 Münster</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>193</t>
         </is>
       </c>
     </row>
@@ -2644,20 +2516,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Von-Kluck-Straße 22, 48151 Münster</t>
+          <t>Ev. Auferstehungs-Kirchengemeinde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>095 - Antoniuskirche 112 - Hornstraße</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9545184%2C7.6234543</t>
+          <t>Heinrich-Lersch-Weg 9, 48155 Münster</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Margaretenschule Münster</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Laerer Landweg 153, 48155 Münster</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>191, 192, 195</t>
         </is>
       </c>
     </row>
@@ -2672,7 +2561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2680,107 +2569,2518 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="31" customWidth="1" min="2" max="2"/>
-    <col width="93" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="81" customWidth="1" min="5" max="5"/>
+    <col width="19" customWidth="1" min="1" max="1"/>
+    <col width="42" customWidth="1" min="2" max="2"/>
+    <col width="47" customWidth="1" min="3" max="3"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Bezirk</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Kontrollbezirk 1</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Adresse</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>Stimmbezirke</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Anzahl Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Google-Link</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="6" t="inlineStr">
+        <is>
+          <t>Annette-von-Droste-Hülshoff-Grundschule</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="inlineStr">
         <is>
           <t>Kirmstraße 1, 48161 Münster</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>332 - Sebastianstraße 334 - Feldstiege 335 - Von-Schonebeck-Ring
- 336 - Stefan-Zweig-Straße</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+      <c r="D2" s="7" t="inlineStr">
+        <is>
+          <t>332, 334, 335, 336</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="inlineStr">
+        <is>
+          <t>Gemeinschaftsraum St. Aloysius Häger</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="inlineStr">
+        <is>
+          <t>Plantstaken 55, 48161 Münster</t>
+        </is>
+      </c>
+      <c r="D3" s="7" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="inlineStr">
+        <is>
+          <t>Grundschule Sprakel</t>
+        </is>
+      </c>
+      <c r="C4" s="9" t="inlineStr">
+        <is>
+          <t>Weißdornweg 40, 48159 Münster</t>
+        </is>
+      </c>
+      <c r="D4" s="10" t="inlineStr">
+        <is>
+          <t>151, 152</t>
+        </is>
+      </c>
+    </row>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="2" t="inlineStr">
+        <is>
+          <t>Kontrollbezirk 2</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Stimmbezirke</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>Matthias-Claudius-Schule Handorf</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="inlineStr">
+        <is>
+          <t>Drostestraße 7, 48157 Münster</t>
+        </is>
+      </c>
+      <c r="D7" s="7" t="inlineStr">
+        <is>
+          <t>182, 183, 184</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>Städt. Kita Eichenaue</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="inlineStr">
+        <is>
+          <t>Eichenaue 3, 48157 Münster</t>
+        </is>
+      </c>
+      <c r="D8" s="7" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6" t="inlineStr">
+        <is>
+          <t>Astrid-Lindgren-Schule Gelmer</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="inlineStr">
+        <is>
+          <t>Gelmerheide 3, 48157 Münster</t>
+        </is>
+      </c>
+      <c r="D9" s="7" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="n">
         <v>4</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.99614235%2C7.559480267994298</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="B10" s="9" t="inlineStr">
+        <is>
+          <t>Dat Handorfer Huus</t>
+        </is>
+      </c>
+      <c r="C10" s="9" t="inlineStr">
+        <is>
+          <t>Immelmannstraße 37, 48157 Münster</t>
+        </is>
+      </c>
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+    </row>
+    <row r="11"/>
+    <row r="12">
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>Kontrollbezirk 3</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>Stimmbezirke</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>Grundschule Kinderhaus-West</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="inlineStr">
+        <is>
+          <t>Josef-Beckmann-Straße 33, 48159 Münster</t>
+        </is>
+      </c>
+      <c r="D13" s="7" t="inlineStr">
+        <is>
+          <t>145, 146</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Plantstaken 55, 48161 Münster</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>331 - Häger</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+      <c r="B14" s="6" t="inlineStr">
+        <is>
+          <t>Atrium Kulturverein</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="inlineStr">
+        <is>
+          <t>Sprickmannplatz 1, 48159 Münster</t>
+        </is>
+      </c>
+      <c r="D14" s="7" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B15" s="9" t="inlineStr">
+        <is>
+          <t>Begegnungszentrum Kinderhaus</t>
+        </is>
+      </c>
+      <c r="C15" s="9" t="inlineStr">
+        <is>
+          <t>Sprickmannplatz 7, 48159 Münster</t>
+        </is>
+      </c>
+      <c r="D15" s="10" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+    </row>
+    <row r="16"/>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>Kontrollbezirk 4</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>Stimmbezirke</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=52.0229139%2C7.56608970890625</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="B18" s="6" t="inlineStr">
+        <is>
+          <t>Hauptschule Coerde</t>
+        </is>
+      </c>
+      <c r="C18" s="6" t="inlineStr">
+        <is>
+          <t>Dachsleite 32-36, 48157 Münster</t>
+        </is>
+      </c>
+      <c r="D18" s="7" t="inlineStr">
+        <is>
+          <t>161, 166</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>Melanchthonschule Münster</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="inlineStr">
+        <is>
+          <t>Königsberger Straße 91, 48157 Münster</t>
+        </is>
+      </c>
+      <c r="D19" s="7" t="inlineStr">
+        <is>
+          <t>164, 165</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Weißdornweg 40, 48159 Münster</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>151 - Sprakel 152 - Sandruper Straße</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
+      <c r="B20" s="9" t="inlineStr">
+        <is>
+          <t>KFZ-Zulassungsstelle</t>
+        </is>
+      </c>
+      <c r="C20" s="9" t="inlineStr">
+        <is>
+          <t>Rudolf-Diesel-Straße 7, 48157 Münster</t>
+        </is>
+      </c>
+      <c r="D20" s="10" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+    </row>
+    <row r="21"/>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>Kontrollbezirk 5</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>Stimmbezirke</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B23" s="6" t="inlineStr">
+        <is>
+          <t>Kompass-Schule</t>
+        </is>
+      </c>
+      <c r="C23" s="6" t="inlineStr">
+        <is>
+          <t>Bröderichweg 36, 48159 Münster</t>
+        </is>
+      </c>
+      <c r="D23" s="7" t="inlineStr">
+        <is>
+          <t>153, 156</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="n">
         <v>2</v>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=52.03693315%2C7.609531337994388</t>
+      <c r="B24" s="6" t="inlineStr">
+        <is>
+          <t>Kita und Familienzentrum Im Moorhock</t>
+        </is>
+      </c>
+      <c r="C24" s="6" t="inlineStr">
+        <is>
+          <t>Im Moorhock 71, 48159 Münster</t>
+        </is>
+      </c>
+      <c r="D24" s="7" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B25" s="9" t="inlineStr">
+        <is>
+          <t>Geschwister-Scholl-Schulzentrum</t>
+        </is>
+      </c>
+      <c r="C25" s="9" t="inlineStr">
+        <is>
+          <t>Von-Humboldt-Straße 14, 48159 Münster</t>
+        </is>
+      </c>
+      <c r="D25" s="10" t="inlineStr">
+        <is>
+          <t>141, 142, 143, 144</t>
+        </is>
+      </c>
+    </row>
+    <row r="26"/>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>Kontrollbezirk 6</t>
+        </is>
+      </c>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>Stimmbezirke</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" s="6" t="inlineStr">
+        <is>
+          <t>Thomas-Morus-Schule</t>
+        </is>
+      </c>
+      <c r="C28" s="6" t="inlineStr">
+        <is>
+          <t>Thomas-Morus-Weg 7, 48147 Münster</t>
+        </is>
+      </c>
+      <c r="D28" s="7" t="inlineStr">
+        <is>
+          <t>041, 061, 064, 065, 066</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" s="9" t="inlineStr">
+        <is>
+          <t>Norbert Grundschule</t>
+        </is>
+      </c>
+      <c r="C29" s="9" t="inlineStr">
+        <is>
+          <t>An der Meerwiese 7, 48157 Münster</t>
+        </is>
+      </c>
+      <c r="D29" s="10" t="inlineStr">
+        <is>
+          <t>162, 163</t>
+        </is>
+      </c>
+    </row>
+    <row r="30"/>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>Kontrollbezirk 7</t>
+        </is>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>Stimmbezirke</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B32" s="6" t="inlineStr">
+        <is>
+          <t>Dreifaltigkeitsschule</t>
+        </is>
+      </c>
+      <c r="C32" s="6" t="inlineStr">
+        <is>
+          <t>Friesenring 25, 48147 Münster</t>
+        </is>
+      </c>
+      <c r="D32" s="7" t="inlineStr">
+        <is>
+          <t>051, 054, 055</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B33" s="9" t="inlineStr">
+        <is>
+          <t>JAZ-Café</t>
+        </is>
+      </c>
+      <c r="C33" s="9" t="inlineStr">
+        <is>
+          <t>Kinderhauser Straße 112, 48147 Münster</t>
+        </is>
+      </c>
+      <c r="D33" s="10" t="inlineStr">
+        <is>
+          <t>056</t>
+        </is>
+      </c>
+    </row>
+    <row r="34"/>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>Kontrollbezirk 8</t>
+        </is>
+      </c>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>Stimmbezirke</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B36" s="6" t="inlineStr">
+        <is>
+          <t>Realschule im Kreuzviertel</t>
+        </is>
+      </c>
+      <c r="C36" s="6" t="inlineStr">
+        <is>
+          <t>Finkenstraße 76, 48147 Münster</t>
+        </is>
+      </c>
+      <c r="D36" s="7" t="inlineStr">
+        <is>
+          <t>021, 022, 023, 031</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B37" s="9" t="inlineStr">
+        <is>
+          <t>Pascal-Gymnasium Münster</t>
+        </is>
+      </c>
+      <c r="C37" s="9" t="inlineStr">
+        <is>
+          <t>Uppenkampstiege 17, 48147 Münster</t>
+        </is>
+      </c>
+      <c r="D37" s="10" t="inlineStr">
+        <is>
+          <t>052, 053</t>
+        </is>
+      </c>
+    </row>
+    <row r="38"/>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>Kontrollbezirk 9</t>
+        </is>
+      </c>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="D39" s="4" t="inlineStr">
+        <is>
+          <t>Stimmbezirke</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B40" s="6" t="inlineStr">
+        <is>
+          <t>Pfarrheim St. Pius</t>
+        </is>
+      </c>
+      <c r="C40" s="6" t="inlineStr">
+        <is>
+          <t>Lahnstraße 3, 48145 Münster</t>
+        </is>
+      </c>
+      <c r="D40" s="7" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B41" s="6" t="inlineStr">
+        <is>
+          <t>Erich-Kästner-Schule</t>
+        </is>
+      </c>
+      <c r="C41" s="6" t="inlineStr">
+        <is>
+          <t>Pötterhoek 45, 48145 Münster</t>
+        </is>
+      </c>
+      <c r="D41" s="7" t="inlineStr">
+        <is>
+          <t>062</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B42" s="9" t="inlineStr">
+        <is>
+          <t>GenoKolleg</t>
+        </is>
+      </c>
+      <c r="C42" s="9" t="inlineStr">
+        <is>
+          <t>Wiener Straße 53, 48145 Münster</t>
+        </is>
+      </c>
+      <c r="D42" s="10" t="inlineStr">
+        <is>
+          <t>063, 071</t>
+        </is>
+      </c>
+    </row>
+    <row r="43"/>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>Kontrollbezirk 10</t>
+        </is>
+      </c>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="D44" s="4" t="inlineStr">
+        <is>
+          <t>Stimmbezirke</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B45" s="6" t="inlineStr">
+        <is>
+          <t>Martin-Luther-Schule</t>
+        </is>
+      </c>
+      <c r="C45" s="6" t="inlineStr">
+        <is>
+          <t>Coerdestraße 8, 48147 Münster</t>
+        </is>
+      </c>
+      <c r="D45" s="7" t="inlineStr">
+        <is>
+          <t>033, 034</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B46" s="9" t="inlineStr">
+        <is>
+          <t>Kreuzschule Münster</t>
+        </is>
+      </c>
+      <c r="C46" s="9" t="inlineStr">
+        <is>
+          <t>Kampstraße 15, 48147 Münster</t>
+        </is>
+      </c>
+      <c r="D46" s="10" t="inlineStr">
+        <is>
+          <t>024, 032, 035, 036</t>
+        </is>
+      </c>
+    </row>
+    <row r="47"/>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>Kontrollbezirk 11</t>
+        </is>
+      </c>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="D48" s="4" t="inlineStr">
+        <is>
+          <t>Stimmbezirke</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B49" s="6" t="inlineStr">
+        <is>
+          <t>Mosaik-Schule Münster</t>
+        </is>
+      </c>
+      <c r="C49" s="6" t="inlineStr">
+        <is>
+          <t>Dieckmannstraße 131, 48161 Münster</t>
+        </is>
+      </c>
+      <c r="D49" s="7" t="inlineStr">
+        <is>
+          <t>314, 315</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B50" s="6" t="inlineStr">
+        <is>
+          <t>St. Michael Kindergarten III</t>
+        </is>
+      </c>
+      <c r="C50" s="6" t="inlineStr">
+        <is>
+          <t>Gronowskistraße 70, 48161 Münster</t>
+        </is>
+      </c>
+      <c r="D50" s="7" t="inlineStr">
+        <is>
+          <t>312, 313</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B51" s="9" t="inlineStr">
+        <is>
+          <t>Altenheim St. Elisabeth</t>
+        </is>
+      </c>
+      <c r="C51" s="9" t="inlineStr">
+        <is>
+          <t>Südlohnweg 1, 48161 Münster</t>
+        </is>
+      </c>
+      <c r="D51" s="10" t="inlineStr">
+        <is>
+          <t>311, 333</t>
+        </is>
+      </c>
+    </row>
+    <row r="52"/>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>Kontrollbezirk 12</t>
+        </is>
+      </c>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="D53" s="4" t="inlineStr">
+        <is>
+          <t>Stimmbezirke</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B54" s="6" t="inlineStr">
+        <is>
+          <t>Michaelschule</t>
+        </is>
+      </c>
+      <c r="C54" s="6" t="inlineStr">
+        <is>
+          <t>Appelbreistiege 40, 48149 Münster</t>
+        </is>
+      </c>
+      <c r="D54" s="7" t="inlineStr">
+        <is>
+          <t>322, 323, 324</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B55" s="6" t="inlineStr">
+        <is>
+          <t>Fachhochschulzentrum Münster</t>
+        </is>
+      </c>
+      <c r="C55" s="6" t="inlineStr">
+        <is>
+          <t>Corrensstraße 25, 48149 Münster</t>
+        </is>
+      </c>
+      <c r="D55" s="7" t="inlineStr">
+        <is>
+          <t>301, 302, 303, 305</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B56" s="9" t="inlineStr">
+        <is>
+          <t>Freie Waldorfschule</t>
+        </is>
+      </c>
+      <c r="C56" s="9" t="inlineStr">
+        <is>
+          <t>Rudolf-Steiner-Weg 11, 48161 Münster</t>
+        </is>
+      </c>
+      <c r="D56" s="10" t="inlineStr">
+        <is>
+          <t>321, 325</t>
+        </is>
+      </c>
+    </row>
+    <row r="57"/>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>Kontrollbezirk 13</t>
+        </is>
+      </c>
+      <c r="B58" s="3" t="inlineStr">
+        <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="inlineStr">
+        <is>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="D58" s="4" t="inlineStr">
+        <is>
+          <t>Stimmbezirke</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B59" s="6" t="inlineStr">
+        <is>
+          <t>Ratsgymnasium Münster</t>
+        </is>
+      </c>
+      <c r="C59" s="6" t="inlineStr">
+        <is>
+          <t>Bohlweg 7, 48147 Münster</t>
+        </is>
+      </c>
+      <c r="D59" s="7" t="inlineStr">
+        <is>
+          <t>044, 047</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B60" s="6" t="inlineStr">
+        <is>
+          <t>Johann-Conrad-Schlaun-Gymnasium</t>
+        </is>
+      </c>
+      <c r="C60" s="6" t="inlineStr">
+        <is>
+          <t>Sonnenstraße 18, 48143 Münster</t>
+        </is>
+      </c>
+      <c r="D60" s="7" t="inlineStr">
+        <is>
+          <t>013</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B61" s="9" t="inlineStr">
+        <is>
+          <t>Studieninstitut für kommunale Verwaltung</t>
+        </is>
+      </c>
+      <c r="C61" s="9" t="inlineStr">
+        <is>
+          <t>Stühmerweg 10, 48147 Münster</t>
+        </is>
+      </c>
+      <c r="D61" s="10" t="inlineStr">
+        <is>
+          <t>045, 046</t>
+        </is>
+      </c>
+    </row>
+    <row r="62"/>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>Kontrollbezirk 14</t>
+        </is>
+      </c>
+      <c r="B63" s="3" t="inlineStr">
+        <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="inlineStr">
+        <is>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="D63" s="4" t="inlineStr">
+        <is>
+          <t>Stimmbezirke</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B64" s="6" t="inlineStr">
+        <is>
+          <t>Stadtbücherei Münster</t>
+        </is>
+      </c>
+      <c r="C64" s="6" t="inlineStr">
+        <is>
+          <t>Alter Steinweg 11, 48143 Münster</t>
+        </is>
+      </c>
+      <c r="D64" s="7" t="inlineStr">
+        <is>
+          <t>014</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B65" s="6" t="inlineStr">
+        <is>
+          <t>Annette von Droste Hülshoff Gymnasium</t>
+        </is>
+      </c>
+      <c r="C65" s="6" t="inlineStr">
+        <is>
+          <t>Grüne Gasse 38-40, 48143 Münster</t>
+        </is>
+      </c>
+      <c r="D65" s="7" t="inlineStr">
+        <is>
+          <t>015</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B66" s="9" t="inlineStr">
+        <is>
+          <t>Gesamtschule Münster-Mitte</t>
+        </is>
+      </c>
+      <c r="C66" s="9" t="inlineStr">
+        <is>
+          <t>Jüdefelderstraße 10, 48143 Münster</t>
+        </is>
+      </c>
+      <c r="D66" s="10" t="inlineStr">
+        <is>
+          <t>011, 012, 016, 026</t>
+        </is>
+      </c>
+    </row>
+    <row r="67"/>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>Kontrollbezirk 15</t>
+        </is>
+      </c>
+      <c r="B68" s="3" t="inlineStr">
+        <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C68" s="3" t="inlineStr">
+        <is>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="D68" s="4" t="inlineStr">
+        <is>
+          <t>Stimmbezirke</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B69" s="6" t="inlineStr">
+        <is>
+          <t>Bodelschwinghschule Münster</t>
+        </is>
+      </c>
+      <c r="C69" s="6" t="inlineStr">
+        <is>
+          <t>Gutenbergstraße 14, 48145 Münster</t>
+        </is>
+      </c>
+      <c r="D69" s="7" t="inlineStr">
+        <is>
+          <t>074, 075</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B70" s="6" t="inlineStr">
+        <is>
+          <t>Mathilde Anneke Gesamtschule</t>
+        </is>
+      </c>
+      <c r="C70" s="6" t="inlineStr">
+        <is>
+          <t>Manfred-von-Richthofen-Str. 46, 48145 Münster</t>
+        </is>
+      </c>
+      <c r="D70" s="7" t="inlineStr">
+        <is>
+          <t>081, 082</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B71" s="6" t="inlineStr">
+        <is>
+          <t>CVJM Johannes-Busch-Haus</t>
+        </is>
+      </c>
+      <c r="C71" s="6" t="inlineStr">
+        <is>
+          <t>Merschkamp 23, 48155 Münster</t>
+        </is>
+      </c>
+      <c r="D71" s="7" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B72" s="6" t="inlineStr">
+        <is>
+          <t>Pfarrheim St. Mauritz</t>
+        </is>
+      </c>
+      <c r="C72" s="6" t="inlineStr">
+        <is>
+          <t>Sankt-Mauritz-Freiheit 25, 48145 Münster</t>
+        </is>
+      </c>
+      <c r="D72" s="7" t="inlineStr">
+        <is>
+          <t>042</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B73" s="9" t="inlineStr">
+        <is>
+          <t>Mauritzschule Münster</t>
+        </is>
+      </c>
+      <c r="C73" s="9" t="inlineStr">
+        <is>
+          <t>Stiftsstraße 19, 48145 Münster</t>
+        </is>
+      </c>
+      <c r="D73" s="10" t="inlineStr">
+        <is>
+          <t>043, 072, 073</t>
+        </is>
+      </c>
+    </row>
+    <row r="74"/>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>Kontrollbezirk 16</t>
+        </is>
+      </c>
+      <c r="B75" s="3" t="inlineStr">
+        <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C75" s="3" t="inlineStr">
+        <is>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="D75" s="4" t="inlineStr">
+        <is>
+          <t>Stimmbezirke</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B76" s="6" t="inlineStr">
+        <is>
+          <t>Servicebüro Familie</t>
+        </is>
+      </c>
+      <c r="C76" s="6" t="inlineStr">
+        <is>
+          <t>Robert-Koch-Straße 40, 48149 Münster</t>
+        </is>
+      </c>
+      <c r="D76" s="7" t="inlineStr">
+        <is>
+          <t>025</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B77" s="9" t="inlineStr">
+        <is>
+          <t>Theresienschule</t>
+        </is>
+      </c>
+      <c r="C77" s="9" t="inlineStr">
+        <is>
+          <t>Sentruper Höhe 5, 48149 Münster</t>
+        </is>
+      </c>
+      <c r="D77" s="10" t="inlineStr">
+        <is>
+          <t>304, 306</t>
+        </is>
+      </c>
+    </row>
+    <row r="78"/>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>Kontrollbezirk 17</t>
+        </is>
+      </c>
+      <c r="B79" s="3" t="inlineStr">
+        <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C79" s="3" t="inlineStr">
+        <is>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="D79" s="4" t="inlineStr">
+        <is>
+          <t>Stimmbezirke</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B80" s="6" t="inlineStr">
+        <is>
+          <t>Pleisterschule</t>
+        </is>
+      </c>
+      <c r="C80" s="6" t="inlineStr">
+        <is>
+          <t>An der Konradkirche 7, 48155 Münster</t>
+        </is>
+      </c>
+      <c r="D80" s="7" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B81" s="6" t="inlineStr">
+        <is>
+          <t>Pfarrheim an der Margaretakirche</t>
+        </is>
+      </c>
+      <c r="C81" s="6" t="inlineStr">
+        <is>
+          <t>Hegerskamp 3, 48155 Münster</t>
+        </is>
+      </c>
+      <c r="D81" s="7" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B82" s="6" t="inlineStr">
+        <is>
+          <t>Ev. Auferstehungs-Kirchengemeinde</t>
+        </is>
+      </c>
+      <c r="C82" s="6" t="inlineStr">
+        <is>
+          <t>Heinrich-Lersch-Weg 9, 48155 Münster</t>
+        </is>
+      </c>
+      <c r="D82" s="7" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B83" s="9" t="inlineStr">
+        <is>
+          <t>Margaretenschule Münster</t>
+        </is>
+      </c>
+      <c r="C83" s="9" t="inlineStr">
+        <is>
+          <t>Laerer Landweg 153, 48155 Münster</t>
+        </is>
+      </c>
+      <c r="D83" s="10" t="inlineStr">
+        <is>
+          <t>191, 192, 195</t>
+        </is>
+      </c>
+    </row>
+    <row r="84"/>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>Kontrollbezirk 18</t>
+        </is>
+      </c>
+      <c r="B85" s="3" t="inlineStr">
+        <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C85" s="3" t="inlineStr">
+        <is>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="D85" s="4" t="inlineStr">
+        <is>
+          <t>Stimmbezirke</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B86" s="6" t="inlineStr">
+        <is>
+          <t>Ev. Matthäusgemeinde</t>
+        </is>
+      </c>
+      <c r="C86" s="6" t="inlineStr">
+        <is>
+          <t>Antoniusstraße 32, 48151 Münster</t>
+        </is>
+      </c>
+      <c r="D86" s="7" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B87" s="6" t="inlineStr">
+        <is>
+          <t>Erich-Klausener-Schule</t>
+        </is>
+      </c>
+      <c r="C87" s="6" t="inlineStr">
+        <is>
+          <t>Bismarckallee 55, 48151 Münster</t>
+        </is>
+      </c>
+      <c r="D87" s="7" t="inlineStr">
+        <is>
+          <t>121, 122</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B88" s="9" t="inlineStr">
+        <is>
+          <t>Marienschule (Aula)</t>
+        </is>
+      </c>
+      <c r="C88" s="9" t="inlineStr">
+        <is>
+          <t>Von-Kluck-Straße 22, 48151 Münster</t>
+        </is>
+      </c>
+      <c r="D88" s="10" t="inlineStr">
+        <is>
+          <t>095, 112</t>
+        </is>
+      </c>
+    </row>
+    <row r="89"/>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>Kontrollbezirk 19</t>
+        </is>
+      </c>
+      <c r="B90" s="3" t="inlineStr">
+        <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C90" s="3" t="inlineStr">
+        <is>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="D90" s="4" t="inlineStr">
+        <is>
+          <t>Stimmbezirke</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B91" s="6" t="inlineStr">
+        <is>
+          <t>Finanzamt Münster-Außenstadt</t>
+        </is>
+      </c>
+      <c r="C91" s="6" t="inlineStr">
+        <is>
+          <t>Friedrich-Ebert-Straße 46, 48153 Münster</t>
+        </is>
+      </c>
+      <c r="D91" s="7" t="inlineStr">
+        <is>
+          <t>101, 106, 107</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B92" s="6" t="inlineStr">
+        <is>
+          <t>Gleis 22 (JIB)</t>
+        </is>
+      </c>
+      <c r="C92" s="6" t="inlineStr">
+        <is>
+          <t>Hafenstraße 34, 48153 Münster</t>
+        </is>
+      </c>
+      <c r="D92" s="7" t="inlineStr">
+        <is>
+          <t>091</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B93" s="9" t="inlineStr">
+        <is>
+          <t>Stadthaus 2</t>
+        </is>
+      </c>
+      <c r="C93" s="9" t="inlineStr">
+        <is>
+          <t>Ludgeriplatz 4, 48151 Münster</t>
+        </is>
+      </c>
+      <c r="D93" s="10" t="inlineStr">
+        <is>
+          <t>094, 096</t>
+        </is>
+      </c>
+    </row>
+    <row r="94"/>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>Kontrollbezirk 20</t>
+        </is>
+      </c>
+      <c r="B95" s="3" t="inlineStr">
+        <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C95" s="3" t="inlineStr">
+        <is>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="D95" s="4" t="inlineStr">
+        <is>
+          <t>Stimmbezirke</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B96" s="6" t="inlineStr">
+        <is>
+          <t>Hansa-Berufskolleg</t>
+        </is>
+      </c>
+      <c r="C96" s="6" t="inlineStr">
+        <is>
+          <t>Hansaring 80, 48155 Münster</t>
+        </is>
+      </c>
+      <c r="D96" s="7" t="inlineStr">
+        <is>
+          <t>083, 084</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B97" s="6" t="inlineStr">
+        <is>
+          <t>Overbergschule Münster</t>
+        </is>
+      </c>
+      <c r="C97" s="6" t="inlineStr">
+        <is>
+          <t>Margaretenstraße 6, 48145 Münster</t>
+        </is>
+      </c>
+      <c r="D97" s="7" t="inlineStr">
+        <is>
+          <t>085, 092</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B98" s="6" t="inlineStr">
+        <is>
+          <t>Gesundheits- und Veterinäramt</t>
+        </is>
+      </c>
+      <c r="C98" s="6" t="inlineStr">
+        <is>
+          <t>Nieberdingstraße 30a, 48155 Münster</t>
+        </is>
+      </c>
+      <c r="D98" s="7" t="inlineStr">
+        <is>
+          <t>093, 102</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B99" s="9" t="inlineStr">
+        <is>
+          <t>Abfallwirtschaftsbetriebe Münster</t>
+        </is>
+      </c>
+      <c r="C99" s="9" t="inlineStr">
+        <is>
+          <t>Rösnerstraße 10, 48155 Münster</t>
+        </is>
+      </c>
+      <c r="D99" s="10" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+    </row>
+    <row r="100"/>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>Kontrollbezirk 21</t>
+        </is>
+      </c>
+      <c r="B101" s="3" t="inlineStr">
+        <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C101" s="3" t="inlineStr">
+        <is>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="D101" s="4" t="inlineStr">
+        <is>
+          <t>Stimmbezirke</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B102" s="6" t="inlineStr">
+        <is>
+          <t>Marienschule Roxel</t>
+        </is>
+      </c>
+      <c r="C102" s="6" t="inlineStr">
+        <is>
+          <t>Auf dem Dorn 14, 48161 Münster</t>
+        </is>
+      </c>
+      <c r="D102" s="7" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B103" s="6" t="inlineStr">
+        <is>
+          <t>Haus der Begegnung Albachten</t>
+        </is>
+      </c>
+      <c r="C103" s="6" t="inlineStr">
+        <is>
+          <t>Hohe Geist 8, 48163 Münster</t>
+        </is>
+      </c>
+      <c r="D103" s="7" t="inlineStr">
+        <is>
+          <t>271, 273, 274</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B104" s="9" t="inlineStr">
+        <is>
+          <t>Gesamtschule Münster-West</t>
+        </is>
+      </c>
+      <c r="C104" s="9" t="inlineStr">
+        <is>
+          <t>Tilbecker Straße 24-26, 48161 Münster</t>
+        </is>
+      </c>
+      <c r="D104" s="10" t="inlineStr">
+        <is>
+          <t>291, 292, 294, 295, 296</t>
+        </is>
+      </c>
+    </row>
+    <row r="105"/>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>Kontrollbezirk 22</t>
+        </is>
+      </c>
+      <c r="B106" s="3" t="inlineStr">
+        <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C106" s="3" t="inlineStr">
+        <is>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="D106" s="4" t="inlineStr">
+        <is>
+          <t>Stimmbezirke</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B107" s="6" t="inlineStr">
+        <is>
+          <t>ASB Julius-Moses-Kita</t>
+        </is>
+      </c>
+      <c r="C107" s="6" t="inlineStr">
+        <is>
+          <t>Dahlweg 118, 48153 Münster</t>
+        </is>
+      </c>
+      <c r="D107" s="7" t="inlineStr">
+        <is>
+          <t>114, 132</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B108" s="6" t="inlineStr">
+        <is>
+          <t>Matthias-Claudius-Schule Münster</t>
+        </is>
+      </c>
+      <c r="C108" s="6" t="inlineStr">
+        <is>
+          <t>Gut Insel 36, 48151 Münster</t>
+        </is>
+      </c>
+      <c r="D108" s="7" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B109" s="6" t="inlineStr">
+        <is>
+          <t>Gemeindebüro Heilig Geist</t>
+        </is>
+      </c>
+      <c r="C109" s="6" t="inlineStr">
+        <is>
+          <t>Metzer Straße 41, 48151 Münster</t>
+        </is>
+      </c>
+      <c r="D109" s="7" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B110" s="6" t="inlineStr">
+        <is>
+          <t>Wilhelm-Hittorf-Gymnasium</t>
+        </is>
+      </c>
+      <c r="C110" s="6" t="inlineStr">
+        <is>
+          <t>Prinz-Eugen-Straße 27, 48151 Münster</t>
+        </is>
+      </c>
+      <c r="D110" s="7" t="inlineStr">
+        <is>
+          <t>104, 113</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B111" s="9" t="inlineStr">
+        <is>
+          <t>IHK Nord Westfalen</t>
+        </is>
+      </c>
+      <c r="C111" s="9" t="inlineStr">
+        <is>
+          <t>Sentmaringer Weg 61, 48151 Münster</t>
+        </is>
+      </c>
+      <c r="D111" s="10" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+    </row>
+    <row r="112"/>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>Kontrollbezirk 23</t>
+        </is>
+      </c>
+      <c r="B113" s="3" t="inlineStr">
+        <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C113" s="3" t="inlineStr">
+        <is>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="D113" s="4" t="inlineStr">
+        <is>
+          <t>Stimmbezirke</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B114" s="6" t="inlineStr">
+        <is>
+          <t>Dietrich-Bonhoeffer-Schule</t>
+        </is>
+      </c>
+      <c r="C114" s="6" t="inlineStr">
+        <is>
+          <t>Bonhoefferstraße 50, 48151 Münster</t>
+        </is>
+      </c>
+      <c r="D114" s="7" t="inlineStr">
+        <is>
+          <t>123, 124, 125</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B115" s="9" t="inlineStr">
+        <is>
+          <t>Friedensschule Münster</t>
+        </is>
+      </c>
+      <c r="C115" s="9" t="inlineStr">
+        <is>
+          <t>Echelmeyerstraße 19, 48163 Münster</t>
+        </is>
+      </c>
+      <c r="D115" s="10" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+    </row>
+    <row r="116"/>
+    <row r="117">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>Kontrollbezirk 24</t>
+        </is>
+      </c>
+      <c r="B117" s="3" t="inlineStr">
+        <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C117" s="3" t="inlineStr">
+        <is>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="D117" s="4" t="inlineStr">
+        <is>
+          <t>Stimmbezirke</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B118" s="6" t="inlineStr">
+        <is>
+          <t>Gottfried-von-Cappenberg-Schule</t>
+        </is>
+      </c>
+      <c r="C118" s="6" t="inlineStr">
+        <is>
+          <t>Glatzer Weg 9, 48151 Münster</t>
+        </is>
+      </c>
+      <c r="D118" s="7" t="inlineStr">
+        <is>
+          <t>134, 135, 136</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B119" s="6" t="inlineStr">
+        <is>
+          <t>PRIMUS Schule</t>
+        </is>
+      </c>
+      <c r="C119" s="6" t="inlineStr">
+        <is>
+          <t>Hogenbergstraße 160, 48153 Münster</t>
+        </is>
+      </c>
+      <c r="D119" s="7" t="inlineStr">
+        <is>
+          <t>231, 232, 233</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B120" s="6" t="inlineStr">
+        <is>
+          <t>Erna-de-Vries-Realschule</t>
+        </is>
+      </c>
+      <c r="C120" s="6" t="inlineStr">
+        <is>
+          <t>Spichernstraße 17, 48153 Münster</t>
+        </is>
+      </c>
+      <c r="D120" s="7" t="inlineStr">
+        <is>
+          <t>103, 105, 133</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B121" s="9" t="inlineStr">
+        <is>
+          <t>Kleingärtnerverein Grafschaft</t>
+        </is>
+      </c>
+      <c r="C121" s="9" t="inlineStr">
+        <is>
+          <t>Vennheideweg 100, 48165 Münster</t>
+        </is>
+      </c>
+      <c r="D121" s="10" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+    </row>
+    <row r="122"/>
+    <row r="123">
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>Kontrollbezirk 25</t>
+        </is>
+      </c>
+      <c r="B123" s="3" t="inlineStr">
+        <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C123" s="3" t="inlineStr">
+        <is>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="D123" s="4" t="inlineStr">
+        <is>
+          <t>Stimmbezirke</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B124" s="6" t="inlineStr">
+        <is>
+          <t>Hotel Restaurant Münnich</t>
+        </is>
+      </c>
+      <c r="C124" s="6" t="inlineStr">
+        <is>
+          <t>Heeremansweg 13, 48167 Münster</t>
+        </is>
+      </c>
+      <c r="D124" s="7" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B125" s="6" t="inlineStr">
+        <is>
+          <t>Annette-von-Droste-Hülshoff-Grundschule</t>
+        </is>
+      </c>
+      <c r="C125" s="6" t="inlineStr">
+        <is>
+          <t>Höftestraße 4, 48167 Münster</t>
+        </is>
+      </c>
+      <c r="D125" s="7" t="inlineStr">
+        <is>
+          <t>224, 226</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B126" s="6" t="inlineStr">
+        <is>
+          <t>Idaschule</t>
+        </is>
+      </c>
+      <c r="C126" s="6" t="inlineStr">
+        <is>
+          <t>Vörnste Esch 19, 48167 Münster</t>
+        </is>
+      </c>
+      <c r="D126" s="7" t="inlineStr">
+        <is>
+          <t>202, 203, 204</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B127" s="9" t="inlineStr">
+        <is>
+          <t>Ev. Friedens-Kirchengemeinde Münster</t>
+        </is>
+      </c>
+      <c r="C127" s="9" t="inlineStr">
+        <is>
+          <t>Zum Erlenbusch 15, 48167 Münster</t>
+        </is>
+      </c>
+      <c r="D127" s="10" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+    </row>
+    <row r="128"/>
+    <row r="129">
+      <c r="A129" s="2" t="inlineStr">
+        <is>
+          <t>Kontrollbezirk 26</t>
+        </is>
+      </c>
+      <c r="B129" s="3" t="inlineStr">
+        <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C129" s="3" t="inlineStr">
+        <is>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="D129" s="4" t="inlineStr">
+        <is>
+          <t>Stimmbezirke</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B130" s="6" t="inlineStr">
+        <is>
+          <t>Peter-Wust-Schule</t>
+        </is>
+      </c>
+      <c r="C130" s="6" t="inlineStr">
+        <is>
+          <t>Dingbängerweg 80, 48163 Münster</t>
+        </is>
+      </c>
+      <c r="D130" s="7" t="inlineStr">
+        <is>
+          <t>281, 283, 284, 285</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B131" s="9" t="inlineStr">
+        <is>
+          <t>Haus Benedikt</t>
+        </is>
+      </c>
+      <c r="C131" s="9" t="inlineStr">
+        <is>
+          <t>Kleibusch 10, 48163 Münster</t>
+        </is>
+      </c>
+      <c r="D131" s="10" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+    </row>
+    <row r="132"/>
+    <row r="133">
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>Kontrollbezirk 27</t>
+        </is>
+      </c>
+      <c r="B133" s="3" t="inlineStr">
+        <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C133" s="3" t="inlineStr">
+        <is>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="D133" s="4" t="inlineStr">
+        <is>
+          <t>Stimmbezirke</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B134" s="6" t="inlineStr">
+        <is>
+          <t>ASB Gustav Dietrich Kita</t>
+        </is>
+      </c>
+      <c r="C134" s="6" t="inlineStr">
+        <is>
+          <t>Alt Angelmodde 15, 48167 Münster</t>
+        </is>
+      </c>
+      <c r="D134" s="7" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B135" s="6" t="inlineStr">
+        <is>
+          <t>Nikolaischule Wolbeck</t>
+        </is>
+      </c>
+      <c r="C135" s="6" t="inlineStr">
+        <is>
+          <t>Am Wigbold 11, 48167 Münster</t>
+        </is>
+      </c>
+      <c r="D135" s="7" t="inlineStr">
+        <is>
+          <t>211, 214, 215</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B136" s="6" t="inlineStr">
+        <is>
+          <t>Eichendorffschule Angelmodde</t>
+        </is>
+      </c>
+      <c r="C136" s="6" t="inlineStr">
+        <is>
+          <t>Eichendorffstraße 36, 48167 Münster</t>
+        </is>
+      </c>
+      <c r="D136" s="7" t="inlineStr">
+        <is>
+          <t>222, 223</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="8" t="n">
+        <v>4</v>
+      </c>
+      <c r="B137" s="9" t="inlineStr">
+        <is>
+          <t>Gymnasium Wolbeck</t>
+        </is>
+      </c>
+      <c r="C137" s="9" t="inlineStr">
+        <is>
+          <t>Von-Holte-Straße 56, 48167 Münster</t>
+        </is>
+      </c>
+      <c r="D137" s="10" t="inlineStr">
+        <is>
+          <t>212, 213</t>
+        </is>
+      </c>
+    </row>
+    <row r="138"/>
+    <row r="139">
+      <c r="A139" s="2" t="inlineStr">
+        <is>
+          <t>Kontrollbezirk 28</t>
+        </is>
+      </c>
+      <c r="B139" s="3" t="inlineStr">
+        <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C139" s="3" t="inlineStr">
+        <is>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="D139" s="4" t="inlineStr">
+        <is>
+          <t>Stimmbezirke</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B140" s="6" t="inlineStr">
+        <is>
+          <t>Marienschule Hiltrup</t>
+        </is>
+      </c>
+      <c r="C140" s="6" t="inlineStr">
+        <is>
+          <t>Loddenweg 12, 48165 Münster</t>
+        </is>
+      </c>
+      <c r="D140" s="7" t="inlineStr">
+        <is>
+          <t>241, 244, 245</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B141" s="6" t="inlineStr">
+        <is>
+          <t>Ortsbüro St. Marien Hiltrup Ost</t>
+        </is>
+      </c>
+      <c r="C141" s="6" t="inlineStr">
+        <is>
+          <t>Loddenweg 8a, 48165 Münster</t>
+        </is>
+      </c>
+      <c r="D141" s="7" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B142" s="9" t="inlineStr">
+        <is>
+          <t>Clemensschule Hiltrup</t>
+        </is>
+      </c>
+      <c r="C142" s="9" t="inlineStr">
+        <is>
+          <t>Unckelstraße 19, 48165 Münster</t>
+        </is>
+      </c>
+      <c r="D142" s="10" t="inlineStr">
+        <is>
+          <t>251, 252, 253</t>
+        </is>
+      </c>
+    </row>
+    <row r="143"/>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>Kontrollbezirk 29</t>
+        </is>
+      </c>
+      <c r="B144" s="3" t="inlineStr">
+        <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C144" s="3" t="inlineStr">
+        <is>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="D144" s="4" t="inlineStr">
+        <is>
+          <t>Stimmbezirke</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B145" s="6" t="inlineStr">
+        <is>
+          <t>Ludgerusschule Hiltrup</t>
+        </is>
+      </c>
+      <c r="C145" s="6" t="inlineStr">
+        <is>
+          <t>An der Alten Kirche 161, 48165 Münster</t>
+        </is>
+      </c>
+      <c r="D145" s="7" t="inlineStr">
+        <is>
+          <t>235, 236, 237, 238, 255, 263</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B146" s="9" t="inlineStr">
+        <is>
+          <t>Immanuel-Kant-Gymnasium Hiltrup</t>
+        </is>
+      </c>
+      <c r="C146" s="9" t="inlineStr">
+        <is>
+          <t>Westfalenstraße 203, 48165 Münster</t>
+        </is>
+      </c>
+      <c r="D146" s="10" t="inlineStr">
+        <is>
+          <t>243, 254, 262</t>
+        </is>
+      </c>
+    </row>
+    <row r="147"/>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>Kontrollbezirk 30</t>
+        </is>
+      </c>
+      <c r="B148" s="3" t="inlineStr">
+        <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C148" s="3" t="inlineStr">
+        <is>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="D148" s="4" t="inlineStr">
+        <is>
+          <t>Stimmbezirke</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="B149" s="6" t="inlineStr">
+        <is>
+          <t>Grundschule Loevelingloh</t>
+        </is>
+      </c>
+      <c r="C149" s="6" t="inlineStr">
+        <is>
+          <t>Wiedaustraße 114, 48163 Münster</t>
+        </is>
+      </c>
+      <c r="D149" s="7" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="8" t="n">
+        <v>2</v>
+      </c>
+      <c r="B150" s="9" t="inlineStr">
+        <is>
+          <t>Davertschule Amelsbüren</t>
+        </is>
+      </c>
+      <c r="C150" s="9" t="inlineStr">
+        <is>
+          <t>Zum Häpper 10, 48163 Münster</t>
+        </is>
+      </c>
+      <c r="D150" s="10" t="inlineStr">
+        <is>
+          <t>264, 265, 266, 267</t>
         </is>
       </c>
     </row>
@@ -2795,7 +5095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2803,37 +5103,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="42" customWidth="1" min="2" max="2"/>
-    <col width="67" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="81" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="24" customWidth="1" min="2" max="2"/>
+    <col width="36" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Bezirk</t>
+          <t>Nr.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Adresse</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Anzahl Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -2843,20 +5137,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Friedrich-Ebert-Straße 46, 48153 Münster</t>
+          <t>Ev. Matthäusgemeinde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>101 - Zumbroockstraße 106 - Kronprinzenstraße 107 - Herdingstraße</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.95038475%2C7.63116767430181</t>
+          <t>Antoniusstraße 32, 48151 Münster</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>111</t>
         </is>
       </c>
     </row>
@@ -2866,20 +5157,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hafenstraße 34, 48153 Münster</t>
+          <t>Erich-Klausener-Schule</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>091 - Bahnhofstraße</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9536301%2C7.631478285026144</t>
+          <t>Bismarckallee 55, 48151 Münster</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>121, 122</t>
         </is>
       </c>
     </row>
@@ -2889,20 +5177,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ludgeriplatz 4, 48151 Münster</t>
+          <t>Marienschule (Aula)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>094 - Josef 096 - Engelenschanze</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.95502795%2C7.627151777945296</t>
+          <t>Von-Kluck-Straße 22, 48151 Münster</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>095, 112</t>
         </is>
       </c>
     </row>
@@ -2917,7 +5202,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2925,37 +5210,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="37" customWidth="1" min="2" max="2"/>
-    <col width="40" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="81" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="42" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Bezirk</t>
+          <t>Nr.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Adresse</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Anzahl Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -2965,20 +5244,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hansaring 80, 48155 Münster</t>
+          <t>Finanzamt Münster-Außenstadt</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>083 - Lambertistraße 084 - Hansaplatz</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9547017%2C7.645539912017435</t>
+          <t>Friedrich-Ebert-Straße 46, 48153 Münster</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>101, 106, 107</t>
         </is>
       </c>
     </row>
@@ -2988,20 +5264,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Margaretenstraße 6, 48145 Münster</t>
+          <t>Gleis 22 (JIB)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>085 - Sophienstraße 092 - Bremer Platz</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.95623855%2C7.644752314250903</t>
+          <t>Hafenstraße 34, 48153 Münster</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>091</t>
         </is>
       </c>
     </row>
@@ -3011,43 +5284,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nieberdingstraße 30a, 48155 Münster</t>
+          <t>Stadthaus 2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>093 - Bremer Straße 102 - Hafen</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9426636%2C7.641893159116444</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Rösnerstraße 10, 48155 Münster</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>201 - Lindberghweg</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9401638%2C7.64394955</t>
+          <t>Ludgeriplatz 4, 48151 Münster</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>094, 096</t>
         </is>
       </c>
     </row>
@@ -3062,7 +5309,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3070,37 +5317,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="39" customWidth="1" min="2" max="2"/>
-    <col width="138" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="88" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="35" customWidth="1" min="2" max="2"/>
+    <col width="37" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Bezirk</t>
+          <t>Nr.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Adresse</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Anzahl Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -3110,20 +5351,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Auf dem Dorn 14, 48161 Münster</t>
+          <t>Hansa-Berufskolleg</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>293 - Altenroxeler Straße</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.955106400000005%2C7.530773881241168</t>
+          <t>Hansaring 80, 48155 Münster</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>083, 084</t>
         </is>
       </c>
     </row>
@@ -3133,20 +5371,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hohe Geist 8, 48163 Münster</t>
+          <t>Overbergschule Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>271 - Oberort 273 - Albachtener Str./Steinkuhle 274 - In der Weede</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9227202%2C7.528324261355753</t>
+          <t>Margaretenstraße 6, 48145 Münster</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>085, 092</t>
         </is>
       </c>
     </row>
@@ -3156,22 +5391,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tilbecker Straße 24-26, 48161 Münster</t>
+          <t>Gesundheits- und Veterinäramt</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>291 - Annette-von-Droste-Hülshoff-Straße 292 - Havixbecker Straße
- 294 - Stellmacherweg 295 - Paul-Gerhardt-Straße
- 296 - Schelmenstiege</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>5</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9543838%2C7.5294497</t>
+          <t>Nieberdingstraße 30a, 48155 Münster</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>093, 102</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Abfallwirtschaftsbetriebe Münster</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Rösnerstraße 10, 48155 Münster</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>201</t>
         </is>
       </c>
     </row>
@@ -3186,7 +5436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3194,37 +5444,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="38" customWidth="1" min="2" max="2"/>
-    <col width="44" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="81" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="39" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Bezirk</t>
+          <t>Nr.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Adresse</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Anzahl Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -3234,20 +5478,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dahlweg 118, 48153 Münster</t>
+          <t>Marienschule Roxel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>114 - Weißenburgstraße 132 - Grevingstraße</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9394195%2C7.628834869047619</t>
+          <t>Auf dem Dorn 14, 48161 Münster</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>293</t>
         </is>
       </c>
     </row>
@@ -3257,20 +5498,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gut Insel 36, 48151 Münster</t>
+          <t>Haus der Begegnung Albachten</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>116 - Oberschlesier Straße</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.93860585%2C7.61298881209431</t>
+          <t>Hohe Geist 8, 48163 Münster</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>271, 273, 274</t>
         </is>
       </c>
     </row>
@@ -3280,66 +5518,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Metzer Straße 41, 48151 Münster</t>
+          <t>Gesamtschule Münster-West</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>131 - Elsässer Straße</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9400423%2C7.620743128124999</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Prinz-Eugen-Straße 27, 48151 Münster</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>104 - Scheibenstraße 113 - Turmstraße</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.94719195%2C7.618812311468304</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Sentmaringer Weg 61, 48151 Münster</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>115 - Grüner Grund</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9442968%2C7.6154512</t>
+          <t>Tilbecker Straße 24-26, 48161 Münster</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>291, 292, 294, 295, 296</t>
         </is>
       </c>
     </row>
@@ -3354,7 +5543,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3362,37 +5551,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="36" customWidth="1" min="2" max="2"/>
-    <col width="68" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="81" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="34" customWidth="1" min="2" max="2"/>
+    <col width="38" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Bezirk</t>
+          <t>Nr.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Adresse</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Anzahl Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -3402,20 +5585,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bonhoefferstraße 50, 48151 Münster</t>
+          <t>ASB Julius-Moses-Kita</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>123 - Goerdelerstraße 124 - Bonhoefferstraße 125 - Lange Ossenbeck</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.94163015%2C7.605145209437712</t>
+          <t>Dahlweg 118, 48153 Münster</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>114, 132</t>
         </is>
       </c>
     </row>
@@ -3425,20 +5605,77 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Echelmeyerstraße 19, 48163 Münster</t>
+          <t>Matthias-Claudius-Schule Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>282 - Ossenkampstiege</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9367046%2C7.592762937389198</t>
+          <t>Gut Insel 36, 48151 Münster</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Gemeindebüro Heilig Geist</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Metzer Straße 41, 48151 Münster</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Wilhelm-Hittorf-Gymnasium</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Prinz-Eugen-Straße 27, 48151 Münster</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>104, 113</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>IHK Nord Westfalen</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Sentmaringer Weg 61, 48151 Münster</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>115</t>
         </is>
       </c>
     </row>
@@ -3453,7 +5690,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3461,37 +5698,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="36" customWidth="1" min="2" max="2"/>
-    <col width="63" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="80" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="28" customWidth="1" min="2" max="2"/>
+    <col width="36" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Bezirk</t>
+          <t>Nr.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Adresse</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Anzahl Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -3501,20 +5732,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Glatzer Weg 9, 48151 Münster</t>
+          <t>Dietrich-Bonhoeffer-Schule</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>134 - Sternbusch 135 - Kriegerweg 136 - Clemenshospital</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9331045%2C7.612316207538708</t>
+          <t>Bonhoefferstraße 50, 48151 Münster</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>123, 124, 125</t>
         </is>
       </c>
     </row>
@@ -3524,66 +5752,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hogenbergstraße 160, 48153 Münster</t>
+          <t>Friedensschule Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>231 - Hogenbergstraße 232 - Am Berg Fidel 233 - Siemensstraße</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9246017%2C7.616106575165615</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Spichernstraße 17, 48153 Münster</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>103 - Alfred-Krupp-Weg 105 - Dahlweg 133 - Spichernstraße</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9351064%2C7.624068471386618</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Vennheideweg 100, 48165 Münster</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>234 - Vennheideweg</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9207589%2C7.613674901731838</t>
+          <t>Echelmeyerstraße 19, 48163 Münster</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>282</t>
         </is>
       </c>
     </row>
@@ -3598,7 +5777,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3606,37 +5785,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="34" customWidth="1" min="2" max="2"/>
-    <col width="56" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="81" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="33" customWidth="1" min="2" max="2"/>
+    <col width="36" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Bezirk</t>
+          <t>Nr.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Adresse</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Anzahl Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -3646,20 +5819,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Heeremansweg 13, 48167 Münster</t>
+          <t>Gottfried-von-Cappenberg-Schule</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>205 - Heeremansweg</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.92762325%2C7.657646146522559</t>
+          <t>Glatzer Weg 9, 48151 Münster</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>134, 135, 136</t>
         </is>
       </c>
     </row>
@@ -3669,20 +5839,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Höftestraße 4, 48167 Münster</t>
+          <t>PRIMUS Schule</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>224 - Albersloher Weg 226 - Heidestraße</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9213159%2C7.680753611632205</t>
+          <t>Hogenbergstraße 160, 48153 Münster</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>231, 232, 233</t>
         </is>
       </c>
     </row>
@@ -3692,20 +5859,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Vörnste Esch 19, 48167 Münster</t>
+          <t>Erna-de-Vries-Realschule</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>202 - Delstrup 203 - Kranichweg 204 - Anton-Knubel-Weg</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9323056%2C7.673866149953675</t>
+          <t>Spichernstraße 17, 48153 Münster</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>103, 105, 133</t>
         </is>
       </c>
     </row>
@@ -3715,20 +5879,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Zum Erlenbusch 15, 48167 Münster</t>
+          <t>Kleingärtnerverein Grafschaft</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>225 - Angelsachsenweg</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9246104%2C7.673691163250751</t>
+          <t>Vennheideweg 100, 48165 Münster</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>234</t>
         </is>
       </c>
     </row>
@@ -3743,7 +5904,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3751,37 +5912,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="33" customWidth="1" min="2" max="2"/>
-    <col width="69" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="81" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="41" customWidth="1" min="2" max="2"/>
+    <col width="34" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Bezirk</t>
+          <t>Nr.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Adresse</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Anzahl Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -3791,21 +5946,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dingbängerweg 80, 48163 Münster</t>
+          <t>Hotel Restaurant Münnich</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>281 - Hesselmann 283 - Dingbängerweg 284 - Am Dill
- 285 - Rote Erde</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.93262055%2C7.580143024353202</t>
+          <t>Heeremansweg 13, 48167 Münster</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>205</t>
         </is>
       </c>
     </row>
@@ -3815,20 +5966,57 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kleibusch 10, 48163 Münster</t>
+          <t>Annette-von-Droste-Hülshoff-Grundschule</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>272 - Heroldstraße</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.91972195%2C7.575926144323704</t>
+          <t>Höftestraße 4, 48167 Münster</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>224, 226</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Idaschule</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Vörnste Esch 19, 48167 Münster</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>202, 203, 204</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ev. Friedens-Kirchengemeinde Münster</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Zum Erlenbusch 15, 48167 Münster</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>225</t>
         </is>
       </c>
     </row>
@@ -3843,7 +6031,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3851,37 +6039,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="36" customWidth="1" min="2" max="2"/>
-    <col width="53" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="81" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="19" customWidth="1" min="2" max="2"/>
+    <col width="33" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Bezirk</t>
+          <t>Nr.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Adresse</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Anzahl Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -3891,20 +6073,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alt Angelmodde 15, 48167 Münster</t>
+          <t>Peter-Wust-Schule</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>221 - Angelstraße</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.92308165%2C7.699121370363766</t>
+          <t>Dingbängerweg 80, 48163 Münster</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>281, 283, 284, 285</t>
         </is>
       </c>
     </row>
@@ -3914,43 +6093,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Am Wigbold 11, 48167 Münster</t>
+          <t>Haus Benedikt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>211 - Kreuzbach 214 - Wolbeck Zentrum 215 - Hofkamp</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9153201%2C7.729627892884797</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Von-Holte-Straße 56, 48167 Münster</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>212 - Zumbuschstraße 213 - Am Berler Kamp</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9146987%2C7.7202582</t>
+          <t>Kleibusch 10, 48163 Münster</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>272</t>
         </is>
       </c>
     </row>
@@ -3965,7 +6118,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3973,37 +6126,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="37" customWidth="1" min="2" max="2"/>
-    <col width="54" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="88" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="37" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Bezirk</t>
+          <t>Nr.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Adresse</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Anzahl Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -4013,20 +6160,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eichendorffstraße 36, 48167 Münster</t>
+          <t>ASB Gustav Dietrich Kita</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>222 - Theodor-Heuss-Straße 223 - Bachstraße</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9147512%2C7.695004957462609</t>
+          <t>Alt Angelmodde 15, 48167 Münster</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>221</t>
         </is>
       </c>
     </row>
@@ -4036,20 +6180,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Loddenweg 12, 48165 Münster</t>
+          <t>Nikolaischule Wolbeck</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>241 - Ringstraße 244 - Hülsheide 245 - Am Roggenkamp</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.907630350000005%2C7.665853244332855</t>
+          <t>Am Wigbold 11, 48167 Münster</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>211, 214, 215</t>
         </is>
       </c>
     </row>
@@ -4059,20 +6200,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Loddenweg 8a, 48165 Münster</t>
+          <t>Eichendorffschule Angelmodde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>242 - Rubensstraße</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.90685355%2C7.667563705195853</t>
+          <t>Eichendorffstraße 36, 48167 Münster</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>222, 223</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Gymnasium Wolbeck</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Von-Holte-Straße 56, 48167 Münster</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>212, 213</t>
         </is>
       </c>
     </row>
@@ -4087,7 +6245,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4095,37 +6253,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="35" customWidth="1" min="2" max="2"/>
-    <col width="61" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="88" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="41" customWidth="1" min="2" max="2"/>
+    <col width="31" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Bezirk</t>
+          <t>Nr.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Adresse</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Anzahl Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -4135,20 +6287,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Drostestraße 7, 48157 Münster</t>
+          <t>Annette-von-Droste-Hülshoff-Grundschule</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>182 - Handorfer Straße 183 - Heriburgstraße 184 - Ziegelhof</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9901032%2C7.703648538461694</t>
+          <t>Kirmstraße 1, 48161 Münster</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>332, 334, 335, 336</t>
         </is>
       </c>
     </row>
@@ -4158,20 +6307,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eichenaue 3, 48157 Münster</t>
+          <t>Gemeinschaftsraum St. Aloysius Häger</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>181 - Hornheide</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.995582600000006%2C7.712675513581021</t>
+          <t>Plantstaken 55, 48161 Münster</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>331</t>
         </is>
       </c>
     </row>
@@ -4181,43 +6327,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gelmerheide 3, 48157 Münster</t>
+          <t>Grundschule Sprakel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>171 - Gelmer</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=52.0297395%2C7.675133013988717</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Immelmannstraße 37, 48157 Münster</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>185 - Dorbaum</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.99904765%2C7.715916456448493</t>
+          <t>Weißdornweg 40, 48159 Münster</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>151, 152</t>
         </is>
       </c>
     </row>
@@ -4232,7 +6352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4240,37 +6360,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="40" customWidth="1" min="2" max="2"/>
-    <col width="123" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="81" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="33" customWidth="1" min="2" max="2"/>
+    <col width="32" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Bezirk</t>
+          <t>Nr.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Adresse</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Anzahl Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -4280,21 +6394,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>An der Alten Kirche 161, 48165 Münster</t>
+          <t>Marienschule Hiltrup</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>235 - Hünenburg 236 - Böttcherstraße 237 - Albertsheide
- 238 - Wielandstraße 255 - Theodor-Storm-Straße 263 - Langestraße</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>6</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.90366345%2C7.626606101187082</t>
+          <t>Loddenweg 12, 48165 Münster</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>241, 244, 245</t>
         </is>
       </c>
     </row>
@@ -4304,20 +6414,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Unckelstraße 19, 48165 Münster</t>
+          <t>Ortsbüro St. Marien Hiltrup Ost</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>251 - Geistkamp 252 - Hülsebrockstraße 253 - Marktallee</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>3</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9065353%2C7.646594849248558</t>
+          <t>Loddenweg 8a, 48165 Münster</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>242</t>
         </is>
       </c>
     </row>
@@ -4327,20 +6434,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Westfalenstraße 203, 48165 Münster</t>
+          <t>Clemensschule Hiltrup</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>243 - Am Klosterwald 254 - Friedhofstraße 262 - Hansestraße</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9008006%2C7.641498432092007</t>
+          <t>Unckelstraße 19, 48165 Münster</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>251, 252, 253</t>
         </is>
       </c>
     </row>
@@ -4355,7 +6459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4363,37 +6467,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
+    <col width="5" customWidth="1" min="1" max="1"/>
     <col width="33" customWidth="1" min="2" max="2"/>
-    <col width="82" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="81" customWidth="1" min="5" max="5"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="30" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Bezirk</t>
+          <t>Nr.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Adresse</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Anzahl Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -4403,20 +6501,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Wiedaustraße 114, 48163 Münster</t>
+          <t>Ludgerusschule Hiltrup</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>261 - Loevelingloh</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.89424385%2C7.57817422018965</t>
+          <t>An der Alten Kirche 161, 48165 Münster</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>235, 236, 237, 238, 255, 263</t>
         </is>
       </c>
     </row>
@@ -4426,21 +6521,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>Immanuel-Kant-Gymnasium Hiltrup</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Westfalenstraße 203, 48165 Münster</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>243, 254, 262</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="26" customWidth="1" min="2" max="2"/>
+    <col width="33" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nr.</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Adresse</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Stimmbezirke</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Grundschule Loevelingloh</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Wiedaustraße 114, 48163 Münster</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Davertschule Amelsbüren</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>Zum Häpper 10, 48163 Münster</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>264 - Auf der Woort 265 - Pater-Kolbe-Straße 266 - Zur Windmühle
- 267 - Emmerweg</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>4</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.88487405%2C7.605494331904568</t>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>264, 265, 266, 267</t>
         </is>
       </c>
     </row>
@@ -4455,7 +6633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4463,37 +6641,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="41" customWidth="1" min="2" max="2"/>
-    <col width="41" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="81" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="34" customWidth="1" min="2" max="2"/>
+    <col width="35" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Bezirk</t>
+          <t>Nr.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Adresse</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Anzahl Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -4503,20 +6675,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Josef-Beckmann-Straße 33, 48159 Münster</t>
+          <t>Matthias-Claudius-Schule Handorf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>145 - Fernholzstraße 146 - Brüningheide</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.99691815%2C7.593705277551625</t>
+          <t>Drostestraße 7, 48157 Münster</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>182, 183, 184</t>
         </is>
       </c>
     </row>
@@ -4526,20 +6695,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sprickmannplatz 1, 48159 Münster</t>
+          <t>Städt. Kita Eichenaue</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>155 - Heidköttersweg</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9987374%2C7.594974856015037</t>
+          <t>Eichenaue 3, 48157 Münster</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>181</t>
         </is>
       </c>
     </row>
@@ -4549,20 +6715,37 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sprickmannplatz 7, 48159 Münster</t>
+          <t>Astrid-Lindgren-Schule Gelmer</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>147 - Killingstraße</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.99899595%2C7.594411513785913</t>
+          <t>Gelmerheide 3, 48157 Münster</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dat Handorfer Huus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Immelmannstraße 37, 48157 Münster</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>185</t>
         </is>
       </c>
     </row>
@@ -4577,7 +6760,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4585,37 +6768,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="39" customWidth="1" min="2" max="2"/>
-    <col width="47" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="81" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
+    <col width="41" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Bezirk</t>
+          <t>Nr.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Adresse</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Anzahl Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -4625,20 +6802,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dachsleite 32-36, 48157 Münster</t>
+          <t>Grundschule Kinderhaus-West</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>161 - Dachsleite 166 - Marderweg</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9970641%2C7.6477306</t>
+          <t>Josef-Beckmann-Straße 33, 48159 Münster</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>145, 146</t>
         </is>
       </c>
     </row>
@@ -4648,20 +6822,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Königsberger Straße 91, 48157 Münster</t>
+          <t>Atrium Kulturverein</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>164 - Görlitzer Straße 165 - Breslauer Straße</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.99323095%2C7.645804421953839</t>
+          <t>Sprickmannplatz 1, 48159 Münster</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>155</t>
         </is>
       </c>
     </row>
@@ -4671,20 +6842,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Rudolf-Diesel-Straße 7, 48157 Münster</t>
+          <t>Begegnungszentrum Kinderhaus</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>172 - Dyckburgstraße</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.99176755%2C7.666422605438813</t>
+          <t>Sprickmannplatz 7, 48159 Münster</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>147</t>
         </is>
       </c>
     </row>
@@ -4699,7 +6867,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4707,37 +6875,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="39" customWidth="1" min="2" max="2"/>
-    <col width="89" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="82" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="27" customWidth="1" min="2" max="2"/>
+    <col width="39" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Bezirk</t>
+          <t>Nr.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Adresse</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Anzahl Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -4747,20 +6909,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bröderichweg 36, 48159 Münster</t>
+          <t>Hauptschule Coerde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>153 - Bröderichweg 156 - Coermühle</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.99257595%2C7.6162983710793535</t>
+          <t>Dachsleite 32-36, 48157 Münster</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>161, 166</t>
         </is>
       </c>
     </row>
@@ -4770,20 +6929,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Im Moorhock 71, 48159 Münster</t>
+          <t>Melanchthonschule Münster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>154 - Rektoratsweg</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9893852%2C7.604524684580532</t>
+          <t>Königsberger Straße 91, 48157 Münster</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>164, 165</t>
         </is>
       </c>
     </row>
@@ -4793,21 +6949,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Von-Humboldt-Straße 14, 48159 Münster</t>
+          <t>KFZ-Zulassungsstelle</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>141 - Feldstiegenkamp 142 - Kinderhaus Zentrum 143 - Neuer Heidkamp
- 144 - Helmholtzweg</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>4</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.99835155%2C7.604638020118084</t>
+          <t>Rudolf-Diesel-Straße 7, 48157 Münster</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>172</t>
         </is>
       </c>
     </row>
@@ -4822,7 +6974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4830,37 +6982,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="35" customWidth="1" min="2" max="2"/>
-    <col width="113" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="81" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="38" customWidth="1" min="2" max="2"/>
+    <col width="39" customWidth="1" min="3" max="3"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Bezirk</t>
+          <t>Nr.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Adresse</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Anzahl Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -4870,20 +7016,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>An der Meerwiese 7, 48157 Münster</t>
+          <t>Kompass-Schule</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>162 - Königsberger Straße 163 - An der Meerwiese</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.98915895%2C7.648910980987003</t>
+          <t>Bröderichweg 36, 48159 Münster</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>153, 156</t>
         </is>
       </c>
     </row>
@@ -4893,21 +7036,37 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Thomas-Morus-Weg 7, 48147 Münster</t>
+          <t>Kita und Familienzentrum Im Moorhock</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>041 - Holsteiner Straße 061 - Hoppengarten
- 064 - Mecklenburger Straße 065 - Kösliner Straße 066 - Rumphorstweg</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>5</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.97468825%2C7.644125496047033</t>
+          <t>Im Moorhock 71, 48159 Münster</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Geschwister-Scholl-Schulzentrum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Von-Humboldt-Straße 14, 48159 Münster</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>141, 142, 143, 144</t>
         </is>
       </c>
     </row>
@@ -4922,7 +7081,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4930,37 +7089,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="40" customWidth="1" min="2" max="2"/>
-    <col width="67" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="80" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="21" customWidth="1" min="2" max="2"/>
+    <col width="35" customWidth="1" min="3" max="3"/>
+    <col width="25" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Bezirk</t>
+          <t>Nr.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Adresse</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Anzahl Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -4970,20 +7123,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Friesenring 25, 48147 Münster</t>
+          <t>Thomas-Morus-Schule</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>051 - Salzmannstraße 054 - Kinderhauser Straße 055 - Koburger Weg</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>3</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.975366%2C7.615509499999999</t>
+          <t>Thomas-Morus-Weg 7, 48147 Münster</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>041, 061, 064, 065, 066</t>
         </is>
       </c>
     </row>
@@ -4993,20 +7143,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kinderhauser Straße 112, 48147 Münster</t>
+          <t>Norbert Grundschule</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>056 - Dreizehnerstraße</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9815871%2C7.614148399880134</t>
+          <t>An der Meerwiese 7, 48157 Münster</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>162, 163</t>
         </is>
       </c>
     </row>
@@ -5021,7 +7168,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5029,37 +7176,31 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8" customWidth="1" min="1" max="1"/>
-    <col width="35" customWidth="1" min="2" max="2"/>
-    <col width="84" customWidth="1" min="3" max="3"/>
-    <col width="21" customWidth="1" min="4" max="4"/>
-    <col width="80" customWidth="1" min="5" max="5"/>
+    <col width="5" customWidth="1" min="1" max="1"/>
+    <col width="23" customWidth="1" min="2" max="2"/>
+    <col width="40" customWidth="1" min="3" max="3"/>
+    <col width="15" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Bezirk</t>
+          <t>Nr.</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Wahllokal</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Adresse</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Anzahl Stimmbezirke</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Google-Link</t>
         </is>
       </c>
     </row>
@@ -5069,21 +7210,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Finkenstraße 76, 48147 Münster</t>
+          <t>Dreifaltigkeitsschule</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>021 - Kapuzinerstraße 022 - Gasselstiege 023 - Marientalstraße
- 031 - Finkenstraße</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>4</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9737797%2C7.620670488251879</t>
+          <t>Friesenring 25, 48147 Münster</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>051, 054, 055</t>
         </is>
       </c>
     </row>
@@ -5093,20 +7230,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Uppenkampstiege 17, 48147 Münster</t>
+          <t>JAZ-Café</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>052 - Nevinghoff/Flandernstraße 053 - Uppenkampstiege</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/search/?api=1&amp;query=51.9766616%2C7.625917591294643</t>
+          <t>Kinderhauser Straße 112, 48147 Münster</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>056</t>
         </is>
       </c>
     </row>
